--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarloAkuma\Documents\Gamelab\Deltion.Gamelab1\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarloAkuma\Desktop\JOHN CENA TUUTUUDUU TUUU\Gamelab1\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="330">
   <si>
     <t>Planning</t>
   </si>
@@ -666,13 +666,361 @@
   </si>
   <si>
     <t>7S_TTA_001</t>
+  </si>
+  <si>
+    <t>Week 45</t>
+  </si>
+  <si>
+    <t>Week 46</t>
+  </si>
+  <si>
+    <t>week 47</t>
+  </si>
+  <si>
+    <t>Week 48</t>
+  </si>
+  <si>
+    <t>Week 49</t>
+  </si>
+  <si>
+    <t>Week 50</t>
+  </si>
+  <si>
+    <t>Week 51</t>
+  </si>
+  <si>
+    <t>Week 53</t>
+  </si>
+  <si>
+    <t>Week 52</t>
+  </si>
+  <si>
+    <t>Week 54</t>
+  </si>
+  <si>
+    <t>WeeK 55</t>
+  </si>
+  <si>
+    <t>Planning Volgende Periode</t>
+  </si>
+  <si>
+    <t>2D_ENEQANT_001</t>
+  </si>
+  <si>
+    <t>3D_ENEQANT_001</t>
+  </si>
+  <si>
+    <t>4U_ENEQANT_001</t>
+  </si>
+  <si>
+    <t>2D_WSWORD_001</t>
+  </si>
+  <si>
+    <t>3D_WSWORD_001</t>
+  </si>
+  <si>
+    <t>4U_WSWORD_001</t>
+  </si>
+  <si>
+    <t>6A_EGW_001</t>
+  </si>
+  <si>
+    <t>6A_EGA_001</t>
+  </si>
+  <si>
+    <t>6A_DFW_001</t>
+  </si>
+  <si>
+    <t>6A_DFA_001</t>
+  </si>
+  <si>
+    <t>6A_SRHW_001</t>
+  </si>
+  <si>
+    <t>6A_SRHS_001</t>
+  </si>
+  <si>
+    <t>6A_SHRI_001</t>
+  </si>
+  <si>
+    <t>6A_SHRD_001</t>
+  </si>
+  <si>
+    <t>6A_SHRJ_001</t>
+  </si>
+  <si>
+    <t>6A_SHRT_001</t>
+  </si>
+  <si>
+    <t>6A_SHRSW_001</t>
+  </si>
+  <si>
+    <t>6A_SHRSW_002</t>
+  </si>
+  <si>
+    <t>6A_SHRSW_003</t>
+  </si>
+  <si>
+    <t>6A_SHRSW_004</t>
+  </si>
+  <si>
+    <t>6A_SHRSW_005</t>
+  </si>
+  <si>
+    <t>6A_SHRSW_006</t>
+  </si>
+  <si>
+    <t>6A_SRCS_001</t>
+  </si>
+  <si>
+    <t>6A_SRKI_001</t>
+  </si>
+  <si>
+    <t>6A_SRAW_001</t>
+  </si>
+  <si>
+    <t>6A_SRAS_001</t>
+  </si>
+  <si>
+    <t>6A_SRAS_002</t>
+  </si>
+  <si>
+    <t>6A_SRAS_003</t>
+  </si>
+  <si>
+    <t>6A_SRAS_004</t>
+  </si>
+  <si>
+    <t>6A_SRADJ_001</t>
+  </si>
+  <si>
+    <t>6A_SRAI_001</t>
+  </si>
+  <si>
+    <t>6A_SRCE_001</t>
+  </si>
+  <si>
+    <t>2D_ENVJL_001</t>
+  </si>
+  <si>
+    <t>3D_ENVJL_001</t>
+  </si>
+  <si>
+    <t>4U_ENVJL_001</t>
+  </si>
+  <si>
+    <t>2D_ENVRL_001</t>
+  </si>
+  <si>
+    <t>3D_ENVRL_001</t>
+  </si>
+  <si>
+    <t>4U_ENVRL_001</t>
+  </si>
+  <si>
+    <t>2D_ENVRO_001</t>
+  </si>
+  <si>
+    <t>3D_ENVRO_001</t>
+  </si>
+  <si>
+    <t>4u_ENVRO_001</t>
+  </si>
+  <si>
+    <t>2D_ENVJP_001</t>
+  </si>
+  <si>
+    <t>3D_ENVJP_001</t>
+  </si>
+  <si>
+    <t>4U_ENVJP_001</t>
+  </si>
+  <si>
+    <t>2D_ENVLINE_001</t>
+  </si>
+  <si>
+    <t>3D_ENVLINE_001</t>
+  </si>
+  <si>
+    <t>4U_ENVLINE_001</t>
+  </si>
+  <si>
+    <t>2D_ENVCLO_001</t>
+  </si>
+  <si>
+    <t>3D_ENVCLO_001</t>
+  </si>
+  <si>
+    <t>4U_ENVCLO_001</t>
+  </si>
+  <si>
+    <t>4U_ENVDESK_001</t>
+  </si>
+  <si>
+    <t>2D_ENVDESK_001</t>
+  </si>
+  <si>
+    <t>3D_ENVDESK_001</t>
+  </si>
+  <si>
+    <t>2D_ENVBED_001</t>
+  </si>
+  <si>
+    <t>3D_ENVBED_001</t>
+  </si>
+  <si>
+    <t>4U_ENVBED_001</t>
+  </si>
+  <si>
+    <t>2D_ENVPIL_001</t>
+  </si>
+  <si>
+    <t>3D_ENVPIL_001</t>
+  </si>
+  <si>
+    <t>4U_ENVPIL_001</t>
+  </si>
+  <si>
+    <t>2D_ENVNS_001</t>
+  </si>
+  <si>
+    <t>3D_ENVNS_001</t>
+  </si>
+  <si>
+    <t>4U_ENVNS_001</t>
+  </si>
+  <si>
+    <t>2D_ENVTRAINR_001</t>
+  </si>
+  <si>
+    <t>3D_ENVTRAINR_001</t>
+  </si>
+  <si>
+    <t>4U_ENVTRAINR_001</t>
+  </si>
+  <si>
+    <t>3D_ENVTOYTR_001</t>
+  </si>
+  <si>
+    <t>4U_ENVTOYTR_001</t>
+  </si>
+  <si>
+    <t>2D_EnVTOYTR_001</t>
+  </si>
+  <si>
+    <t>2D_ENVRAMP_001</t>
+  </si>
+  <si>
+    <t>3D_ENVRAMP_001</t>
+  </si>
+  <si>
+    <t>4U_ENVRAMP_001</t>
+  </si>
+  <si>
+    <t>2D_ENVTUBE_001</t>
+  </si>
+  <si>
+    <t>3D_ENVTUBE_001</t>
+  </si>
+  <si>
+    <t>4U_ENVTUBE_001</t>
+  </si>
+  <si>
+    <t>2D_ENVCHAIR_001</t>
+  </si>
+  <si>
+    <t>3D_ENVCHAIR_001</t>
+  </si>
+  <si>
+    <t>4U_ENVCHAIR_001</t>
+  </si>
+  <si>
+    <t>2D_ENVTP_001</t>
+  </si>
+  <si>
+    <t>4U_ENVTP_001</t>
+  </si>
+  <si>
+    <t>3D_ENVTP_001</t>
+  </si>
+  <si>
+    <t>2D_ENVSPARE_001</t>
+  </si>
+  <si>
+    <t>3D_ENVSPARE_001</t>
+  </si>
+  <si>
+    <t>4U_ENVSPARE_001</t>
+  </si>
+  <si>
+    <t>2D_ENVJP_002</t>
+  </si>
+  <si>
+    <t>3D_ENVJP_002</t>
+  </si>
+  <si>
+    <t>4U_ENVJP_002</t>
+  </si>
+  <si>
+    <t>2D_ENVTABLE_001</t>
+  </si>
+  <si>
+    <t>3D_ENVTABLE_001</t>
+  </si>
+  <si>
+    <t>4U_ENVTABLE_001</t>
+  </si>
+  <si>
+    <t>3D_ENVSPWALL_001</t>
+  </si>
+  <si>
+    <t>4U_ENVSPWALL_001</t>
+  </si>
+  <si>
+    <t>2D_ENVSPWALL_001</t>
+  </si>
+  <si>
+    <t>2D_ENVTNT_001</t>
+  </si>
+  <si>
+    <t>3D_ENVTNT_001</t>
+  </si>
+  <si>
+    <t>4U_ENVTNT_001</t>
+  </si>
+  <si>
+    <t>6A_SRKG_001</t>
+  </si>
+  <si>
+    <t>6A_SRKL_001</t>
+  </si>
+  <si>
+    <t>BUFFER WEEK</t>
+  </si>
+  <si>
+    <t>6A_EAW_001</t>
+  </si>
+  <si>
+    <t>6A_EAA_001</t>
+  </si>
+  <si>
+    <t>6A_ELW_001</t>
+  </si>
+  <si>
+    <t>6A_ELA_001</t>
+  </si>
+  <si>
+    <t>6A_SRSP_001</t>
+  </si>
+  <si>
+    <t>6A_SRSG_001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,6 +1045,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -890,7 +1259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -934,6 +1303,11 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -963,8 +1337,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
       <color rgb="FF00FFFF"/>
-      <color rgb="FFFF7C80"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1241,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC143"/>
+  <dimension ref="A2:AC200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H114" sqref="G114:H114"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H157" sqref="H156:H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4514,10 +4888,10 @@
     <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" s="1"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -4582,10 +4956,10 @@
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" s="1"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -4614,10 +4988,10 @@
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="D100" s="1"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -5014,10 +5388,10 @@
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D112" s="2"/>
+      <c r="D112" s="30"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="42" t="s">
@@ -5058,10 +5432,10 @@
     <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="D113" s="2"/>
+      <c r="D113" s="30"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="1" t="s">
@@ -5098,10 +5472,10 @@
     <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="30"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="1" t="s">
@@ -5138,10 +5512,10 @@
     <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D115" s="2"/>
+      <c r="D115" s="32"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -5176,10 +5550,10 @@
     <row r="116" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D116" s="2"/>
+      <c r="D116" s="32"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -5211,13 +5585,13 @@
       </c>
       <c r="AB116" s="11"/>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D117" s="2"/>
+      <c r="D117" s="32"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -5232,133 +5606,152 @@
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
-      <c r="S117" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="S117" s="2"/>
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
-      <c r="W117" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="W117" s="1"/>
       <c r="X117" s="1"/>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
-      <c r="AA117" s="1" t="s">
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="11"/>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="2"/>
+      <c r="Z118" s="2"/>
+      <c r="AA118" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AB117" s="11"/>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A118" s="23"/>
-      <c r="B118" s="24" t="s">
+      <c r="AB118" s="11"/>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A119" s="23"/>
+      <c r="B119" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24" t="s">
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="24" t="s">
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K118" s="24"/>
-      <c r="L118" s="24"/>
-      <c r="M118" s="24"/>
-      <c r="N118" s="24" t="s">
+      <c r="K119" s="24"/>
+      <c r="L119" s="24"/>
+      <c r="M119" s="24"/>
+      <c r="N119" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O118" s="24"/>
-      <c r="P118" s="24"/>
-      <c r="Q118" s="24"/>
-      <c r="R118" s="24"/>
-      <c r="S118" s="24" t="s">
+      <c r="O119" s="24"/>
+      <c r="P119" s="24"/>
+      <c r="Q119" s="24"/>
+      <c r="R119" s="24"/>
+      <c r="S119" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="T118" s="24"/>
-      <c r="U118" s="24"/>
-      <c r="V118" s="24"/>
-      <c r="W118" s="24" t="s">
+      <c r="T119" s="24"/>
+      <c r="U119" s="24"/>
+      <c r="V119" s="24"/>
+      <c r="W119" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="X118" s="24"/>
-      <c r="Y118" s="24"/>
-      <c r="Z118" s="24" t="s">
+      <c r="X119" s="24"/>
+      <c r="Y119" s="24"/>
+      <c r="Z119" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA118" s="24"/>
-      <c r="AB118" s="25"/>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4"/>
-      <c r="P119" s="4"/>
-      <c r="Q119" s="4"/>
-      <c r="R119" s="4"/>
-      <c r="S119" s="4"/>
-      <c r="T119" s="4"/>
-      <c r="U119" s="4"/>
-      <c r="V119" s="4"/>
-      <c r="W119" s="4"/>
-      <c r="X119" s="4"/>
-      <c r="Y119" s="4"/>
-      <c r="Z119" s="4"/>
-      <c r="AA119" s="4"/>
-      <c r="AB119" s="4"/>
-      <c r="AC119" s="2"/>
-    </row>
-    <row r="120" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="4"/>
-      <c r="S120" s="4"/>
-      <c r="T120" s="4"/>
-      <c r="U120" s="4"/>
-      <c r="V120" s="4"/>
-      <c r="W120" s="4"/>
-      <c r="X120" s="4"/>
-      <c r="Y120" s="4"/>
-      <c r="Z120" s="4"/>
-      <c r="AA120" s="4"/>
-      <c r="AB120" s="4"/>
+      <c r="AA119" s="24"/>
+      <c r="AB119" s="25"/>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T120" s="6"/>
+      <c r="U120" s="6"/>
+      <c r="V120" s="6"/>
+      <c r="W120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X120" s="6"/>
+      <c r="Y120" s="6"/>
+      <c r="Z120" s="6"/>
+      <c r="AA120" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB120" s="15"/>
       <c r="AC120" s="2"/>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
+    <row r="121" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
+      <c r="C121" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -5374,11 +5767,15 @@
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
-      <c r="S121" s="4"/>
+      <c r="S121" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
-      <c r="W121" s="4"/>
+      <c r="W121" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
@@ -5387,9 +5784,11 @@
       <c r="AC121" s="2"/>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
+      <c r="A122" s="10"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
+      <c r="C122" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -5405,11 +5804,15 @@
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
-      <c r="S122" s="4"/>
+      <c r="S122" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
-      <c r="W122" s="4"/>
+      <c r="W122" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
@@ -5418,9 +5821,11 @@
       <c r="AC122" s="2"/>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
+      <c r="A123" s="10"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
+      <c r="C123" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -5436,7 +5841,9 @@
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
-      <c r="S123" s="4"/>
+      <c r="S123" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
@@ -5449,9 +5856,11 @@
       <c r="AC123" s="2"/>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
+      <c r="A124" s="10"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
+      <c r="C124" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -5467,7 +5876,9 @@
       <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
-      <c r="S124" s="4"/>
+      <c r="S124" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
@@ -5480,9 +5891,11 @@
       <c r="AC124" s="2"/>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
+      <c r="A125" s="10"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
+      <c r="C125" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -5511,9 +5924,11 @@
       <c r="AC125" s="2"/>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
+      <c r="A126" s="10"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
+      <c r="C126" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -5542,7 +5957,7 @@
       <c r="AC126" s="2"/>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
+      <c r="A127" s="10"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -5573,7 +5988,7 @@
       <c r="AC127" s="2"/>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
+      <c r="A128" s="10"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -5604,7 +6019,7 @@
       <c r="AC128" s="2"/>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
+      <c r="A129" s="10"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -5635,7 +6050,7 @@
       <c r="AC129" s="2"/>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
+      <c r="A130" s="6"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -5666,7 +6081,7 @@
       <c r="AC130" s="2"/>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
+      <c r="A131" s="43"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -5697,40 +6112,58 @@
       <c r="AC131" s="2"/>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
-      <c r="S132" s="4"/>
-      <c r="T132" s="4"/>
-      <c r="U132" s="4"/>
-      <c r="V132" s="4"/>
-      <c r="W132" s="4"/>
-      <c r="X132" s="4"/>
-      <c r="Y132" s="4"/>
-      <c r="Z132" s="4"/>
-      <c r="AA132" s="4"/>
-      <c r="AB132" s="4"/>
+      <c r="A132" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T132" s="6"/>
+      <c r="U132" s="6"/>
+      <c r="V132" s="6"/>
+      <c r="W132" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X132" s="6"/>
+      <c r="Y132" s="6"/>
+      <c r="Z132" s="6"/>
+      <c r="AA132" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB132" s="15"/>
       <c r="AC132" s="2"/>
     </row>
-    <row r="133" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A133" s="10"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
+      <c r="C133" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -5746,11 +6179,15 @@
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
-      <c r="S133" s="4"/>
+      <c r="S133" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
-      <c r="W133" s="4"/>
+      <c r="W133" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="X133" s="4"/>
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
@@ -5759,9 +6196,11 @@
       <c r="AC133" s="2"/>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
+      <c r="A134" s="10"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="C134" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -5781,7 +6220,9 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
-      <c r="W134" s="4"/>
+      <c r="W134" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="X134" s="4"/>
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
@@ -5790,7 +6231,7 @@
       <c r="AC134" s="2"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
+      <c r="A135" s="10"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -5821,7 +6262,7 @@
       <c r="AC135" s="2"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
+      <c r="A136" s="10"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -5852,7 +6293,7 @@
       <c r="AC136" s="2"/>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
+      <c r="A137" s="10"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -5883,7 +6324,7 @@
       <c r="AC137" s="2"/>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
+      <c r="A138" s="10"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -5913,41 +6354,59 @@
       <c r="AB138" s="4"/>
       <c r="AC138" s="2"/>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="4"/>
-      <c r="T139" s="4"/>
-      <c r="U139" s="4"/>
-      <c r="V139" s="4"/>
-      <c r="W139" s="4"/>
-      <c r="X139" s="4"/>
-      <c r="Y139" s="4"/>
-      <c r="Z139" s="4"/>
-      <c r="AA139" s="4"/>
-      <c r="AB139" s="4"/>
+    <row r="139" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T139" s="6"/>
+      <c r="U139" s="6"/>
+      <c r="V139" s="6"/>
+      <c r="W139" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X139" s="6"/>
+      <c r="Y139" s="6"/>
+      <c r="Z139" s="6"/>
+      <c r="AA139" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB139" s="15"/>
       <c r="AC139" s="2"/>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
+      <c r="A140" s="10"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="C140" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -5963,11 +6422,15 @@
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
-      <c r="S140" s="4"/>
+      <c r="S140" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
-      <c r="W140" s="4"/>
+      <c r="W140" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="X140" s="4"/>
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
@@ -5976,9 +6439,11 @@
       <c r="AC140" s="2"/>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
+      <c r="A141" s="10"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
+      <c r="C141" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -5994,11 +6459,15 @@
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
-      <c r="S141" s="4"/>
+      <c r="S141" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
-      <c r="W141" s="4"/>
+      <c r="W141" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="X141" s="4"/>
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
@@ -6007,7 +6476,7 @@
       <c r="AC141" s="2"/>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
+      <c r="A142" s="10"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -6025,11 +6494,15 @@
       <c r="P142" s="4"/>
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
-      <c r="S142" s="4"/>
+      <c r="S142" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
-      <c r="W142" s="4"/>
+      <c r="W142" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
@@ -6038,35 +6511,1024 @@
       <c r="AC142" s="2"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="2"/>
-      <c r="S143" s="2"/>
-      <c r="T143" s="2"/>
-      <c r="U143" s="2"/>
-      <c r="V143" s="2"/>
-      <c r="W143" s="2"/>
-      <c r="X143" s="2"/>
-      <c r="Y143" s="2"/>
-      <c r="Z143" s="2"/>
-      <c r="AA143" s="2"/>
-      <c r="AB143" s="2"/>
+      <c r="A143" s="43"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="4"/>
+      <c r="S143" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T143" s="4"/>
+      <c r="U143" s="4"/>
+      <c r="V143" s="4"/>
+      <c r="W143" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
+      <c r="Z143" s="4"/>
+      <c r="AA143" s="4"/>
+      <c r="AB143" s="4"/>
       <c r="AC143" s="2"/>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A144" s="43"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="4"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="4"/>
+      <c r="W144" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="4"/>
+      <c r="Z144" s="4"/>
+      <c r="AA144" s="4"/>
+      <c r="AB144" s="4"/>
+      <c r="AC144" s="2"/>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A145" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T145" s="6"/>
+      <c r="U145" s="6"/>
+      <c r="V145" s="6"/>
+      <c r="W145" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X145" s="6"/>
+      <c r="Y145" s="6"/>
+      <c r="Z145" s="6"/>
+      <c r="AA145" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB145" s="15"/>
+      <c r="AC145" s="2"/>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A146" s="44"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
+      <c r="Z146" s="4"/>
+      <c r="AA146" s="4"/>
+      <c r="AB146" s="4"/>
+      <c r="AC146" s="2"/>
+    </row>
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A147" s="43"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
+      <c r="Z147" s="4"/>
+      <c r="AA147" s="4"/>
+      <c r="AB147" s="4"/>
+      <c r="AC147" s="2"/>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A148" s="10"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
+      <c r="Z148" s="4"/>
+      <c r="AA148" s="4"/>
+      <c r="AB148" s="4"/>
+      <c r="AC148" s="2"/>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A149" s="10"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+      <c r="P149" s="2"/>
+      <c r="Q149" s="2"/>
+      <c r="R149" s="2"/>
+      <c r="S149" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="T149" s="2"/>
+      <c r="U149" s="2"/>
+      <c r="V149" s="2"/>
+      <c r="W149" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="X149" s="2"/>
+      <c r="Y149" s="2"/>
+      <c r="Z149" s="2"/>
+      <c r="AA149" s="2"/>
+      <c r="AB149" s="2"/>
+      <c r="AC149" s="2"/>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A150" s="10"/>
+      <c r="C150" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="W150" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A151" s="10"/>
+      <c r="C151" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="W151" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A152" s="10"/>
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A153" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T153" s="6"/>
+      <c r="U153" s="6"/>
+      <c r="V153" s="6"/>
+      <c r="W153" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X153" s="6"/>
+      <c r="Y153" s="6"/>
+      <c r="Z153" s="6"/>
+      <c r="AA153" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB153" s="15"/>
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A154" s="10"/>
+      <c r="C154" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D154" s="4"/>
+      <c r="S154" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T154" s="4"/>
+      <c r="W154" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A155" s="43"/>
+      <c r="C155" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D155" s="4"/>
+      <c r="S155" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T155" s="4"/>
+      <c r="W155" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A156" s="10"/>
+      <c r="C156" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D156" s="4"/>
+      <c r="S156" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T156" s="4"/>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A157" s="10"/>
+      <c r="C157" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A158" s="43"/>
+    </row>
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A159" s="10"/>
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A160" s="10"/>
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A161" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T161" s="6"/>
+      <c r="U161" s="6"/>
+      <c r="V161" s="6"/>
+      <c r="W161" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X161" s="6"/>
+      <c r="Y161" s="6"/>
+      <c r="Z161" s="6"/>
+      <c r="AA161" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB161" s="15"/>
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A162" s="10"/>
+      <c r="C162" t="s">
+        <v>273</v>
+      </c>
+      <c r="S162" t="s">
+        <v>264</v>
+      </c>
+      <c r="W162" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A163" s="10"/>
+      <c r="C163" t="s">
+        <v>274</v>
+      </c>
+      <c r="S163" t="s">
+        <v>265</v>
+      </c>
+      <c r="W163" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A164" s="10"/>
+      <c r="C164" t="s">
+        <v>275</v>
+      </c>
+      <c r="S164" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A165" s="10"/>
+      <c r="C165" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A166" s="10"/>
+      <c r="C166" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A167" s="10"/>
+      <c r="C167" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A168" s="10"/>
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A169" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L169" s="6"/>
+      <c r="M169" s="6"/>
+      <c r="N169" s="6"/>
+      <c r="O169" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T169" s="6"/>
+      <c r="U169" s="6"/>
+      <c r="V169" s="6"/>
+      <c r="W169" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X169" s="6"/>
+      <c r="Y169" s="6"/>
+      <c r="Z169" s="6"/>
+      <c r="AA169" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB169" s="15"/>
+    </row>
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
+      <c r="C170" t="s">
+        <v>279</v>
+      </c>
+      <c r="S170" t="s">
+        <v>309</v>
+      </c>
+      <c r="W170" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
+      <c r="C171" t="s">
+        <v>280</v>
+      </c>
+      <c r="S171" t="s">
+        <v>310</v>
+      </c>
+      <c r="W171" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A172" s="10"/>
+      <c r="C172" t="s">
+        <v>281</v>
+      </c>
+      <c r="S172" t="s">
+        <v>311</v>
+      </c>
+      <c r="W172" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A173" s="10"/>
+      <c r="C173" t="s">
+        <v>282</v>
+      </c>
+      <c r="S173" t="s">
+        <v>312</v>
+      </c>
+      <c r="W173" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A174" s="10"/>
+      <c r="C174" t="s">
+        <v>283</v>
+      </c>
+      <c r="S174" t="s">
+        <v>313</v>
+      </c>
+      <c r="W174" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A175" s="10"/>
+      <c r="C175" t="s">
+        <v>284</v>
+      </c>
+      <c r="S175" t="s">
+        <v>314</v>
+      </c>
+      <c r="W175" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A176" s="10"/>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A177" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B177" s="6"/>
+      <c r="C177" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L177" s="6"/>
+      <c r="M177" s="6"/>
+      <c r="N177" s="6"/>
+      <c r="O177" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="6"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T177" s="6"/>
+      <c r="U177" s="6"/>
+      <c r="V177" s="6"/>
+      <c r="W177" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X177" s="6"/>
+      <c r="Y177" s="6"/>
+      <c r="Z177" s="6"/>
+      <c r="AA177" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB177" s="15"/>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A178" s="10"/>
+      <c r="C178" t="s">
+        <v>285</v>
+      </c>
+      <c r="S178" t="s">
+        <v>318</v>
+      </c>
+      <c r="W178" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A179" s="10"/>
+      <c r="C179" t="s">
+        <v>286</v>
+      </c>
+      <c r="S179" t="s">
+        <v>319</v>
+      </c>
+      <c r="W179" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
+      <c r="C180" t="s">
+        <v>287</v>
+      </c>
+      <c r="S180" t="s">
+        <v>320</v>
+      </c>
+      <c r="W180" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A181" s="10"/>
+      <c r="C181" t="s">
+        <v>288</v>
+      </c>
+      <c r="W181" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A182" s="10"/>
+      <c r="C182" t="s">
+        <v>289</v>
+      </c>
+      <c r="W182" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A183" s="10"/>
+      <c r="C183" t="s">
+        <v>290</v>
+      </c>
+      <c r="W183" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A184" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L184" s="6"/>
+      <c r="M184" s="6"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T184" s="6"/>
+      <c r="U184" s="6"/>
+      <c r="V184" s="6"/>
+      <c r="W184" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X184" s="6"/>
+      <c r="Y184" s="6"/>
+      <c r="Z184" s="6"/>
+      <c r="AA184" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB184" s="15"/>
+    </row>
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A185" s="10"/>
+      <c r="C185" t="s">
+        <v>293</v>
+      </c>
+      <c r="S185" t="s">
+        <v>324</v>
+      </c>
+      <c r="W185" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A186" s="10"/>
+      <c r="C186" t="s">
+        <v>291</v>
+      </c>
+      <c r="S186" t="s">
+        <v>325</v>
+      </c>
+      <c r="W186" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A187" s="10"/>
+      <c r="C187" t="s">
+        <v>292</v>
+      </c>
+      <c r="S187" t="s">
+        <v>326</v>
+      </c>
+      <c r="W187" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A188" s="10"/>
+      <c r="S188" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A189" s="10"/>
+    </row>
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A190" s="10"/>
+    </row>
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A191" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L191" s="6"/>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
+      <c r="R191" s="6"/>
+      <c r="S191" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T191" s="6"/>
+      <c r="U191" s="6"/>
+      <c r="V191" s="6"/>
+      <c r="W191" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X191" s="6"/>
+      <c r="Y191" s="6"/>
+      <c r="Z191" s="6"/>
+      <c r="AA191" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB191" s="15"/>
+    </row>
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A192" s="10"/>
+      <c r="C192" t="s">
+        <v>317</v>
+      </c>
+      <c r="W192" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A193" s="10"/>
+      <c r="C193" t="s">
+        <v>315</v>
+      </c>
+      <c r="W193" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A194" s="10"/>
+      <c r="C194" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A195" s="10"/>
+    </row>
+    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A196" s="10"/>
+    </row>
+    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A197" s="10"/>
+    </row>
+    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A198" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T198" s="6"/>
+      <c r="U198" s="6"/>
+      <c r="V198" s="6"/>
+      <c r="W198" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X198" s="6"/>
+      <c r="Y198" s="6"/>
+      <c r="Z198" s="6"/>
+      <c r="AA198" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB198" s="15"/>
+    </row>
+    <row r="199" spans="1:28" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A199" s="10"/>
+      <c r="B199" s="45"/>
+      <c r="C199" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D199" s="47"/>
+      <c r="E199" s="47"/>
+      <c r="F199" s="47"/>
+      <c r="G199" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="H199" s="47"/>
+      <c r="I199" s="47"/>
+      <c r="J199" s="47"/>
+      <c r="K199" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="L199" s="47"/>
+      <c r="M199" s="47"/>
+      <c r="N199" s="47"/>
+      <c r="O199" s="47"/>
+      <c r="P199" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q199" s="47"/>
+      <c r="R199" s="47"/>
+      <c r="S199" s="47"/>
+      <c r="T199" s="47"/>
+      <c r="U199" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="V199" s="47"/>
+      <c r="W199" s="47"/>
+      <c r="X199" s="47"/>
+      <c r="Y199" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z199" s="47"/>
+      <c r="AA199" s="47"/>
+      <c r="AB199" s="47"/>
+    </row>
+    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A200" s="23"/>
+      <c r="B200" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" s="24"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G200" s="24"/>
+      <c r="H200" s="24"/>
+      <c r="I200" s="24"/>
+      <c r="J200" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K200" s="24"/>
+      <c r="L200" s="24"/>
+      <c r="M200" s="24"/>
+      <c r="N200" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O200" s="24"/>
+      <c r="P200" s="24"/>
+      <c r="Q200" s="24"/>
+      <c r="R200" s="24"/>
+      <c r="S200" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T200" s="24"/>
+      <c r="U200" s="24"/>
+      <c r="V200" s="24"/>
+      <c r="W200" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="X200" s="24"/>
+      <c r="Y200" s="24"/>
+      <c r="Z200" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA200" s="24"/>
+      <c r="AB200" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="V54:X56 W59:W62 W64:W69">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="339">
   <si>
     <t>Planning</t>
   </si>
@@ -827,15 +827,6 @@
     <t>4u_ENVRO_001</t>
   </si>
   <si>
-    <t>2D_ENVJP_001</t>
-  </si>
-  <si>
-    <t>3D_ENVJP_001</t>
-  </si>
-  <si>
-    <t>4U_ENVJP_001</t>
-  </si>
-  <si>
     <t>2D_ENVLINE_001</t>
   </si>
   <si>
@@ -1014,6 +1005,42 @@
   </si>
   <si>
     <t>6A_SRSG_001</t>
+  </si>
+  <si>
+    <t>6A_EAD_001</t>
+  </si>
+  <si>
+    <t>3D_ENV SPARE_001</t>
+  </si>
+  <si>
+    <t>3D_ENV JP_002</t>
+  </si>
+  <si>
+    <t>4D_ENVJP_002</t>
+  </si>
+  <si>
+    <t>7S_lilypads_001</t>
+  </si>
+  <si>
+    <t>7S_SKYBOX_001</t>
+  </si>
+  <si>
+    <t>7S_HOLE_001</t>
+  </si>
+  <si>
+    <t>7S_COLLECT_001</t>
+  </si>
+  <si>
+    <t>7S_TNT_001</t>
+  </si>
+  <si>
+    <t>Checking Script</t>
+  </si>
+  <si>
+    <t>Particles Onderzoeken</t>
+  </si>
+  <si>
+    <t>Check Ronde</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1295,8 +1322,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1615,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC200"/>
+  <dimension ref="A2:AC202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H157" sqref="H156:H157"/>
+    <sheetView tabSelected="1" topLeftCell="F154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,8 +1657,8 @@
       <c r="F2" t="s">
         <v>191</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
       <c r="L2" t="s">
         <v>204</v>
       </c>
@@ -1644,8 +1669,8 @@
       <c r="F3" t="s">
         <v>192</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="L3" t="s">
         <v>205</v>
       </c>
@@ -1656,8 +1681,8 @@
       <c r="F4" t="s">
         <v>193</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
       <c r="L4" t="s">
         <v>206</v>
       </c>
@@ -4024,10 +4049,10 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
-      <c r="S72" s="42" t="s">
+      <c r="S72" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="T72" s="42"/>
+      <c r="T72" s="40"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="1" t="s">
@@ -4044,10 +4069,10 @@
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="42"/>
+      <c r="D73" s="40"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="1" t="s">
@@ -4066,10 +4091,10 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
-      <c r="S73" s="42" t="s">
+      <c r="S73" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="T73" s="42"/>
+      <c r="T73" s="40"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="1" t="s">
@@ -4112,10 +4137,10 @@
       <c r="T74" s="1"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
-      <c r="W74" s="2" t="s">
+      <c r="W74" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="X74" s="2"/>
+      <c r="X74" s="1"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
       <c r="AA74" s="1" t="s">
@@ -4157,7 +4182,7 @@
       <c r="AA75" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="AB75" s="41"/>
+      <c r="AB75" s="39"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
@@ -4191,7 +4216,7 @@
       <c r="AA76" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="AB76" s="41"/>
+      <c r="AB76" s="39"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
@@ -4225,7 +4250,7 @@
       <c r="AA77" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="AB77" s="41"/>
+      <c r="AB77" s="39"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
@@ -4246,10 +4271,10 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
-      <c r="S78" s="42" t="s">
+      <c r="S78" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="T78" s="42"/>
+      <c r="T78" s="40"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
@@ -4278,10 +4303,10 @@
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
-      <c r="S79" s="42" t="s">
+      <c r="S79" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="T79" s="42"/>
+      <c r="T79" s="40"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
@@ -4586,10 +4611,10 @@
       <c r="D89" s="31"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="42" t="s">
+      <c r="G89" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H89" s="42"/>
+      <c r="H89" s="40"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2" t="s">
@@ -4616,10 +4641,10 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
-      <c r="AA89" s="35" t="s">
+      <c r="AA89" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AB89" s="36"/>
+      <c r="AB89" s="11"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
@@ -4654,10 +4679,10 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
-      <c r="AA90" s="35" t="s">
+      <c r="AA90" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AB90" s="36"/>
+      <c r="AB90" s="11"/>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
@@ -4682,10 +4707,10 @@
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
-      <c r="S91" s="4" t="s">
+      <c r="S91" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="T91" s="2"/>
+      <c r="T91" s="1"/>
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
       <c r="W91" s="1" t="s">
@@ -4694,10 +4719,10 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
-      <c r="AA91" s="35" t="s">
+      <c r="AA91" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AB91" s="36"/>
+      <c r="AB91" s="11"/>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
@@ -4720,10 +4745,10 @@
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
-      <c r="S92" s="4" t="s">
+      <c r="S92" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="T92" s="2"/>
+      <c r="T92" s="1"/>
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
       <c r="W92" s="1" t="s">
@@ -4732,10 +4757,10 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
-      <c r="AA92" s="5" t="s">
+      <c r="AA92" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AB92" s="14"/>
+      <c r="AB92" s="11"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
@@ -4758,10 +4783,10 @@
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
-      <c r="S93" s="4" t="s">
+      <c r="S93" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="T93" s="2"/>
+      <c r="T93" s="1"/>
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
       <c r="W93" s="1" t="s">
@@ -4770,10 +4795,10 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
-      <c r="AA93" s="5" t="s">
+      <c r="AA93" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AB93" s="14"/>
+      <c r="AB93" s="11"/>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
@@ -4796,10 +4821,10 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
-      <c r="S94" s="2" t="s">
+      <c r="S94" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="T94" s="2"/>
+      <c r="T94" s="1"/>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
       <c r="W94" s="1" t="s">
@@ -4808,10 +4833,10 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
-      <c r="AA94" s="5" t="s">
+      <c r="AA94" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AB94" s="14"/>
+      <c r="AB94" s="11"/>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
@@ -4834,10 +4859,10 @@
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
-      <c r="S95" s="2" t="s">
+      <c r="S95" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="T95" s="2"/>
+      <c r="T95" s="1"/>
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
       <c r="W95" s="1" t="s">
@@ -4870,10 +4895,10 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
-      <c r="S96" s="2" t="s">
+      <c r="S96" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="T96" s="2"/>
+      <c r="T96" s="1"/>
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
       <c r="W96" s="1" t="s">
@@ -5394,10 +5419,10 @@
       <c r="D112" s="30"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
-      <c r="G112" s="42" t="s">
+      <c r="G112" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H112" s="42"/>
+      <c r="H112" s="40"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2" t="s">
@@ -5427,7 +5452,7 @@
       <c r="AA112" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="AB112" s="39"/>
+      <c r="AB112" s="37"/>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
@@ -5467,7 +5492,7 @@
       <c r="AA113" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="AB113" s="39"/>
+      <c r="AB113" s="37"/>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
@@ -5507,7 +5532,7 @@
       <c r="AA114" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="AB114" s="39"/>
+      <c r="AB114" s="37"/>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
@@ -5755,14 +5780,20 @@
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
+      <c r="G121" s="4" t="s">
+        <v>331</v>
+      </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
+      <c r="K121" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
+      <c r="N121" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
@@ -5779,8 +5810,9 @@
       <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
-      <c r="AA121" s="4"/>
-      <c r="AB121" s="4"/>
+      <c r="AA121" t="s">
+        <v>315</v>
+      </c>
       <c r="AC121" s="2"/>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.25">
@@ -5816,8 +5848,9 @@
       <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
-      <c r="AA122" s="4"/>
-      <c r="AB122" s="4"/>
+      <c r="AA122" t="s">
+        <v>316</v>
+      </c>
       <c r="AC122" s="2"/>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.25">
@@ -5847,12 +5880,15 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
-      <c r="W123" s="4"/>
+      <c r="W123" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="X123" s="4"/>
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
-      <c r="AA123" s="4"/>
-      <c r="AB123" s="4"/>
+      <c r="AA123" t="s">
+        <v>317</v>
+      </c>
       <c r="AC123" s="2"/>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.25">
@@ -6081,7 +6117,7 @@
       <c r="AC130" s="2"/>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A131" s="43"/>
+      <c r="A131" s="41"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -6167,15 +6203,21 @@
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
+      <c r="G133" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
+      <c r="K133" s="4" t="s">
+        <v>333</v>
+      </c>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
+      <c r="O133" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
@@ -6191,8 +6233,9 @@
       <c r="X133" s="4"/>
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
-      <c r="AA133" s="4"/>
-      <c r="AB133" s="4"/>
+      <c r="AA133" t="s">
+        <v>321</v>
+      </c>
       <c r="AC133" s="2"/>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.25">
@@ -6226,8 +6269,9 @@
       <c r="X134" s="4"/>
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
-      <c r="AA134" s="4"/>
-      <c r="AB134" s="4"/>
+      <c r="AA134" t="s">
+        <v>322</v>
+      </c>
       <c r="AC134" s="2"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
@@ -6257,7 +6301,9 @@
       <c r="X135" s="4"/>
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
-      <c r="AA135" s="4"/>
+      <c r="AA135" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="AB135" s="4"/>
       <c r="AC135" s="2"/>
     </row>
@@ -6398,7 +6444,7 @@
       <c r="AA139" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB139" s="15"/>
+      <c r="AB139" s="6"/>
       <c r="AC139" s="2"/>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.25">
@@ -6410,15 +6456,21 @@
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
+      <c r="G140" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
+      <c r="K140" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
+      <c r="O140" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
@@ -6434,7 +6486,9 @@
       <c r="X140" s="4"/>
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
-      <c r="AA140" s="4"/>
+      <c r="AA140" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="AB140" s="4"/>
       <c r="AC140" s="2"/>
     </row>
@@ -6471,7 +6525,9 @@
       <c r="X141" s="4"/>
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
-      <c r="AA141" s="4"/>
+      <c r="AA141" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="AB141" s="4"/>
       <c r="AC141" s="2"/>
     </row>
@@ -6506,12 +6562,14 @@
       <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
-      <c r="AA142" s="4"/>
+      <c r="AA142" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="AB142" s="4"/>
       <c r="AC142" s="2"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A143" s="43"/>
+      <c r="A143" s="41"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -6541,12 +6599,14 @@
       <c r="X143" s="4"/>
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
-      <c r="AA143" s="4"/>
+      <c r="AA143" s="4" t="s">
+        <v>274</v>
+      </c>
       <c r="AB143" s="4"/>
       <c r="AC143" s="2"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A144" s="43"/>
+      <c r="A144" s="41"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -6574,63 +6634,49 @@
       <c r="X144" s="4"/>
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
-      <c r="AA144" s="4"/>
+      <c r="AA144" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="AB144" s="4"/>
       <c r="AC144" s="2"/>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A145" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
-      <c r="K145" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
-      <c r="N145" s="6"/>
-      <c r="O145" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P145" s="6"/>
-      <c r="Q145" s="6"/>
-      <c r="R145" s="6"/>
-      <c r="S145" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T145" s="6"/>
-      <c r="U145" s="6"/>
-      <c r="V145" s="6"/>
-      <c r="W145" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X145" s="6"/>
-      <c r="Y145" s="6"/>
-      <c r="Z145" s="6"/>
-      <c r="AA145" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB145" s="15"/>
+      <c r="A145" s="41"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="4"/>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
+      <c r="Z145" s="4"/>
+      <c r="AA145" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB145" s="4"/>
       <c r="AC145" s="2"/>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A146" s="44"/>
+      <c r="A146" s="41"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="4" t="s">
-        <v>242</v>
-      </c>
+      <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -6646,15 +6692,11 @@
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
-      <c r="S146" s="4" t="s">
-        <v>248</v>
-      </c>
+      <c r="S146" s="4"/>
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
-      <c r="W146" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="W146" s="4"/>
       <c r="X146" s="4"/>
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
@@ -6663,655 +6705,787 @@
       <c r="AC146" s="2"/>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A147" s="43"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
-      <c r="P147" s="4"/>
-      <c r="Q147" s="4"/>
-      <c r="R147" s="4"/>
-      <c r="S147" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="T147" s="4"/>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
-      <c r="W147" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="X147" s="4"/>
-      <c r="Y147" s="4"/>
-      <c r="Z147" s="4"/>
-      <c r="AA147" s="4"/>
-      <c r="AB147" s="4"/>
+      <c r="A147" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T147" s="6"/>
+      <c r="U147" s="6"/>
+      <c r="V147" s="6"/>
+      <c r="W147" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X147" s="6"/>
+      <c r="Y147" s="6"/>
+      <c r="Z147" s="6"/>
+      <c r="AA147" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB147" s="6"/>
       <c r="AC147" s="2"/>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
+      <c r="A148" s="42"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
+      <c r="G148" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
+      <c r="K148" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
+      <c r="O148" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
       <c r="S148" s="4" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
-      <c r="W148" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="X148" s="4"/>
+      <c r="W148" t="s">
+        <v>325</v>
+      </c>
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
-      <c r="AA148" s="4"/>
+      <c r="AA148" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="AB148" s="4"/>
       <c r="AC148" s="2"/>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
-      <c r="B149" s="2"/>
+      <c r="A149" s="41"/>
+      <c r="B149" s="4"/>
       <c r="C149" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
-      <c r="Q149" s="2"/>
-      <c r="R149" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
       <c r="S149" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="T149" s="2"/>
-      <c r="U149" s="2"/>
-      <c r="V149" s="2"/>
-      <c r="W149" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="X149" s="2"/>
-      <c r="Y149" s="2"/>
-      <c r="Z149" s="2"/>
-      <c r="AA149" s="2"/>
-      <c r="AB149" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="T149" s="4"/>
+      <c r="U149" s="4"/>
+      <c r="V149" s="4"/>
+      <c r="W149" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y149" s="4"/>
+      <c r="Z149" s="4"/>
+      <c r="AA149" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB149" s="4"/>
       <c r="AC149" s="2"/>
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
+      <c r="B150" s="4"/>
       <c r="C150" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="W150" s="4" t="s">
-        <v>271</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y150" s="4"/>
+      <c r="Z150" s="4"/>
+      <c r="AA150" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB150" s="4"/>
+      <c r="AC150" s="2"/>
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
+      <c r="B151" s="2"/>
       <c r="C151" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="W151" s="4" t="s">
-        <v>272</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2"/>
+      <c r="V151" s="2"/>
+      <c r="W151" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y151" s="2"/>
+      <c r="Z151" s="4"/>
+      <c r="AA151" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB151" s="4"/>
+      <c r="AC151" s="2"/>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
+      <c r="C152" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="W152" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z152" s="2"/>
+      <c r="AA152" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB152" s="2"/>
+      <c r="AC152" s="2"/>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A153" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
-      <c r="K153" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L153" s="6"/>
-      <c r="M153" s="6"/>
-      <c r="N153" s="6"/>
-      <c r="O153" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P153" s="6"/>
-      <c r="Q153" s="6"/>
-      <c r="R153" s="6"/>
-      <c r="S153" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T153" s="6"/>
-      <c r="U153" s="6"/>
-      <c r="V153" s="6"/>
-      <c r="W153" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X153" s="6"/>
-      <c r="Y153" s="6"/>
-      <c r="Z153" s="6"/>
-      <c r="AA153" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB153" s="15"/>
+      <c r="A153" s="10"/>
+      <c r="C153" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="W153" s="4"/>
+      <c r="Z153" s="2"/>
+      <c r="AA153" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB153" s="2"/>
+      <c r="AC153" s="2"/>
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
-      <c r="C154" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D154" s="4"/>
-      <c r="S154" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="T154" s="4"/>
-      <c r="W154" t="s">
-        <v>255</v>
-      </c>
+      <c r="Z154" s="2"/>
+      <c r="AA154" s="2"/>
+      <c r="AB154" s="2"/>
+      <c r="AC154" s="2"/>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A155" s="43"/>
-      <c r="C155" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D155" s="4"/>
-      <c r="S155" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="T155" s="4"/>
-      <c r="W155" t="s">
-        <v>256</v>
-      </c>
+      <c r="A155" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T155" s="6"/>
+      <c r="U155" s="6"/>
+      <c r="V155" s="6"/>
+      <c r="W155" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X155" s="6"/>
+      <c r="Y155" s="6"/>
+      <c r="Z155" s="6"/>
+      <c r="AA155" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB155" s="6"/>
+      <c r="AC155" s="2"/>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="C156" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D156" s="4"/>
       <c r="S156" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T156" s="4"/>
+      <c r="W156" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z156" s="4"/>
+      <c r="AA156" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB156" s="4"/>
+      <c r="AC156" s="2"/>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A157" s="41"/>
+      <c r="C157" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D157" s="4"/>
+      <c r="S157" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T157" s="4"/>
+      <c r="W157" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z157" s="4"/>
+      <c r="AA157" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB157" s="4"/>
+      <c r="AC157" s="2"/>
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A158" s="10"/>
+      <c r="C158" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D158" s="4"/>
+      <c r="S158" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="T156" s="4"/>
-    </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="C157" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A158" s="43"/>
+      <c r="T158" s="4"/>
+      <c r="W158" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z158" s="4"/>
+      <c r="AA158" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB158" s="4"/>
+      <c r="AC158" s="2"/>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
+      <c r="C159" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D159" s="4"/>
+      <c r="W159" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z159" s="4"/>
+      <c r="AA159" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB159" s="4"/>
+      <c r="AC159" s="2"/>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
-    </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A161" s="43" t="s">
+      <c r="A160" s="41"/>
+      <c r="W160" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z160" s="2"/>
+      <c r="AA160" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB160" s="2"/>
+      <c r="AC160" s="2"/>
+    </row>
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A161" s="10"/>
+      <c r="Z161" s="2"/>
+      <c r="AA161" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB161" s="2"/>
+      <c r="AC161" s="2"/>
+    </row>
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A162" s="10"/>
+      <c r="Z162" s="2"/>
+      <c r="AA162" s="2"/>
+      <c r="AB162" s="2"/>
+      <c r="AC162" s="2"/>
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A163" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6" t="s">
+      <c r="B163" s="6"/>
+      <c r="C163" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6" t="s">
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
-      <c r="K161" s="6" t="s">
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
-      <c r="N161" s="6"/>
-      <c r="O161" s="6" t="s">
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P161" s="6"/>
-      <c r="Q161" s="6"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="6" t="s">
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T161" s="6"/>
-      <c r="U161" s="6"/>
-      <c r="V161" s="6"/>
-      <c r="W161" s="6" t="s">
+      <c r="T163" s="6"/>
+      <c r="U163" s="6"/>
+      <c r="V163" s="6"/>
+      <c r="W163" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X161" s="6"/>
-      <c r="Y161" s="6"/>
-      <c r="Z161" s="6"/>
-      <c r="AA161" s="6" t="s">
+      <c r="X163" s="6"/>
+      <c r="Y163" s="6"/>
+      <c r="Z163" s="6"/>
+      <c r="AA163" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB161" s="15"/>
-    </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
-      <c r="C162" t="s">
-        <v>273</v>
-      </c>
-      <c r="S162" t="s">
-        <v>264</v>
-      </c>
-      <c r="W162" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A163" s="10"/>
-      <c r="C163" t="s">
-        <v>274</v>
-      </c>
-      <c r="S163" t="s">
-        <v>265</v>
-      </c>
-      <c r="W163" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB163" s="6"/>
+      <c r="AC163" s="2"/>
+    </row>
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="C164" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="S164" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="W164" t="s">
+        <v>318</v>
+      </c>
+      <c r="Z164" s="2"/>
+      <c r="AA164" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB164" s="4"/>
+      <c r="AC164" s="2"/>
+    </row>
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="C165" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="S165" t="s">
+        <v>265</v>
+      </c>
+      <c r="W165" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z165" s="2"/>
+      <c r="AA165" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB165" s="4"/>
+      <c r="AC165" s="2"/>
+    </row>
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="C166" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="S166" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z166" s="2"/>
+      <c r="AA166" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB166" s="2"/>
+      <c r="AC166" s="2"/>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="C167" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="Z167" s="2"/>
+      <c r="AA167" s="2"/>
+      <c r="AB167" s="2"/>
+      <c r="AC167" s="2"/>
+    </row>
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
-    </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A169" s="43" t="s">
+      <c r="C168" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z168" s="2"/>
+      <c r="AA168" s="2"/>
+      <c r="AB168" s="2"/>
+      <c r="AC168" s="2"/>
+    </row>
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A169" s="10"/>
+      <c r="C169" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z169" s="2"/>
+      <c r="AA169" s="2"/>
+      <c r="AB169" s="2"/>
+      <c r="AC169" s="2"/>
+    </row>
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
+      <c r="Z170" s="2"/>
+      <c r="AA170" s="2"/>
+      <c r="AB170" s="2"/>
+      <c r="AC170" s="2"/>
+    </row>
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A171" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="B169" s="6"/>
-      <c r="C169" s="6" t="s">
+      <c r="B171" s="6"/>
+      <c r="C171" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6" t="s">
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H169" s="6"/>
-      <c r="I169" s="6"/>
-      <c r="J169" s="6"/>
-      <c r="K169" s="6" t="s">
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L169" s="6"/>
-      <c r="M169" s="6"/>
-      <c r="N169" s="6"/>
-      <c r="O169" s="6" t="s">
+      <c r="L171" s="6"/>
+      <c r="M171" s="6"/>
+      <c r="N171" s="6"/>
+      <c r="O171" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P169" s="6"/>
-      <c r="Q169" s="6"/>
-      <c r="R169" s="6"/>
-      <c r="S169" s="6" t="s">
+      <c r="P171" s="6"/>
+      <c r="Q171" s="6"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T169" s="6"/>
-      <c r="U169" s="6"/>
-      <c r="V169" s="6"/>
-      <c r="W169" s="6" t="s">
+      <c r="T171" s="6"/>
+      <c r="U171" s="6"/>
+      <c r="V171" s="6"/>
+      <c r="W171" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X169" s="6"/>
-      <c r="Y169" s="6"/>
-      <c r="Z169" s="6"/>
-      <c r="AA169" s="6" t="s">
+      <c r="X171" s="6"/>
+      <c r="Y171" s="6"/>
+      <c r="Z171" s="6"/>
+      <c r="AA171" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB169" s="15"/>
-    </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="C170" t="s">
-        <v>279</v>
-      </c>
-      <c r="S170" t="s">
-        <v>309</v>
-      </c>
-      <c r="W170" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
-      <c r="C171" t="s">
-        <v>280</v>
-      </c>
-      <c r="S171" t="s">
-        <v>310</v>
-      </c>
-      <c r="W171" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB171" s="6"/>
+      <c r="AC171" s="2"/>
+    </row>
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="C172" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="S172" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="W172" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="Z172" s="2"/>
+      <c r="AA172" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC172" s="2"/>
+    </row>
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="C173" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="S173" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="W173" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="Z173" s="2"/>
+      <c r="AA173" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC173" s="2"/>
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="C174" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="S174" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="W174" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="C175" t="s">
-        <v>284</v>
-      </c>
-      <c r="S175" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="W175" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
+      <c r="C176" t="s">
+        <v>280</v>
+      </c>
+      <c r="W176" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A177" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H177" s="6"/>
-      <c r="I177" s="6"/>
-      <c r="J177" s="6"/>
-      <c r="K177" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L177" s="6"/>
-      <c r="M177" s="6"/>
-      <c r="N177" s="6"/>
-      <c r="O177" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P177" s="6"/>
-      <c r="Q177" s="6"/>
-      <c r="R177" s="6"/>
-      <c r="S177" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T177" s="6"/>
-      <c r="U177" s="6"/>
-      <c r="V177" s="6"/>
-      <c r="W177" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X177" s="6"/>
-      <c r="Y177" s="6"/>
-      <c r="Z177" s="6"/>
-      <c r="AA177" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB177" s="15"/>
+      <c r="A177" s="10"/>
+      <c r="C177" t="s">
+        <v>281</v>
+      </c>
+      <c r="W177" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
-      <c r="C178" t="s">
-        <v>285</v>
-      </c>
-      <c r="S178" t="s">
-        <v>318</v>
-      </c>
-      <c r="W178" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A179" s="10"/>
-      <c r="C179" t="s">
-        <v>286</v>
-      </c>
-      <c r="S179" t="s">
-        <v>319</v>
-      </c>
-      <c r="W179" t="s">
-        <v>301</v>
-      </c>
+      <c r="A179" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L179" s="6"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T179" s="6"/>
+      <c r="U179" s="6"/>
+      <c r="V179" s="6"/>
+      <c r="W179" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X179" s="6"/>
+      <c r="Y179" s="6"/>
+      <c r="Z179" s="6"/>
+      <c r="AA179" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB179" s="15"/>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="C180" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="S180" t="s">
-        <v>320</v>
-      </c>
-      <c r="W180" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="C181" t="s">
-        <v>288</v>
-      </c>
-      <c r="W181" t="s">
-        <v>303</v>
+        <v>283</v>
+      </c>
+      <c r="S181" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="C182" t="s">
-        <v>289</v>
-      </c>
-      <c r="W182" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
-      <c r="C183" t="s">
-        <v>290</v>
-      </c>
-      <c r="W183" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A184" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H184" s="6"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
-      <c r="K184" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L184" s="6"/>
-      <c r="M184" s="6"/>
-      <c r="N184" s="6"/>
-      <c r="O184" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P184" s="6"/>
-      <c r="Q184" s="6"/>
-      <c r="R184" s="6"/>
-      <c r="S184" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T184" s="6"/>
-      <c r="U184" s="6"/>
-      <c r="V184" s="6"/>
-      <c r="W184" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X184" s="6"/>
-      <c r="Y184" s="6"/>
-      <c r="Z184" s="6"/>
-      <c r="AA184" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB184" s="15"/>
+      <c r="A184" s="10"/>
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
-      <c r="C185" t="s">
-        <v>293</v>
-      </c>
-      <c r="S185" t="s">
-        <v>324</v>
-      </c>
-      <c r="W185" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A186" s="10"/>
-      <c r="C186" t="s">
-        <v>291</v>
-      </c>
-      <c r="S186" t="s">
-        <v>325</v>
-      </c>
-      <c r="W186" t="s">
-        <v>307</v>
-      </c>
+      <c r="A186" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
+      <c r="R186" s="6"/>
+      <c r="S186" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T186" s="6"/>
+      <c r="U186" s="6"/>
+      <c r="V186" s="6"/>
+      <c r="W186" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X186" s="6"/>
+      <c r="Y186" s="6"/>
+      <c r="Z186" s="6"/>
+      <c r="AA186" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB186" s="15"/>
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
-      <c r="C187" t="s">
-        <v>292</v>
-      </c>
-      <c r="S187" t="s">
-        <v>326</v>
-      </c>
-      <c r="W187" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
-      <c r="S188" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
@@ -7320,74 +7494,59 @@
       <c r="A190" s="10"/>
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A191" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B191" s="6"/>
-      <c r="C191" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
-      <c r="K191" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L191" s="6"/>
-      <c r="M191" s="6"/>
-      <c r="N191" s="6"/>
-      <c r="O191" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P191" s="6"/>
-      <c r="Q191" s="6"/>
-      <c r="R191" s="6"/>
-      <c r="S191" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T191" s="6"/>
-      <c r="U191" s="6"/>
-      <c r="V191" s="6"/>
-      <c r="W191" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X191" s="6"/>
-      <c r="Y191" s="6"/>
-      <c r="Z191" s="6"/>
-      <c r="AA191" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB191" s="15"/>
+      <c r="A191" s="10"/>
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
-      <c r="C192" t="s">
-        <v>317</v>
-      </c>
-      <c r="W192" t="s">
-        <v>328</v>
-      </c>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A193" s="10"/>
-      <c r="C193" t="s">
-        <v>315</v>
-      </c>
-      <c r="W193" t="s">
-        <v>329</v>
-      </c>
+      <c r="A193" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L193" s="6"/>
+      <c r="M193" s="6"/>
+      <c r="N193" s="6"/>
+      <c r="O193" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
+      <c r="R193" s="6"/>
+      <c r="S193" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T193" s="6"/>
+      <c r="U193" s="6"/>
+      <c r="V193" s="6"/>
+      <c r="W193" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X193" s="6"/>
+      <c r="Y193" s="6"/>
+      <c r="Z193" s="6"/>
+      <c r="AA193" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB193" s="15"/>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
-      <c r="C194" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
@@ -7399,136 +7558,142 @@
       <c r="A197" s="10"/>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A198" s="10" t="s">
+      <c r="A198" s="10"/>
+    </row>
+    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A199" s="10"/>
+    </row>
+    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A200" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B198" s="6"/>
-      <c r="C198" s="6" t="s">
+      <c r="B200" s="6"/>
+      <c r="C200" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="6" t="s">
+      <c r="D200" s="6"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H198" s="6"/>
-      <c r="I198" s="6"/>
-      <c r="J198" s="6"/>
-      <c r="K198" s="6" t="s">
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L198" s="6"/>
-      <c r="M198" s="6"/>
-      <c r="N198" s="6"/>
-      <c r="O198" s="6" t="s">
+      <c r="L200" s="6"/>
+      <c r="M200" s="6"/>
+      <c r="N200" s="6"/>
+      <c r="O200" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P198" s="6"/>
-      <c r="Q198" s="6"/>
-      <c r="R198" s="6"/>
-      <c r="S198" s="6" t="s">
+      <c r="P200" s="6"/>
+      <c r="Q200" s="6"/>
+      <c r="R200" s="6"/>
+      <c r="S200" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T198" s="6"/>
-      <c r="U198" s="6"/>
-      <c r="V198" s="6"/>
-      <c r="W198" s="6" t="s">
+      <c r="T200" s="6"/>
+      <c r="U200" s="6"/>
+      <c r="V200" s="6"/>
+      <c r="W200" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X198" s="6"/>
-      <c r="Y198" s="6"/>
-      <c r="Z198" s="6"/>
-      <c r="AA198" s="6" t="s">
+      <c r="X200" s="6"/>
+      <c r="Y200" s="6"/>
+      <c r="Z200" s="6"/>
+      <c r="AA200" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB198" s="15"/>
-    </row>
-    <row r="199" spans="1:28" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A199" s="10"/>
-      <c r="B199" s="45"/>
-      <c r="C199" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="D199" s="47"/>
-      <c r="E199" s="47"/>
-      <c r="F199" s="47"/>
-      <c r="G199" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="H199" s="47"/>
-      <c r="I199" s="47"/>
-      <c r="J199" s="47"/>
-      <c r="K199" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="L199" s="47"/>
-      <c r="M199" s="47"/>
-      <c r="N199" s="47"/>
-      <c r="O199" s="47"/>
-      <c r="P199" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q199" s="47"/>
-      <c r="R199" s="47"/>
-      <c r="S199" s="47"/>
-      <c r="T199" s="47"/>
-      <c r="U199" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="V199" s="47"/>
-      <c r="W199" s="47"/>
-      <c r="X199" s="47"/>
-      <c r="Y199" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="Z199" s="47"/>
-      <c r="AA199" s="47"/>
-      <c r="AB199" s="47"/>
-    </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A200" s="23"/>
-      <c r="B200" s="24" t="s">
+      <c r="AB200" s="15"/>
+    </row>
+    <row r="201" spans="1:28" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A201" s="10"/>
+      <c r="B201" s="43"/>
+      <c r="C201" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="D201" s="45"/>
+      <c r="E201" s="45"/>
+      <c r="F201" s="45"/>
+      <c r="G201" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="H201" s="45"/>
+      <c r="I201" s="45"/>
+      <c r="J201" s="45"/>
+      <c r="K201" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="L201" s="45"/>
+      <c r="M201" s="45"/>
+      <c r="N201" s="45"/>
+      <c r="O201" s="45"/>
+      <c r="P201" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q201" s="45"/>
+      <c r="R201" s="45"/>
+      <c r="S201" s="45"/>
+      <c r="T201" s="45"/>
+      <c r="U201" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="V201" s="45"/>
+      <c r="W201" s="45"/>
+      <c r="X201" s="45"/>
+      <c r="Y201" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z201" s="45"/>
+      <c r="AA201" s="45"/>
+      <c r="AB201" s="45"/>
+    </row>
+    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A202" s="23"/>
+      <c r="B202" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C200" s="24"/>
-      <c r="D200" s="24"/>
-      <c r="E200" s="24"/>
-      <c r="F200" s="24" t="s">
+      <c r="C202" s="24"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="24"/>
+      <c r="F202" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G200" s="24"/>
-      <c r="H200" s="24"/>
-      <c r="I200" s="24"/>
-      <c r="J200" s="24" t="s">
+      <c r="G202" s="24"/>
+      <c r="H202" s="24"/>
+      <c r="I202" s="24"/>
+      <c r="J202" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K200" s="24"/>
-      <c r="L200" s="24"/>
-      <c r="M200" s="24"/>
-      <c r="N200" s="24" t="s">
+      <c r="K202" s="24"/>
+      <c r="L202" s="24"/>
+      <c r="M202" s="24"/>
+      <c r="N202" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O200" s="24"/>
-      <c r="P200" s="24"/>
-      <c r="Q200" s="24"/>
-      <c r="R200" s="24"/>
-      <c r="S200" s="24" t="s">
+      <c r="O202" s="24"/>
+      <c r="P202" s="24"/>
+      <c r="Q202" s="24"/>
+      <c r="R202" s="24"/>
+      <c r="S202" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="T200" s="24"/>
-      <c r="U200" s="24"/>
-      <c r="V200" s="24"/>
-      <c r="W200" s="24" t="s">
+      <c r="T202" s="24"/>
+      <c r="U202" s="24"/>
+      <c r="V202" s="24"/>
+      <c r="W202" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="X200" s="24"/>
-      <c r="Y200" s="24"/>
-      <c r="Z200" s="24" t="s">
+      <c r="X202" s="24"/>
+      <c r="Y202" s="24"/>
+      <c r="Z202" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA200" s="24"/>
-      <c r="AB200" s="25"/>
+      <c r="AA202" s="24"/>
+      <c r="AB202" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="V54:X56 W59:W62 W64:W69">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarloAkuma\Desktop\JOHN CENA TUUTUUDUU TUUU\Gamelab1\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\Gamelab1\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -728,12 +728,6 @@
     <t>6A_EGA_001</t>
   </si>
   <si>
-    <t>6A_DFW_001</t>
-  </si>
-  <si>
-    <t>6A_DFA_001</t>
-  </si>
-  <si>
     <t>6A_SRHW_001</t>
   </si>
   <si>
@@ -1041,6 +1035,12 @@
   </si>
   <si>
     <t>Check Ronde</t>
+  </si>
+  <si>
+    <t>6A_EDFW_001</t>
+  </si>
+  <si>
+    <t>6A_EDFA_001</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1335,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1378,9 +1378,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1418,7 +1418,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1490,7 +1490,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H160" sqref="H160"/>
+    <sheetView tabSelected="1" topLeftCell="G109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W123" sqref="W123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5781,7 +5781,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
@@ -5792,7 +5792,7 @@
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
@@ -5805,13 +5805,13 @@
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
       <c r="W121" s="4" t="s">
-        <v>234</v>
+        <v>337</v>
       </c>
       <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
       <c r="AA121" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AC121" s="2"/>
     </row>
@@ -5843,13 +5843,13 @@
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
       <c r="W122" s="4" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
       <c r="AA122" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AC122" s="2"/>
     </row>
@@ -5880,14 +5880,14 @@
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
-      <c r="W123" s="4" t="s">
+      <c r="W123" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X123" s="4"/>
+      <c r="X123" s="1"/>
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
       <c r="AA123" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AC123" s="2"/>
     </row>
@@ -5930,7 +5930,7 @@
       <c r="A125" s="10"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -5963,7 +5963,7 @@
       <c r="A126" s="10"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -6198,43 +6198,43 @@
       <c r="A133" s="10"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
       <c r="S133" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
       <c r="W133" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X133" s="4"/>
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
       <c r="AA133" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AC133" s="2"/>
     </row>
@@ -6242,7 +6242,7 @@
       <c r="A134" s="10"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -6264,13 +6264,13 @@
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
       <c r="W134" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X134" s="4"/>
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
       <c r="AA134" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AC134" s="2"/>
     </row>
@@ -6302,7 +6302,7 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
       <c r="AA135" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AB135" s="4"/>
       <c r="AC135" s="2"/>
@@ -6451,43 +6451,43 @@
       <c r="A140" s="10"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
       <c r="S140" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
       <c r="W140" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="X140" s="4"/>
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
       <c r="AA140" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AB140" s="4"/>
       <c r="AC140" s="2"/>
@@ -6496,7 +6496,7 @@
       <c r="A141" s="10"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -6514,19 +6514,19 @@
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
       <c r="S141" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
       <c r="W141" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X141" s="4"/>
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
       <c r="AA141" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AB141" s="4"/>
       <c r="AC141" s="2"/>
@@ -6551,19 +6551,19 @@
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
       <c r="S142" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
       <c r="W142" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
       <c r="AA142" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AB142" s="4"/>
       <c r="AC142" s="2"/>
@@ -6588,19 +6588,19 @@
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
       <c r="S143" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
       <c r="W143" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="X143" s="4"/>
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
       <c r="AA143" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AB143" s="4"/>
       <c r="AC143" s="2"/>
@@ -6629,13 +6629,13 @@
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
       <c r="W144" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="X144" s="4"/>
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
       <c r="AA144" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AB144" s="4"/>
       <c r="AC144" s="2"/>
@@ -6668,7 +6668,7 @@
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
       <c r="AA145" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AB145" s="4"/>
       <c r="AC145" s="2"/>
@@ -6755,42 +6755,42 @@
       <c r="A148" s="42"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
       <c r="S148" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
       <c r="W148" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
       <c r="AA148" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AB148" s="4"/>
       <c r="AC148" s="2"/>
@@ -6799,7 +6799,7 @@
       <c r="A149" s="41"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -6817,18 +6817,18 @@
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
       <c r="S149" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
       <c r="W149" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
       <c r="AA149" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AB149" s="4"/>
       <c r="AC149" s="2"/>
@@ -6837,7 +6837,7 @@
       <c r="A150" s="10"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -6855,18 +6855,18 @@
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
       <c r="S150" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
       <c r="W150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
       <c r="AA150" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AB150" s="4"/>
       <c r="AC150" s="2"/>
@@ -6875,7 +6875,7 @@
       <c r="A151" s="10"/>
       <c r="B151" s="2"/>
       <c r="C151" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6893,18 +6893,18 @@
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
       <c r="S151" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
       <c r="V151" s="2"/>
       <c r="W151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Y151" s="2"/>
       <c r="Z151" s="4"/>
       <c r="AA151" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AB151" s="4"/>
       <c r="AC151" s="2"/>
@@ -6912,14 +6912,14 @@
     <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="C152" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="W152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Z152" s="2"/>
       <c r="AA152" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AB152" s="2"/>
       <c r="AC152" s="2"/>
@@ -6927,12 +6927,12 @@
     <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="C153" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="W153" s="4"/>
       <c r="Z153" s="2"/>
       <c r="AA153" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
@@ -7002,11 +7002,11 @@
       </c>
       <c r="T156" s="4"/>
       <c r="W156" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Z156" s="4"/>
       <c r="AA156" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AB156" s="4"/>
       <c r="AC156" s="2"/>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="T157" s="4"/>
       <c r="W157" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Z157" s="4"/>
       <c r="AA157" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB157" s="4"/>
       <c r="AC157" s="2"/>
@@ -7042,11 +7042,11 @@
       </c>
       <c r="T158" s="4"/>
       <c r="W158" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Z158" s="4"/>
       <c r="AA158" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AB158" s="4"/>
       <c r="AC158" s="2"/>
@@ -7058,11 +7058,11 @@
       </c>
       <c r="D159" s="4"/>
       <c r="W159" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Z159" s="4"/>
       <c r="AA159" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AB159" s="4"/>
       <c r="AC159" s="2"/>
@@ -7070,11 +7070,11 @@
     <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" s="41"/>
       <c r="W160" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Z160" s="2"/>
       <c r="AA160" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
@@ -7083,7 +7083,7 @@
       <c r="A161" s="10"/>
       <c r="Z161" s="2"/>
       <c r="AA161" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
@@ -7145,17 +7145,17 @@
     <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="C164" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S164" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="W164" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Z164" s="2"/>
       <c r="AA164" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AB164" s="4"/>
       <c r="AC164" s="2"/>
@@ -7163,17 +7163,17 @@
     <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="C165" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S165" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W165" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Z165" s="2"/>
       <c r="AA165" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB165" s="4"/>
       <c r="AC165" s="2"/>
@@ -7181,14 +7181,14 @@
     <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="C166" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S166" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z166" s="2"/>
       <c r="AA166" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AB166" s="2"/>
       <c r="AC166" s="2"/>
@@ -7196,7 +7196,7 @@
     <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="C167" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
@@ -7206,7 +7206,7 @@
     <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="C168" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
@@ -7216,7 +7216,7 @@
     <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="C169" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
@@ -7280,77 +7280,77 @@
     <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="C172" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S172" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="W172" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Z172" s="2"/>
       <c r="AA172" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AC172" s="2"/>
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="C173" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S173" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="W173" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Z173" s="2"/>
       <c r="AA173" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AC173" s="2"/>
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="C174" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S174" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="W174" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AA174" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="C175" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="W175" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="C176" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="W176" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="C177" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="W177" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
@@ -7405,25 +7405,25 @@
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="C180" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S180" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="C181" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S181" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="C182" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.25">
@@ -7613,39 +7613,39 @@
       <c r="A201" s="10"/>
       <c r="B201" s="43"/>
       <c r="C201" s="44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D201" s="45"/>
       <c r="E201" s="45"/>
       <c r="F201" s="45"/>
       <c r="G201" s="44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H201" s="45"/>
       <c r="I201" s="45"/>
       <c r="J201" s="45"/>
       <c r="K201" s="44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L201" s="45"/>
       <c r="M201" s="45"/>
       <c r="N201" s="45"/>
       <c r="O201" s="45"/>
       <c r="P201" s="44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q201" s="45"/>
       <c r="R201" s="45"/>
       <c r="S201" s="45"/>
       <c r="T201" s="45"/>
       <c r="U201" s="44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="V201" s="45"/>
       <c r="W201" s="45"/>
       <c r="X201" s="45"/>
       <c r="Y201" s="44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Z201" s="45"/>
       <c r="AA201" s="45"/>

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W123" sqref="W123"/>
+    <sheetView tabSelected="1" topLeftCell="G145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W127" sqref="W127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5804,10 +5804,10 @@
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
-      <c r="W121" s="4" t="s">
+      <c r="W121" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="X121" s="4"/>
+      <c r="X121" s="1"/>
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
       <c r="AA121" t="s">
@@ -5842,10 +5842,10 @@
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
-      <c r="W122" s="4" t="s">
+      <c r="W122" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="X122" s="4"/>
+      <c r="X122" s="1"/>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
       <c r="AA122" t="s">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W127" sqref="W127"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O121" activeCellId="1" sqref="N121 O121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4635,10 +4635,10 @@
       <c r="T89" s="1"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
-      <c r="W89" s="2" t="s">
+      <c r="W89" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="X89" s="2"/>
+      <c r="X89" s="1"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
       <c r="AA89" s="1" t="s">
@@ -4969,11 +4969,11 @@
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
-      <c r="W98" s="4" t="s">
+      <c r="W98" s="1" t="s">
         <v>208</v>
       </c>
       <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
+      <c r="Y98" s="1"/>
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
       <c r="AB98" s="12"/>
@@ -5780,28 +5780,28 @@
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="4" t="s">
+      <c r="G121" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H121" s="4"/>
+      <c r="H121" s="1"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="4" t="s">
+      <c r="K121" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L121" s="4"/>
+      <c r="L121" s="1"/>
       <c r="M121" s="4"/>
-      <c r="N121" s="4" t="s">
+      <c r="N121" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="O121" s="4"/>
+      <c r="O121" s="1"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
-      <c r="S121" s="4" t="s">
+      <c r="S121" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="T121" s="4"/>
+      <c r="T121" s="1"/>
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
       <c r="W121" s="1" t="s">
@@ -5836,10 +5836,10 @@
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
-      <c r="S122" s="4" t="s">
+      <c r="S122" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="T122" s="4"/>
+      <c r="T122" s="1"/>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
       <c r="W122" s="1" t="s">
@@ -5848,9 +5848,10 @@
       <c r="X122" s="1"/>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
-      <c r="AA122" t="s">
+      <c r="AA122" s="18" t="s">
         <v>314</v>
       </c>
+      <c r="AB122" s="18"/>
       <c r="AC122" s="2"/>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.25">
@@ -5874,10 +5875,10 @@
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
-      <c r="S123" s="4" t="s">
+      <c r="S123" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="T123" s="4"/>
+      <c r="T123" s="1"/>
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
       <c r="W123" s="1" t="s">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\Gamelab1\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarloAkuma\Desktop\JOHN CENA TUUTUUDUU TUUU\Gamelab1\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="340">
   <si>
     <t>Planning</t>
   </si>
@@ -728,6 +728,12 @@
     <t>6A_EGA_001</t>
   </si>
   <si>
+    <t>6A_DFW_001</t>
+  </si>
+  <si>
+    <t>6A_DFA_001</t>
+  </si>
+  <si>
     <t>6A_SRHW_001</t>
   </si>
   <si>
@@ -1034,13 +1040,10 @@
     <t>Particles Onderzoeken</t>
   </si>
   <si>
-    <t>Check Ronde</t>
-  </si>
-  <si>
-    <t>6A_EDFW_001</t>
-  </si>
-  <si>
-    <t>6A_EDFA_001</t>
+    <t>Lvl 2 Fien</t>
+  </si>
+  <si>
+    <t>7S_SAL_001</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1338,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1378,9 +1381,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1418,7 +1421,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1490,7 +1493,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1642,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O121" activeCellId="1" sqref="N121 O121"/>
+    <sheetView tabSelected="1" topLeftCell="B121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140:H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4635,10 +4638,10 @@
       <c r="T89" s="1"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
-      <c r="W89" s="1" t="s">
+      <c r="W89" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="X89" s="1"/>
+      <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
       <c r="AA89" s="1" t="s">
@@ -4969,11 +4972,11 @@
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
-      <c r="W98" s="1" t="s">
+      <c r="W98" s="4" t="s">
         <v>208</v>
       </c>
       <c r="X98" s="2"/>
-      <c r="Y98" s="1"/>
+      <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
       <c r="AB98" s="12"/>
@@ -5780,38 +5783,38 @@
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H121" s="1"/>
+      <c r="G121" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="1" t="s">
+      <c r="K121" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L121" s="1"/>
+      <c r="L121" s="4"/>
       <c r="M121" s="4"/>
-      <c r="N121" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="O121" s="1"/>
+      <c r="N121" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="O121" s="4"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
-      <c r="S121" s="1" t="s">
+      <c r="S121" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="T121" s="1"/>
+      <c r="T121" s="4"/>
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
-      <c r="W121" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="X121" s="1"/>
+      <c r="W121" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
-      <c r="AA121" t="s">
-        <v>313</v>
+      <c r="AA121" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="AC121" s="2"/>
     </row>
@@ -5824,7 +5827,9 @@
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
+      <c r="G122" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -5836,22 +5841,18 @@
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
-      <c r="S122" s="1" t="s">
+      <c r="S122" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="T122" s="1"/>
+      <c r="T122" s="4"/>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
-      <c r="W122" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="X122" s="1"/>
+      <c r="W122" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
-      <c r="AA122" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="AB122" s="18"/>
       <c r="AC122" s="2"/>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.25">
@@ -5875,21 +5876,18 @@
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
-      <c r="S123" s="1" t="s">
+      <c r="S123" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="T123" s="1"/>
+      <c r="T123" s="4"/>
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
-      <c r="W123" s="1" t="s">
+      <c r="W123" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X123" s="1"/>
+      <c r="X123" s="4"/>
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
-      <c r="AA123" t="s">
-        <v>315</v>
-      </c>
       <c r="AC123" s="2"/>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.25">
@@ -5931,7 +5929,7 @@
       <c r="A125" s="10"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -5964,7 +5962,7 @@
       <c r="A126" s="10"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -5996,8 +5994,9 @@
     <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="C127" t="s">
+        <v>315</v>
+      </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
@@ -6027,8 +6026,9 @@
     <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
+      <c r="C128" t="s">
+        <v>316</v>
+      </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
@@ -6058,8 +6058,9 @@
     <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="C129" t="s">
+        <v>317</v>
+      </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
@@ -6199,43 +6200,43 @@
       <c r="A133" s="10"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
       <c r="S133" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
       <c r="W133" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="X133" s="4"/>
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
       <c r="AA133" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AC133" s="2"/>
     </row>
@@ -6243,7 +6244,7 @@
       <c r="A134" s="10"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -6265,13 +6266,13 @@
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
       <c r="W134" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="X134" s="4"/>
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
       <c r="AA134" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AC134" s="2"/>
     </row>
@@ -6303,7 +6304,7 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
       <c r="AA135" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AB135" s="4"/>
       <c r="AC135" s="2"/>
@@ -6452,43 +6453,43 @@
       <c r="A140" s="10"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
       <c r="S140" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
       <c r="W140" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="X140" s="4"/>
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
       <c r="AA140" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AB140" s="4"/>
       <c r="AC140" s="2"/>
@@ -6497,7 +6498,7 @@
       <c r="A141" s="10"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -6515,19 +6516,19 @@
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
       <c r="S141" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
       <c r="W141" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="X141" s="4"/>
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
       <c r="AA141" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AB141" s="4"/>
       <c r="AC141" s="2"/>
@@ -6552,19 +6553,19 @@
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
       <c r="S142" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
       <c r="W142" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
       <c r="AA142" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AB142" s="4"/>
       <c r="AC142" s="2"/>
@@ -6589,19 +6590,19 @@
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
       <c r="S143" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
       <c r="W143" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="X143" s="4"/>
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
       <c r="AA143" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AB143" s="4"/>
       <c r="AC143" s="2"/>
@@ -6630,13 +6631,13 @@
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
       <c r="W144" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="X144" s="4"/>
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
       <c r="AA144" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AB144" s="4"/>
       <c r="AC144" s="2"/>
@@ -6669,7 +6670,7 @@
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
       <c r="AA145" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB145" s="4"/>
       <c r="AC145" s="2"/>
@@ -6756,42 +6757,42 @@
       <c r="A148" s="42"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
       <c r="S148" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
       <c r="W148" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
       <c r="AA148" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AB148" s="4"/>
       <c r="AC148" s="2"/>
@@ -6800,7 +6801,7 @@
       <c r="A149" s="41"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -6818,18 +6819,18 @@
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
       <c r="S149" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
       <c r="W149" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
       <c r="AA149" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AB149" s="4"/>
       <c r="AC149" s="2"/>
@@ -6838,7 +6839,7 @@
       <c r="A150" s="10"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -6856,18 +6857,18 @@
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
       <c r="S150" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
       <c r="W150" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
       <c r="AA150" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AB150" s="4"/>
       <c r="AC150" s="2"/>
@@ -6876,7 +6877,7 @@
       <c r="A151" s="10"/>
       <c r="B151" s="2"/>
       <c r="C151" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6894,18 +6895,18 @@
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
       <c r="S151" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
       <c r="V151" s="2"/>
       <c r="W151" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Y151" s="2"/>
       <c r="Z151" s="4"/>
       <c r="AA151" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AB151" s="4"/>
       <c r="AC151" s="2"/>
@@ -6913,14 +6914,14 @@
     <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="C152" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="W152" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Z152" s="2"/>
       <c r="AA152" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AB152" s="2"/>
       <c r="AC152" s="2"/>
@@ -6928,12 +6929,12 @@
     <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="C153" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="W153" s="4"/>
       <c r="Z153" s="2"/>
       <c r="AA153" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
@@ -7003,11 +7004,11 @@
       </c>
       <c r="T156" s="4"/>
       <c r="W156" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Z156" s="4"/>
       <c r="AA156" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AB156" s="4"/>
       <c r="AC156" s="2"/>
@@ -7023,11 +7024,11 @@
       </c>
       <c r="T157" s="4"/>
       <c r="W157" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Z157" s="4"/>
       <c r="AA157" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AB157" s="4"/>
       <c r="AC157" s="2"/>
@@ -7043,11 +7044,11 @@
       </c>
       <c r="T158" s="4"/>
       <c r="W158" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Z158" s="4"/>
       <c r="AA158" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AB158" s="4"/>
       <c r="AC158" s="2"/>
@@ -7059,11 +7060,11 @@
       </c>
       <c r="D159" s="4"/>
       <c r="W159" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Z159" s="4"/>
       <c r="AA159" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AB159" s="4"/>
       <c r="AC159" s="2"/>
@@ -7071,11 +7072,11 @@
     <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" s="41"/>
       <c r="W160" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Z160" s="2"/>
       <c r="AA160" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
@@ -7084,7 +7085,7 @@
       <c r="A161" s="10"/>
       <c r="Z161" s="2"/>
       <c r="AA161" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
@@ -7146,17 +7147,17 @@
     <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="C164" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S164" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="W164" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z164" s="2"/>
       <c r="AA164" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AB164" s="4"/>
       <c r="AC164" s="2"/>
@@ -7164,17 +7165,17 @@
     <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="C165" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S165" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="W165" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z165" s="2"/>
       <c r="AA165" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AB165" s="4"/>
       <c r="AC165" s="2"/>
@@ -7182,14 +7183,14 @@
     <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="C166" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="S166" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Z166" s="2"/>
       <c r="AA166" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AB166" s="2"/>
       <c r="AC166" s="2"/>
@@ -7197,7 +7198,7 @@
     <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="C167" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
@@ -7207,7 +7208,7 @@
     <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="C168" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
@@ -7217,7 +7218,7 @@
     <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="C169" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
@@ -7281,77 +7282,77 @@
     <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="C172" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="S172" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="W172" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Z172" s="2"/>
       <c r="AA172" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AC172" s="2"/>
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="C173" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="S173" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="W173" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Z173" s="2"/>
       <c r="AA173" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AC173" s="2"/>
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="C174" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="S174" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="W174" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AA174" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="C175" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="W175" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="C176" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="W176" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="C177" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="W177" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
@@ -7406,25 +7407,25 @@
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="C180" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="S180" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="C181" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="S181" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="C182" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.25">
@@ -7614,39 +7615,39 @@
       <c r="A201" s="10"/>
       <c r="B201" s="43"/>
       <c r="C201" s="44" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D201" s="45"/>
       <c r="E201" s="45"/>
       <c r="F201" s="45"/>
       <c r="G201" s="44" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H201" s="45"/>
       <c r="I201" s="45"/>
       <c r="J201" s="45"/>
       <c r="K201" s="44" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L201" s="45"/>
       <c r="M201" s="45"/>
       <c r="N201" s="45"/>
       <c r="O201" s="45"/>
       <c r="P201" s="44" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q201" s="45"/>
       <c r="R201" s="45"/>
       <c r="S201" s="45"/>
       <c r="T201" s="45"/>
       <c r="U201" s="44" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="V201" s="45"/>
       <c r="W201" s="45"/>
       <c r="X201" s="45"/>
       <c r="Y201" s="44" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Z201" s="45"/>
       <c r="AA201" s="45"/>

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="343">
   <si>
     <t>Planning</t>
   </si>
@@ -752,24 +752,6 @@
     <t>6A_SHRT_001</t>
   </si>
   <si>
-    <t>6A_SHRSW_001</t>
-  </si>
-  <si>
-    <t>6A_SHRSW_002</t>
-  </si>
-  <si>
-    <t>6A_SHRSW_003</t>
-  </si>
-  <si>
-    <t>6A_SHRSW_004</t>
-  </si>
-  <si>
-    <t>6A_SHRSW_005</t>
-  </si>
-  <si>
-    <t>6A_SHRSW_006</t>
-  </si>
-  <si>
     <t>6A_SRCS_001</t>
   </si>
   <si>
@@ -1044,6 +1026,33 @@
   </si>
   <si>
     <t>7S_SAL_001</t>
+  </si>
+  <si>
+    <t>SCALING OBJECTEN</t>
+  </si>
+  <si>
+    <t>Level Build 2 af</t>
+  </si>
+  <si>
+    <t>Level Build 1 af</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begin Level build 2 </t>
+  </si>
+  <si>
+    <t>Level build 3 Begin</t>
+  </si>
+  <si>
+    <t>Level 1 Testing</t>
+  </si>
+  <si>
+    <t>Level 2 Testing</t>
+  </si>
+  <si>
+    <t>Level build 3 af</t>
+  </si>
+  <si>
+    <t>Level 3 testing</t>
   </si>
 </sst>
 </file>
@@ -1331,11 +1340,11 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1643,13 +1652,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC202"/>
+  <dimension ref="A2:AC207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140:H140"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A176" activeCellId="1" sqref="A184 A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5784,7 +5796,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
@@ -5795,7 +5807,7 @@
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
@@ -5814,21 +5826,21 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
       <c r="AA121" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AC121" s="2"/>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D122" s="4"/>
+      <c r="D122" s="1"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
@@ -5858,10 +5870,10 @@
     <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D123" s="4"/>
+      <c r="D123" s="1"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -5893,10 +5905,10 @@
     <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D124" s="4"/>
+      <c r="D124" s="1"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -5917,8 +5929,9 @@
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
-      <c r="W124" s="4"/>
-      <c r="X124" s="4"/>
+      <c r="W124" t="s">
+        <v>309</v>
+      </c>
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
@@ -5950,8 +5963,10 @@
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
-      <c r="W125" s="4"/>
-      <c r="X125" s="4"/>
+      <c r="W125" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="X125" s="44"/>
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
@@ -5983,8 +5998,10 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
-      <c r="W126" s="4"/>
-      <c r="X126" s="4"/>
+      <c r="W126" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="X126" s="44"/>
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
@@ -5994,9 +6011,6 @@
     <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="4"/>
-      <c r="C127" t="s">
-        <v>315</v>
-      </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
@@ -6026,9 +6040,6 @@
     <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="4"/>
-      <c r="C128" t="s">
-        <v>316</v>
-      </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
@@ -6058,9 +6069,6 @@
     <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="4"/>
-      <c r="C129" t="s">
-        <v>317</v>
-      </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
@@ -6119,7 +6127,7 @@
       <c r="AC130" s="2"/>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
+      <c r="A131" s="6"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -6206,37 +6214,37 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P133" s="4"/>
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
       <c r="S133" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
       <c r="W133" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="X133" s="4"/>
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
       <c r="AA133" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AC133" s="2"/>
     </row>
@@ -6266,13 +6274,13 @@
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
       <c r="W134" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="X134" s="4"/>
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
       <c r="AA134" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AC134" s="2"/>
     </row>
@@ -6304,7 +6312,7 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
       <c r="AA135" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AB135" s="4"/>
       <c r="AC135" s="2"/>
@@ -6336,39 +6344,49 @@
       <c r="X136" s="4"/>
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
-      <c r="AA136" s="4"/>
-      <c r="AB136" s="4"/>
+      <c r="AA136" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB136" s="21"/>
       <c r="AC136" s="2"/>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="4"/>
-      <c r="S137" s="4"/>
-      <c r="T137" s="4"/>
-      <c r="U137" s="4"/>
-      <c r="V137" s="4"/>
-      <c r="W137" s="4"/>
-      <c r="X137" s="4"/>
-      <c r="Y137" s="4"/>
-      <c r="Z137" s="4"/>
-      <c r="AA137" s="4"/>
-      <c r="AB137" s="4"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
+      <c r="J137" s="21"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="21"/>
+      <c r="M137" s="21"/>
+      <c r="N137" s="21"/>
+      <c r="O137" s="21"/>
+      <c r="P137" s="21"/>
+      <c r="Q137" s="21"/>
+      <c r="R137" s="21"/>
+      <c r="S137" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="T137" s="21"/>
+      <c r="U137" s="21"/>
+      <c r="V137" s="21"/>
+      <c r="W137" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="X137" s="21"/>
+      <c r="Y137" s="21"/>
+      <c r="Z137" s="21"/>
+      <c r="AA137" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB137" s="21"/>
       <c r="AC137" s="2"/>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.25">
@@ -6402,104 +6420,72 @@
       <c r="AB138" s="4"/>
       <c r="AC138" s="2"/>
     </row>
-    <row r="139" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L139" s="6"/>
-      <c r="M139" s="6"/>
-      <c r="N139" s="6"/>
-      <c r="O139" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P139" s="6"/>
-      <c r="Q139" s="6"/>
-      <c r="R139" s="6"/>
-      <c r="S139" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T139" s="6"/>
-      <c r="U139" s="6"/>
-      <c r="V139" s="6"/>
-      <c r="W139" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X139" s="6"/>
-      <c r="Y139" s="6"/>
-      <c r="Z139" s="6"/>
-      <c r="AA139" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB139" s="6"/>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A139" s="10"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+      <c r="X139" s="4"/>
+      <c r="Y139" s="4"/>
+      <c r="Z139" s="4"/>
+      <c r="AA139" s="4"/>
+      <c r="AB139" s="4"/>
       <c r="AC139" s="2"/>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="4" t="s">
-        <v>240</v>
-      </c>
+      <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
-      <c r="G140" s="4" t="s">
-        <v>339</v>
-      </c>
+      <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="K140" s="4" t="s">
-        <v>334</v>
-      </c>
+      <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
-      <c r="O140" s="4" t="s">
-        <v>336</v>
-      </c>
+      <c r="O140" s="4"/>
       <c r="P140" s="4"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
-      <c r="S140" s="4" t="s">
-        <v>249</v>
-      </c>
+      <c r="S140" s="4"/>
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
-      <c r="W140" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="W140" s="4"/>
       <c r="X140" s="4"/>
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
-      <c r="AA140" s="4" t="s">
-        <v>302</v>
-      </c>
+      <c r="AA140" s="4"/>
       <c r="AB140" s="4"/>
       <c r="AC140" s="2"/>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="4" t="s">
-        <v>241</v>
-      </c>
+      <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -6515,102 +6501,116 @@
       <c r="P141" s="4"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
-      <c r="S141" s="4" t="s">
-        <v>258</v>
-      </c>
+      <c r="S141" s="4"/>
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
-      <c r="W141" s="4" t="s">
-        <v>251</v>
-      </c>
+      <c r="W141" s="4"/>
       <c r="X141" s="4"/>
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
-      <c r="AA141" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="AA141" s="4"/>
       <c r="AB141" s="4"/>
       <c r="AC141" s="2"/>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
-      <c r="R142" s="4"/>
-      <c r="S142" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="T142" s="4"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="4"/>
-      <c r="W142" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="X142" s="4"/>
-      <c r="Y142" s="4"/>
-      <c r="Z142" s="4"/>
-      <c r="AA142" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB142" s="4"/>
+    <row r="142" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T142" s="6"/>
+      <c r="U142" s="6"/>
+      <c r="V142" s="6"/>
+      <c r="W142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X142" s="6"/>
+      <c r="Y142" s="6"/>
+      <c r="Z142" s="6"/>
+      <c r="AA142" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB142" s="6"/>
       <c r="AC142" s="2"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A143" s="41"/>
+      <c r="A143" s="10"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+      <c r="C143" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
+      <c r="G143" s="4" t="s">
+        <v>333</v>
+      </c>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
+      <c r="K143" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
+      <c r="O143" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
       <c r="S143" s="4" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
       <c r="W143" s="4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="X143" s="4"/>
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
       <c r="AA143" s="4" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="AB143" s="4"/>
       <c r="AC143" s="2"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A144" s="41"/>
+      <c r="A144" s="10"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+      <c r="C144" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -6626,24 +6626,26 @@
       <c r="P144" s="4"/>
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
-      <c r="S144" s="4"/>
+      <c r="S144" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
       <c r="W144" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="X144" s="4"/>
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
       <c r="AA144" s="4" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="AB144" s="4"/>
       <c r="AC144" s="2"/>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A145" s="41"/>
+      <c r="A145" s="6"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -6661,22 +6663,26 @@
       <c r="P145" s="4"/>
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
-      <c r="S145" s="4"/>
+      <c r="S145" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
-      <c r="W145" s="4"/>
+      <c r="W145" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="X145" s="4"/>
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
       <c r="AA145" s="4" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="AB145" s="4"/>
       <c r="AC145" s="2"/>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A146" s="41"/>
+      <c r="A146" s="6"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -6694,115 +6700,98 @@
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
-      <c r="S146" s="4"/>
+      <c r="S146" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
-      <c r="W146" s="4"/>
+      <c r="W146" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="X146" s="4"/>
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
-      <c r="AA146" s="4"/>
+      <c r="AA146" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="AB146" s="4"/>
       <c r="AC146" s="2"/>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A147" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
-      <c r="K147" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L147" s="6"/>
-      <c r="M147" s="6"/>
-      <c r="N147" s="6"/>
-      <c r="O147" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P147" s="6"/>
-      <c r="Q147" s="6"/>
-      <c r="R147" s="6"/>
-      <c r="S147" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T147" s="6"/>
-      <c r="U147" s="6"/>
-      <c r="V147" s="6"/>
-      <c r="W147" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X147" s="6"/>
-      <c r="Y147" s="6"/>
-      <c r="Z147" s="6"/>
-      <c r="AA147" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB147" s="6"/>
+      <c r="A147" s="6"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
+      <c r="Z147" s="4"/>
+      <c r="AA147" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB147" s="4"/>
       <c r="AC147" s="2"/>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A148" s="42"/>
+      <c r="A148" s="6"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="4" t="s">
-        <v>242</v>
-      </c>
+      <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="4" t="s">
-        <v>337</v>
-      </c>
+      <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
-      <c r="K148" s="4" t="s">
-        <v>337</v>
-      </c>
+      <c r="K148" s="4"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
-      <c r="O148" s="4" t="s">
-        <v>337</v>
-      </c>
+      <c r="O148" s="4"/>
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
-      <c r="S148" s="4" t="s">
-        <v>248</v>
-      </c>
+      <c r="S148" s="4"/>
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
-      <c r="W148" t="s">
-        <v>325</v>
-      </c>
+      <c r="W148" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="X148" s="21"/>
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
       <c r="AA148" s="4" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="AB148" s="4"/>
       <c r="AC148" s="2"/>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A149" s="41"/>
+      <c r="A149" s="6"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="4" t="s">
-        <v>243</v>
-      </c>
+      <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -6818,29 +6807,24 @@
       <c r="P149" s="4"/>
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
-      <c r="S149" s="4" t="s">
-        <v>261</v>
-      </c>
+      <c r="S149" s="4"/>
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
-      <c r="W149" t="s">
-        <v>326</v>
-      </c>
+      <c r="W149" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="X149" s="21"/>
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
-      <c r="AA149" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="AA149" s="4"/>
       <c r="AB149" s="4"/>
       <c r="AC149" s="2"/>
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
+      <c r="A150" s="6"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="4" t="s">
-        <v>244</v>
-      </c>
+      <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -6856,696 +6840,857 @@
       <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
-      <c r="S150" s="4" t="s">
-        <v>262</v>
-      </c>
+      <c r="S150" s="4"/>
       <c r="T150" s="4"/>
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
-      <c r="W150" t="s">
-        <v>297</v>
-      </c>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
-      <c r="AA150" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB150" s="4"/>
+      <c r="AA150" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB150" s="21"/>
       <c r="AC150" s="2"/>
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
-      <c r="P151" s="2"/>
-      <c r="Q151" s="2"/>
-      <c r="R151" s="2"/>
-      <c r="S151" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="T151" s="2"/>
-      <c r="U151" s="2"/>
-      <c r="V151" s="2"/>
-      <c r="W151" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y151" s="2"/>
+      <c r="A151" s="6"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
+      <c r="R151" s="4"/>
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+      <c r="U151" s="4"/>
+      <c r="V151" s="4"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
-      <c r="AA151" s="4" t="s">
-        <v>328</v>
-      </c>
+      <c r="AA151" s="4"/>
       <c r="AB151" s="4"/>
       <c r="AC151" s="2"/>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
-      <c r="C152" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="W152" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z152" s="2"/>
-      <c r="AA152" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB152" s="2"/>
+      <c r="A152" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="6"/>
+      <c r="R152" s="6"/>
+      <c r="S152" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T152" s="6"/>
+      <c r="U152" s="6"/>
+      <c r="V152" s="6"/>
+      <c r="W152" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X152" s="6"/>
+      <c r="Y152" s="6"/>
+      <c r="Z152" s="6"/>
+      <c r="AA152" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB152" s="6"/>
       <c r="AC152" s="2"/>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="C153" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="W153" s="4"/>
-      <c r="Z153" s="2"/>
+      <c r="A153" s="6"/>
+      <c r="B153" s="4"/>
+      <c r="C153" t="s">
+        <v>270</v>
+      </c>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
+      <c r="R153" s="4"/>
+      <c r="S153" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="T153" s="4"/>
+      <c r="U153" s="4"/>
+      <c r="V153" s="4"/>
+      <c r="W153" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y153" s="4"/>
+      <c r="Z153" s="4"/>
       <c r="AA153" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB153" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="AB153" s="4"/>
       <c r="AC153" s="2"/>
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
-      <c r="Z154" s="2"/>
-      <c r="AA154" s="2"/>
-      <c r="AB154" s="2"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="4"/>
+      <c r="C154" t="s">
+        <v>271</v>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
+      <c r="R154" s="4"/>
+      <c r="S154" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="T154" s="4"/>
+      <c r="U154" s="4"/>
+      <c r="V154" s="4"/>
+      <c r="W154" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y154" s="4"/>
+      <c r="Z154" s="4"/>
+      <c r="AA154" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB154" s="4"/>
       <c r="AC154" s="2"/>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A155" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
-      <c r="K155" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L155" s="6"/>
-      <c r="M155" s="6"/>
-      <c r="N155" s="6"/>
-      <c r="O155" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P155" s="6"/>
-      <c r="Q155" s="6"/>
-      <c r="R155" s="6"/>
-      <c r="S155" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T155" s="6"/>
-      <c r="U155" s="6"/>
-      <c r="V155" s="6"/>
-      <c r="W155" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X155" s="6"/>
-      <c r="Y155" s="6"/>
-      <c r="Z155" s="6"/>
-      <c r="AA155" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB155" s="6"/>
+      <c r="A155" s="6"/>
+      <c r="B155" s="4"/>
+      <c r="C155" t="s">
+        <v>272</v>
+      </c>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
+      <c r="Q155" s="4"/>
+      <c r="R155" s="4"/>
+      <c r="S155" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="T155" s="4"/>
+      <c r="U155" s="4"/>
+      <c r="V155" s="4"/>
+      <c r="W155" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y155" s="4"/>
+      <c r="Z155" s="4"/>
+      <c r="AA155" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB155" s="4"/>
       <c r="AC155" s="2"/>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
-      <c r="C156" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D156" s="4"/>
+      <c r="B156" s="2"/>
+      <c r="C156" t="s">
+        <v>273</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
+      <c r="R156" s="2"/>
       <c r="S156" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="T156" s="4"/>
+        <v>257</v>
+      </c>
+      <c r="T156" s="2"/>
+      <c r="U156" s="2"/>
+      <c r="V156" s="2"/>
       <c r="W156" t="s">
-        <v>255</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="Y156" s="2"/>
       <c r="Z156" s="4"/>
       <c r="AA156" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AB156" s="4"/>
       <c r="AC156" s="2"/>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A157" s="41"/>
-      <c r="C157" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D157" s="4"/>
-      <c r="S157" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="T157" s="4"/>
+      <c r="A157" s="10"/>
+      <c r="C157" t="s">
+        <v>274</v>
+      </c>
       <c r="W157" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z157" s="4"/>
+        <v>293</v>
+      </c>
+      <c r="Z157" s="2"/>
       <c r="AA157" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB157" s="4"/>
+        <v>297</v>
+      </c>
+      <c r="AB157" s="2"/>
       <c r="AC157" s="2"/>
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
-      <c r="C158" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D158" s="4"/>
-      <c r="S158" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="T158" s="4"/>
-      <c r="W158" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z158" s="4"/>
+      <c r="C158" t="s">
+        <v>275</v>
+      </c>
+      <c r="W158" s="4"/>
+      <c r="Z158" s="2"/>
       <c r="AA158" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="AB158" s="4"/>
+        <v>299</v>
+      </c>
+      <c r="AB158" s="2"/>
       <c r="AC158" s="2"/>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
-      <c r="C159" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D159" s="4"/>
-      <c r="W159" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z159" s="4"/>
-      <c r="AA159" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB159" s="4"/>
+      <c r="Z159" s="2"/>
+      <c r="AA159" s="2"/>
+      <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A160" s="41"/>
-      <c r="W160" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z160" s="2"/>
-      <c r="AA160" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB160" s="2"/>
+      <c r="A160" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T160" s="6"/>
+      <c r="U160" s="6"/>
+      <c r="V160" s="6"/>
+      <c r="W160" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X160" s="6"/>
+      <c r="Y160" s="6"/>
+      <c r="Z160" s="6"/>
+      <c r="AA160" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB160" s="6"/>
       <c r="AC160" s="2"/>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
-      <c r="Z161" s="2"/>
+      <c r="C161" t="s">
+        <v>279</v>
+      </c>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+      <c r="S161" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T161" s="4"/>
+      <c r="W161" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z161" s="4"/>
       <c r="AA161" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB161" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="AB161" s="4"/>
       <c r="AC161" s="2"/>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
-      <c r="Z162" s="2"/>
-      <c r="AA162" s="2"/>
-      <c r="AB162" s="2"/>
+      <c r="A162" s="45"/>
+      <c r="C162" t="s">
+        <v>280</v>
+      </c>
+      <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
+      <c r="S162" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T162" s="4"/>
+      <c r="W162" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z162" s="4"/>
+      <c r="AA162" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB162" s="4"/>
       <c r="AC162" s="2"/>
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A163" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
-      <c r="K163" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L163" s="6"/>
-      <c r="M163" s="6"/>
-      <c r="N163" s="6"/>
-      <c r="O163" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P163" s="6"/>
-      <c r="Q163" s="6"/>
-      <c r="R163" s="6"/>
-      <c r="S163" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T163" s="6"/>
-      <c r="U163" s="6"/>
-      <c r="V163" s="6"/>
-      <c r="W163" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X163" s="6"/>
-      <c r="Y163" s="6"/>
-      <c r="Z163" s="6"/>
-      <c r="AA163" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB163" s="6"/>
+      <c r="A163" s="10"/>
+      <c r="C163" t="s">
+        <v>281</v>
+      </c>
+      <c r="J163" s="4"/>
+      <c r="K163" s="4"/>
+      <c r="S163" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T163" s="4"/>
+      <c r="W163" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z163" s="4"/>
+      <c r="AA163" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB163" s="4"/>
       <c r="AC163" s="2"/>
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="C164" t="s">
-        <v>285</v>
-      </c>
-      <c r="S164" t="s">
-        <v>264</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
       <c r="W164" t="s">
-        <v>318</v>
-      </c>
-      <c r="Z164" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="Z164" s="4"/>
       <c r="AA164" s="4" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="AB164" s="4"/>
       <c r="AC164" s="2"/>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
+      <c r="A165" s="45"/>
       <c r="C165" t="s">
-        <v>286</v>
-      </c>
-      <c r="S165" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="W165" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="Z165" s="2"/>
       <c r="AA165" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB165" s="4"/>
+        <v>261</v>
+      </c>
+      <c r="AB165" s="2"/>
       <c r="AC165" s="2"/>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="C166" t="s">
-        <v>287</v>
-      </c>
-      <c r="S166" t="s">
-        <v>266</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="W166" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="X166" s="20"/>
       <c r="Z166" s="2"/>
       <c r="AA166" s="4" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="AB166" s="2"/>
       <c r="AC166" s="2"/>
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
-      <c r="C167" t="s">
-        <v>290</v>
-      </c>
+      <c r="W167" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="X167" s="20"/>
       <c r="Z167" s="2"/>
-      <c r="AA167" s="2"/>
-      <c r="AB167" s="2"/>
+      <c r="AA167" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB167" s="21"/>
       <c r="AC167" s="2"/>
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
-      <c r="C168" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z168" s="2"/>
-      <c r="AA168" s="2"/>
-      <c r="AB168" s="2"/>
+      <c r="A168" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6"/>
+      <c r="N168" s="6"/>
+      <c r="O168" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="6"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T168" s="6"/>
+      <c r="U168" s="6"/>
+      <c r="V168" s="6"/>
+      <c r="W168" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X168" s="6"/>
+      <c r="Y168" s="6"/>
+      <c r="Z168" s="6"/>
+      <c r="AA168" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB168" s="6"/>
       <c r="AC168" s="2"/>
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="C169" t="s">
-        <v>289</v>
+        <v>276</v>
+      </c>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="S169" t="s">
+        <v>258</v>
+      </c>
+      <c r="W169" t="s">
+        <v>312</v>
       </c>
       <c r="Z169" s="2"/>
-      <c r="AA169" s="2"/>
-      <c r="AB169" s="2"/>
+      <c r="AA169" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB169" s="4"/>
       <c r="AC169" s="2"/>
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
+      <c r="C170" t="s">
+        <v>277</v>
+      </c>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="S170" t="s">
+        <v>259</v>
+      </c>
+      <c r="W170" t="s">
+        <v>313</v>
+      </c>
       <c r="Z170" s="2"/>
-      <c r="AA170" s="2"/>
-      <c r="AB170" s="2"/>
+      <c r="AA170" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB170" s="4"/>
       <c r="AC170" s="2"/>
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A171" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H171" s="6"/>
-      <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
-      <c r="K171" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L171" s="6"/>
-      <c r="M171" s="6"/>
-      <c r="N171" s="6"/>
-      <c r="O171" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P171" s="6"/>
-      <c r="Q171" s="6"/>
-      <c r="R171" s="6"/>
-      <c r="S171" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T171" s="6"/>
-      <c r="U171" s="6"/>
-      <c r="V171" s="6"/>
-      <c r="W171" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X171" s="6"/>
-      <c r="Y171" s="6"/>
-      <c r="Z171" s="6"/>
-      <c r="AA171" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB171" s="6"/>
+      <c r="A171" s="10"/>
+      <c r="C171" t="s">
+        <v>278</v>
+      </c>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="S171" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z171" s="2"/>
+      <c r="AA171" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB171" s="2"/>
       <c r="AC171" s="2"/>
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
-      <c r="C172" t="s">
-        <v>276</v>
-      </c>
-      <c r="S172" t="s">
-        <v>306</v>
-      </c>
-      <c r="W172" t="s">
-        <v>291</v>
-      </c>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="2"/>
       <c r="Z172" s="2"/>
-      <c r="AA172" t="s">
-        <v>270</v>
-      </c>
+      <c r="AA172" s="2"/>
+      <c r="AB172" s="2"/>
       <c r="AC172" s="2"/>
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
-      <c r="C173" t="s">
-        <v>277</v>
-      </c>
-      <c r="S173" t="s">
-        <v>307</v>
-      </c>
-      <c r="W173" t="s">
-        <v>292</v>
-      </c>
+      <c r="G173" s="4"/>
       <c r="Z173" s="2"/>
-      <c r="AA173" t="s">
-        <v>271</v>
-      </c>
+      <c r="AA173" s="2"/>
+      <c r="AB173" s="2"/>
       <c r="AC173" s="2"/>
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
-      <c r="C174" t="s">
-        <v>278</v>
-      </c>
-      <c r="S174" t="s">
-        <v>308</v>
-      </c>
-      <c r="W174" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA174" t="s">
-        <v>272</v>
-      </c>
+      <c r="G174" s="4"/>
+      <c r="Z174" s="2"/>
+      <c r="AA174" s="2"/>
+      <c r="AB174" s="2"/>
+      <c r="AC174" s="2"/>
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
-      <c r="C175" t="s">
-        <v>279</v>
-      </c>
-      <c r="W175" t="s">
-        <v>294</v>
-      </c>
+      <c r="Z175" s="2"/>
+      <c r="AA175" s="2"/>
+      <c r="AB175" s="2"/>
+      <c r="AC175" s="2"/>
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
-      <c r="C176" t="s">
-        <v>280</v>
-      </c>
-      <c r="W176" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A176" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L176" s="6"/>
+      <c r="M176" s="6"/>
+      <c r="N176" s="6"/>
+      <c r="O176" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="6"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T176" s="6"/>
+      <c r="U176" s="6"/>
+      <c r="V176" s="6"/>
+      <c r="W176" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X176" s="6"/>
+      <c r="Y176" s="6"/>
+      <c r="Z176" s="6"/>
+      <c r="AA176" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB176" s="6"/>
+      <c r="AC176" s="2"/>
+    </row>
+    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
-      <c r="C177" t="s">
-        <v>281</v>
+      <c r="C177" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="S177" t="s">
+        <v>300</v>
       </c>
       <c r="W177" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="Z177" s="2"/>
+      <c r="AA177" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC177" s="2"/>
+    </row>
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
-    </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A179" s="41" t="s">
+      <c r="C178" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="S178" t="s">
+        <v>301</v>
+      </c>
+      <c r="W178" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z178" s="2"/>
+      <c r="AA178" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC178" s="2"/>
+    </row>
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A179" s="10"/>
+      <c r="C179" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="S179" t="s">
+        <v>302</v>
+      </c>
+      <c r="W179" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA179" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A180" s="10"/>
+      <c r="C180" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="W180" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A181" s="10"/>
+      <c r="W181" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A182" s="10"/>
+      <c r="W182" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A183" s="10"/>
+      <c r="W183" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="X183" s="20"/>
+      <c r="AA183" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB183" s="20"/>
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A184" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6" t="s">
+      <c r="B184" s="6"/>
+      <c r="C184" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6" t="s">
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H179" s="6"/>
-      <c r="I179" s="6"/>
-      <c r="J179" s="6"/>
-      <c r="K179" s="6" t="s">
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L179" s="6"/>
-      <c r="M179" s="6"/>
-      <c r="N179" s="6"/>
-      <c r="O179" s="6" t="s">
+      <c r="L184" s="6"/>
+      <c r="M184" s="6"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P179" s="6"/>
-      <c r="Q179" s="6"/>
-      <c r="R179" s="6"/>
-      <c r="S179" s="6" t="s">
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T179" s="6"/>
-      <c r="U179" s="6"/>
-      <c r="V179" s="6"/>
-      <c r="W179" s="6" t="s">
+      <c r="T184" s="6"/>
+      <c r="U184" s="6"/>
+      <c r="V184" s="6"/>
+      <c r="W184" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X179" s="6"/>
-      <c r="Y179" s="6"/>
-      <c r="Z179" s="6"/>
-      <c r="AA179" s="6" t="s">
+      <c r="X184" s="6"/>
+      <c r="Y184" s="6"/>
+      <c r="Z184" s="6"/>
+      <c r="AA184" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB179" s="15"/>
-    </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
-      <c r="C180" t="s">
-        <v>282</v>
-      </c>
-      <c r="S180" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A181" s="10"/>
-      <c r="C181" t="s">
-        <v>283</v>
-      </c>
-      <c r="S181" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
-      <c r="C182" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
-    </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A184" s="10"/>
-    </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB184" s="15"/>
+    </row>
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
-    </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A186" s="10" t="s">
+      <c r="S185" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A186" s="10"/>
+      <c r="S186" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A187" s="10"/>
+    </row>
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A188" s="10"/>
+    </row>
+    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A189" s="10"/>
+    </row>
+    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A190" s="10"/>
+    </row>
+    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A191" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6" t="s">
+      <c r="B191" s="6"/>
+      <c r="C191" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
-      <c r="G186" s="6" t="s">
+      <c r="D191" s="6"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
-      <c r="K186" s="6" t="s">
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L186" s="6"/>
-      <c r="M186" s="6"/>
-      <c r="N186" s="6"/>
-      <c r="O186" s="6" t="s">
+      <c r="L191" s="6"/>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P186" s="6"/>
-      <c r="Q186" s="6"/>
-      <c r="R186" s="6"/>
-      <c r="S186" s="6" t="s">
+      <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
+      <c r="R191" s="6"/>
+      <c r="S191" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T186" s="6"/>
-      <c r="U186" s="6"/>
-      <c r="V186" s="6"/>
-      <c r="W186" s="6" t="s">
+      <c r="T191" s="6"/>
+      <c r="U191" s="6"/>
+      <c r="V191" s="6"/>
+      <c r="W191" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X186" s="6"/>
-      <c r="Y186" s="6"/>
-      <c r="Z186" s="6"/>
-      <c r="AA186" s="6" t="s">
+      <c r="X191" s="6"/>
+      <c r="Y191" s="6"/>
+      <c r="Z191" s="6"/>
+      <c r="AA191" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB186" s="15"/>
-    </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A187" s="10"/>
-    </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-    </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
-    </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
-    </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
-    </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB191" s="15"/>
+    </row>
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A193" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B193" s="6"/>
-      <c r="C193" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H193" s="6"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
-      <c r="K193" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L193" s="6"/>
-      <c r="M193" s="6"/>
-      <c r="N193" s="6"/>
-      <c r="O193" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P193" s="6"/>
-      <c r="Q193" s="6"/>
-      <c r="R193" s="6"/>
-      <c r="S193" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T193" s="6"/>
-      <c r="U193" s="6"/>
-      <c r="V193" s="6"/>
-      <c r="W193" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X193" s="6"/>
-      <c r="Y193" s="6"/>
-      <c r="Z193" s="6"/>
-      <c r="AA193" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB193" s="15"/>
+      <c r="A193" s="10"/>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
@@ -7560,142 +7705,200 @@
       <c r="A197" s="10"/>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A198" s="10"/>
+      <c r="A198" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T198" s="6"/>
+      <c r="U198" s="6"/>
+      <c r="V198" s="6"/>
+      <c r="W198" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X198" s="6"/>
+      <c r="Y198" s="6"/>
+      <c r="Z198" s="6"/>
+      <c r="AA198" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB198" s="15"/>
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A200" s="10" t="s">
+      <c r="A200" s="10"/>
+    </row>
+    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A201" s="10"/>
+    </row>
+    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A202" s="10"/>
+    </row>
+    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A203" s="10"/>
+    </row>
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A204" s="10"/>
+    </row>
+    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A205" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B200" s="6"/>
-      <c r="C200" s="6" t="s">
+      <c r="B205" s="6"/>
+      <c r="C205" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D200" s="6"/>
-      <c r="E200" s="6"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="6" t="s">
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H200" s="6"/>
-      <c r="I200" s="6"/>
-      <c r="J200" s="6"/>
-      <c r="K200" s="6" t="s">
+      <c r="H205" s="6"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6"/>
+      <c r="K205" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L200" s="6"/>
-      <c r="M200" s="6"/>
-      <c r="N200" s="6"/>
-      <c r="O200" s="6" t="s">
+      <c r="L205" s="6"/>
+      <c r="M205" s="6"/>
+      <c r="N205" s="6"/>
+      <c r="O205" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P200" s="6"/>
-      <c r="Q200" s="6"/>
-      <c r="R200" s="6"/>
-      <c r="S200" s="6" t="s">
+      <c r="P205" s="6"/>
+      <c r="Q205" s="6"/>
+      <c r="R205" s="6"/>
+      <c r="S205" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T200" s="6"/>
-      <c r="U200" s="6"/>
-      <c r="V200" s="6"/>
-      <c r="W200" s="6" t="s">
+      <c r="T205" s="6"/>
+      <c r="U205" s="6"/>
+      <c r="V205" s="6"/>
+      <c r="W205" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X200" s="6"/>
-      <c r="Y200" s="6"/>
-      <c r="Z200" s="6"/>
-      <c r="AA200" s="6" t="s">
+      <c r="X205" s="6"/>
+      <c r="Y205" s="6"/>
+      <c r="Z205" s="6"/>
+      <c r="AA205" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB200" s="15"/>
-    </row>
-    <row r="201" spans="1:28" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A201" s="10"/>
-      <c r="B201" s="43"/>
-      <c r="C201" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="D201" s="45"/>
-      <c r="E201" s="45"/>
-      <c r="F201" s="45"/>
-      <c r="G201" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="H201" s="45"/>
-      <c r="I201" s="45"/>
-      <c r="J201" s="45"/>
-      <c r="K201" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="L201" s="45"/>
-      <c r="M201" s="45"/>
-      <c r="N201" s="45"/>
-      <c r="O201" s="45"/>
-      <c r="P201" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q201" s="45"/>
-      <c r="R201" s="45"/>
-      <c r="S201" s="45"/>
-      <c r="T201" s="45"/>
-      <c r="U201" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="V201" s="45"/>
-      <c r="W201" s="45"/>
-      <c r="X201" s="45"/>
-      <c r="Y201" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z201" s="45"/>
-      <c r="AA201" s="45"/>
-      <c r="AB201" s="45"/>
-    </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A202" s="23"/>
-      <c r="B202" s="24" t="s">
+      <c r="AB205" s="15"/>
+    </row>
+    <row r="206" spans="1:28" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A206" s="10"/>
+      <c r="B206" s="41"/>
+      <c r="C206" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="D206" s="43"/>
+      <c r="E206" s="43"/>
+      <c r="F206" s="43"/>
+      <c r="G206" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="H206" s="43"/>
+      <c r="I206" s="43"/>
+      <c r="J206" s="43"/>
+      <c r="K206" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="L206" s="43"/>
+      <c r="M206" s="43"/>
+      <c r="N206" s="43"/>
+      <c r="O206" s="43"/>
+      <c r="P206" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q206" s="43"/>
+      <c r="R206" s="43"/>
+      <c r="S206" s="43"/>
+      <c r="T206" s="43"/>
+      <c r="U206" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="V206" s="43"/>
+      <c r="W206" s="43"/>
+      <c r="X206" s="43"/>
+      <c r="Y206" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z206" s="43"/>
+      <c r="AA206" s="43"/>
+      <c r="AB206" s="43"/>
+    </row>
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A207" s="23"/>
+      <c r="B207" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C202" s="24"/>
-      <c r="D202" s="24"/>
-      <c r="E202" s="24"/>
-      <c r="F202" s="24" t="s">
+      <c r="C207" s="24"/>
+      <c r="D207" s="24"/>
+      <c r="E207" s="24"/>
+      <c r="F207" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G202" s="24"/>
-      <c r="H202" s="24"/>
-      <c r="I202" s="24"/>
-      <c r="J202" s="24" t="s">
+      <c r="G207" s="24"/>
+      <c r="H207" s="24"/>
+      <c r="I207" s="24"/>
+      <c r="J207" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K202" s="24"/>
-      <c r="L202" s="24"/>
-      <c r="M202" s="24"/>
-      <c r="N202" s="24" t="s">
+      <c r="K207" s="24"/>
+      <c r="L207" s="24"/>
+      <c r="M207" s="24"/>
+      <c r="N207" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O202" s="24"/>
-      <c r="P202" s="24"/>
-      <c r="Q202" s="24"/>
-      <c r="R202" s="24"/>
-      <c r="S202" s="24" t="s">
+      <c r="O207" s="24"/>
+      <c r="P207" s="24"/>
+      <c r="Q207" s="24"/>
+      <c r="R207" s="24"/>
+      <c r="S207" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="T202" s="24"/>
-      <c r="U202" s="24"/>
-      <c r="V202" s="24"/>
-      <c r="W202" s="24" t="s">
+      <c r="T207" s="24"/>
+      <c r="U207" s="24"/>
+      <c r="V207" s="24"/>
+      <c r="W207" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="X202" s="24"/>
-      <c r="Y202" s="24"/>
-      <c r="Z202" s="24" t="s">
+      <c r="X207" s="24"/>
+      <c r="Y207" s="24"/>
+      <c r="Z207" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA202" s="24"/>
-      <c r="AB202" s="25"/>
+      <c r="AA207" s="24"/>
+      <c r="AB207" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="V54:X56 W59:W62 W64:W69">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarloAkuma\Desktop\JOHN CENA TUUTUUDUU TUUU\Gamelab1\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarloAkuma\Desktop\Gamelab 1\Gamelab1\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="362">
   <si>
     <t>Planning</t>
   </si>
@@ -695,12 +695,6 @@
     <t>Week 52</t>
   </si>
   <si>
-    <t>Week 54</t>
-  </si>
-  <si>
-    <t>WeeK 55</t>
-  </si>
-  <si>
     <t>Planning Volgende Periode</t>
   </si>
   <si>
@@ -968,9 +962,6 @@
     <t>6A_SRKL_001</t>
   </si>
   <si>
-    <t>BUFFER WEEK</t>
-  </si>
-  <si>
     <t>6A_EAW_001</t>
   </si>
   <si>
@@ -1022,9 +1013,6 @@
     <t>Particles Onderzoeken</t>
   </si>
   <si>
-    <t>Lvl 2 Fien</t>
-  </si>
-  <si>
     <t>7S_SAL_001</t>
   </si>
   <si>
@@ -1053,13 +1041,82 @@
   </si>
   <si>
     <t>Level 3 testing</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>WeeK 2</t>
+  </si>
+  <si>
+    <t>VAKANTIE VAKANTIE VAKANTIE VAKANTIE VAKANTIE VAKANTIE VAKANTIE</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Lvl 2 Fixen</t>
+  </si>
+  <si>
+    <t>Lvl Design met marc</t>
+  </si>
+  <si>
+    <t>Particle's gemaakt</t>
+  </si>
+  <si>
+    <t>STORY BOARDING</t>
+  </si>
+  <si>
+    <t>2D_KSWORD_001</t>
+  </si>
+  <si>
+    <t>3D_KSWORD_001</t>
+  </si>
+  <si>
+    <t>4U_KSWORD_001</t>
+  </si>
+  <si>
+    <t>2D_ASWORD_001</t>
+  </si>
+  <si>
+    <t>3D_ASWORD_001</t>
+  </si>
+  <si>
+    <t>4U_ASWORD_001</t>
+  </si>
+  <si>
+    <t>2D_CGUNS_001</t>
+  </si>
+  <si>
+    <t>3D_CGUNS_001</t>
+  </si>
+  <si>
+    <t>4U_CGUNS_001</t>
+  </si>
+  <si>
+    <t>6A_SRHSP_001</t>
+  </si>
+  <si>
+    <t>Scripts Samenleggen</t>
+  </si>
+  <si>
+    <t>Presentatie Maken</t>
+  </si>
+  <si>
+    <t>Presentatie Doornemen</t>
+  </si>
+  <si>
+    <t>Level Design FT. Marc</t>
+  </si>
+  <si>
+    <t>Level Design FT. Danial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1104,6 +1161,13 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1298,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1341,10 +1405,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1652,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC207"/>
+  <dimension ref="A2:AC209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A176" activeCellId="1" sqref="A184 A176"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W171" sqref="W171:X171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4064,10 +4131,10 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
-      <c r="S72" s="40" t="s">
+      <c r="S72" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T72" s="40"/>
+      <c r="T72" s="1"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="1" t="s">
@@ -4084,10 +4151,10 @@
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="40" t="s">
+      <c r="C73" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="40"/>
+      <c r="D73" s="1"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="1" t="s">
@@ -4106,10 +4173,10 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
-      <c r="S73" s="40" t="s">
+      <c r="S73" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="T73" s="40"/>
+      <c r="T73" s="1"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="1" t="s">
@@ -4286,10 +4353,10 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
-      <c r="S78" s="40" t="s">
+      <c r="S78" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T78" s="40"/>
+      <c r="T78" s="1"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
@@ -4318,10 +4385,10 @@
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
-      <c r="S79" s="40" t="s">
+      <c r="S79" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="T79" s="40"/>
+      <c r="T79" s="1"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
@@ -4626,10 +4693,10 @@
       <c r="D89" s="31"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="40" t="s">
+      <c r="G89" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H89" s="40"/>
+      <c r="H89" s="1"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2" t="s">
@@ -5440,10 +5507,10 @@
       <c r="H112" s="40"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L112" s="2"/>
+      <c r="L112" s="1"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" s="2" t="s">
@@ -5452,10 +5519,10 @@
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
-      <c r="S112" s="2" t="s">
+      <c r="S112" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="T112" s="2"/>
+      <c r="T112" s="1"/>
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
       <c r="W112" s="1" t="s">
@@ -5492,10 +5559,10 @@
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
-      <c r="S113" s="2" t="s">
+      <c r="S113" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="T113" s="2"/>
+      <c r="T113" s="1"/>
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
       <c r="W113" s="1" t="s">
@@ -5532,10 +5599,10 @@
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
-      <c r="S114" s="2" t="s">
+      <c r="S114" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T114" s="2"/>
+      <c r="T114" s="1"/>
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
       <c r="W114" s="1" t="s">
@@ -5570,10 +5637,10 @@
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
-      <c r="S115" s="2" t="s">
+      <c r="S115" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="T115" s="2"/>
+      <c r="T115" s="1"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="1" t="s">
@@ -5608,10 +5675,10 @@
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
-      <c r="S116" s="2" t="s">
+      <c r="S116" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T116" s="2"/>
+      <c r="T116" s="1"/>
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
       <c r="W116" s="1" t="s">
@@ -5661,7 +5728,7 @@
       <c r="A118" s="10"/>
       <c r="B118" s="2"/>
       <c r="C118" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="2"/>
@@ -5789,60 +5856,59 @@
     <row r="121" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="4" t="s">
-        <v>226</v>
-      </c>
+      <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H121" s="4"/>
+      <c r="G121" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H121" s="1"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="4" t="s">
+      <c r="K121" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L121" s="4"/>
+      <c r="L121" s="1"/>
       <c r="M121" s="4"/>
-      <c r="N121" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="O121" s="4"/>
+      <c r="N121" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="O121" s="1"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
-      <c r="S121" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="T121" s="4"/>
+      <c r="S121" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T121" s="1"/>
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
-      <c r="W121" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="X121" s="4"/>
+      <c r="W121" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="X121" s="1"/>
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
-      <c r="AA121" s="4" t="s">
-        <v>332</v>
-      </c>
+      <c r="AA121" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB121" s="18"/>
       <c r="AC121" s="2"/>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="4"/>
       <c r="C122" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H122" s="4"/>
+      <c r="G122" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H122" s="1"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
@@ -5853,16 +5919,16 @@
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
-      <c r="S122" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="T122" s="4"/>
+      <c r="S122" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="T122" s="1"/>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
-      <c r="W122" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="X122" s="4"/>
+      <c r="W122" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="X122" s="1"/>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
       <c r="AC122" s="2"/>
@@ -5871,7 +5937,7 @@
       <c r="A123" s="10"/>
       <c r="B123" s="4"/>
       <c r="C123" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="4"/>
@@ -5888,16 +5954,16 @@
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
-      <c r="S123" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="T123" s="4"/>
+      <c r="S123" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="T123" s="1"/>
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
-      <c r="W123" s="4" t="s">
+      <c r="W123" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X123" s="4"/>
+      <c r="X123" s="1"/>
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
       <c r="AC123" s="2"/>
@@ -5906,7 +5972,7 @@
       <c r="A124" s="10"/>
       <c r="B124" s="4"/>
       <c r="C124" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="4"/>
@@ -5923,14 +5989,14 @@
       <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
-      <c r="S124" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="T124" s="4"/>
+      <c r="S124" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="T124" s="1"/>
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
       <c r="W124" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
@@ -5941,10 +6007,10 @@
     <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D125" s="4"/>
+      <c r="C125" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D125" s="1"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -5963,10 +6029,10 @@
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
-      <c r="W125" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="X125" s="44"/>
+      <c r="W125" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="X125" s="43"/>
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
@@ -5976,10 +6042,10 @@
     <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D126" s="4"/>
+      <c r="C126" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D126" s="1"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
@@ -5998,10 +6064,10 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
-      <c r="W126" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="X126" s="44"/>
+      <c r="W126" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="X126" s="43"/>
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
@@ -6207,62 +6273,65 @@
     <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D133" s="4"/>
+      <c r="C133" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D133" s="1"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H133" s="4"/>
+      <c r="G133" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H133" s="1"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-      <c r="K133" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="L133" s="4"/>
+      <c r="K133" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="L133" s="18"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
-      <c r="O133" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="P133" s="4"/>
+      <c r="O133" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="P133" s="1"/>
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
-      <c r="S133" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="T133" s="4"/>
+      <c r="S133" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="T133" s="1"/>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
-      <c r="W133" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="X133" s="4"/>
+      <c r="W133" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="X133" s="1"/>
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
-      <c r="AA133" t="s">
-        <v>315</v>
-      </c>
+      <c r="AA133" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB133" s="18"/>
       <c r="AC133" s="2"/>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D134" s="4"/>
+      <c r="C134" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D134" s="1"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
+      <c r="K134" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L134" s="1"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
@@ -6273,15 +6342,16 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
-      <c r="W134" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="X134" s="4"/>
+      <c r="W134" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="X134" s="1"/>
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
-      <c r="AA134" t="s">
-        <v>316</v>
-      </c>
+      <c r="AA134" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB134" s="18"/>
       <c r="AC134" s="2"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
@@ -6295,8 +6365,10 @@
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
+      <c r="K135" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L135" s="1"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
@@ -6311,10 +6383,10 @@
       <c r="X135" s="4"/>
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
-      <c r="AA135" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB135" s="4"/>
+      <c r="AA135" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB135" s="1"/>
       <c r="AC135" s="2"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.25">
@@ -6344,17 +6416,17 @@
       <c r="X136" s="4"/>
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
-      <c r="AA136" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB136" s="21"/>
+      <c r="AA136" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB136" s="1"/>
       <c r="AC136" s="2"/>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D137" s="21"/>
       <c r="E137" s="21"/>
@@ -6372,19 +6444,19 @@
       <c r="Q137" s="21"/>
       <c r="R137" s="21"/>
       <c r="S137" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="T137" s="21"/>
       <c r="U137" s="21"/>
       <c r="V137" s="21"/>
       <c r="W137" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="X137" s="21"/>
       <c r="Y137" s="21"/>
       <c r="Z137" s="21"/>
       <c r="AA137" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AB137" s="21"/>
       <c r="AC137" s="2"/>
@@ -6563,55 +6635,55 @@
     <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D143" s="4"/>
+      <c r="C143" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D143" s="1"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H143" s="4"/>
+      <c r="G143" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H143" s="1"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
-      <c r="S143" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="T143" s="4"/>
+      <c r="S143" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="T143" s="1"/>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
-      <c r="W143" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="X143" s="4"/>
+      <c r="W143" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="X143" s="1"/>
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
-      <c r="AA143" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="AB143" s="4"/>
+      <c r="AA143" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB143" s="5"/>
       <c r="AC143" s="2"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D144" s="4"/>
+      <c r="C144" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D144" s="1"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -6626,29 +6698,31 @@
       <c r="P144" s="4"/>
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
-      <c r="S144" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="T144" s="4"/>
+      <c r="S144" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="T144" s="1"/>
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
-      <c r="W144" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="X144" s="4"/>
+      <c r="W144" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="X144" s="1"/>
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
-      <c r="AA144" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB144" s="4"/>
+      <c r="AA144" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB144" s="5"/>
       <c r="AC144" s="2"/>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="C145" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D145" s="18"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
@@ -6663,29 +6737,31 @@
       <c r="P145" s="4"/>
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
-      <c r="S145" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="T145" s="4"/>
+      <c r="S145" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="T145" s="1"/>
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
-      <c r="W145" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="X145" s="4"/>
+      <c r="W145" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="X145" s="1"/>
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
-      <c r="AA145" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB145" s="4"/>
+      <c r="AA145" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB145" s="5"/>
       <c r="AC145" s="2"/>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="C146" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D146" s="18"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
@@ -6700,29 +6776,29 @@
       <c r="P146" s="4"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
-      <c r="S146" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="T146" s="4"/>
+      <c r="S146" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="T146" s="1"/>
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
-      <c r="W146" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="X146" s="4"/>
+      <c r="W146" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="X146" s="1"/>
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
-      <c r="AA146" s="4" t="s">
-        <v>268</v>
-      </c>
+      <c r="AA146" s="4"/>
       <c r="AB146" s="4"/>
       <c r="AC146" s="2"/>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="C147" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D147" s="18"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
@@ -6741,23 +6817,23 @@
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
-      <c r="W147" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="X147" s="4"/>
+      <c r="W147" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="X147" s="1"/>
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
-      <c r="AA147" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="AA147" s="4"/>
       <c r="AB147" s="4"/>
       <c r="AC147" s="2"/>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="C148" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D148" s="18"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -6777,22 +6853,22 @@
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
       <c r="W148" s="21" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="X148" s="21"/>
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
-      <c r="AA148" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="AA148" s="4"/>
       <c r="AB148" s="4"/>
       <c r="AC148" s="2"/>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
+      <c r="C149" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D149" s="18"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -6812,7 +6888,7 @@
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
       <c r="W149" s="21" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="X149" s="21"/>
       <c r="Y149" s="4"/>
@@ -6824,8 +6900,10 @@
     <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
+      <c r="C150" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D150" s="18"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
@@ -6849,7 +6927,7 @@
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
       <c r="AA150" s="21" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AB150" s="21"/>
       <c r="AC150" s="2"/>
@@ -6857,36 +6935,50 @@
     <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
+      <c r="C151" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
+      <c r="G151" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
+      <c r="K151" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
+      <c r="O151" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
-      <c r="S151" s="4"/>
+      <c r="S151" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
-      <c r="W151" s="4"/>
+      <c r="W151" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="X151" s="4"/>
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
-      <c r="AA151" s="4"/>
+      <c r="AA151" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="AB151" s="4"/>
       <c r="AC151" s="2"/>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A152" s="45" t="s">
+      <c r="A152" s="44" t="s">
         <v>217</v>
       </c>
       <c r="B152" s="6"/>
@@ -6935,42 +7027,42 @@
     <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="4"/>
-      <c r="C153" t="s">
-        <v>270</v>
+      <c r="C153" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P153" s="4"/>
       <c r="Q153" s="4"/>
       <c r="R153" s="4"/>
       <c r="S153" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
       <c r="W153" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
       <c r="AA153" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB153" s="4"/>
       <c r="AC153" s="2"/>
@@ -6979,7 +7071,7 @@
       <c r="A154" s="6"/>
       <c r="B154" s="4"/>
       <c r="C154" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -6987,7 +7079,9 @@
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
+      <c r="K154" s="4" t="s">
+        <v>357</v>
+      </c>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
@@ -6995,19 +7089,19 @@
       <c r="P154" s="4"/>
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
-      <c r="S154" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="T154" s="4"/>
+      <c r="S154" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="T154" s="1"/>
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
       <c r="W154" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
       <c r="AA154" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AB154" s="4"/>
       <c r="AC154" s="2"/>
@@ -7015,16 +7109,19 @@
     <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="4"/>
-      <c r="C155" t="s">
-        <v>272</v>
-      </c>
+      <c r="C155" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
+      <c r="K155" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
@@ -7032,19 +7129,20 @@
       <c r="P155" s="4"/>
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
-      <c r="S155" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="T155" s="4"/>
+      <c r="S155" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="T155" s="1"/>
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
-      <c r="W155" t="s">
-        <v>291</v>
-      </c>
+      <c r="W155" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="X155" s="46"/>
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
       <c r="AA155" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AB155" s="4"/>
       <c r="AC155" s="2"/>
@@ -7052,9 +7150,10 @@
     <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="2"/>
-      <c r="C156" t="s">
-        <v>273</v>
-      </c>
+      <c r="C156" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D156" s="4"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -7069,686 +7168,801 @@
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
-      <c r="S156" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="T156" s="2"/>
+      <c r="S156" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="T156" s="1"/>
       <c r="U156" s="2"/>
       <c r="V156" s="2"/>
-      <c r="W156" t="s">
-        <v>292</v>
-      </c>
       <c r="Y156" s="2"/>
       <c r="Z156" s="4"/>
       <c r="AA156" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AB156" s="4"/>
       <c r="AC156" s="2"/>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
-      <c r="C157" t="s">
-        <v>274</v>
-      </c>
-      <c r="W157" t="s">
-        <v>293</v>
+      <c r="C157" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D157" s="4"/>
+      <c r="S157" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="Z157" s="2"/>
       <c r="AA157" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AB157" s="2"/>
       <c r="AC157" s="2"/>
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
-      <c r="C158" t="s">
-        <v>275</v>
+      <c r="C158" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D158" s="4"/>
+      <c r="S158" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="W158" s="4"/>
       <c r="Z158" s="2"/>
       <c r="AA158" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AB158" s="2"/>
       <c r="AC158" s="2"/>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
+      <c r="C159" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D159" s="4"/>
+      <c r="S159" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="W159" s="4"/>
       <c r="Z159" s="2"/>
-      <c r="AA159" s="2"/>
+      <c r="AA159" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A160" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
-      <c r="K160" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L160" s="6"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
-      <c r="O160" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P160" s="6"/>
-      <c r="Q160" s="6"/>
-      <c r="R160" s="6"/>
-      <c r="S160" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T160" s="6"/>
-      <c r="U160" s="6"/>
-      <c r="V160" s="6"/>
-      <c r="W160" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X160" s="6"/>
-      <c r="Y160" s="6"/>
-      <c r="Z160" s="6"/>
-      <c r="AA160" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB160" s="6"/>
+      <c r="A160" s="10"/>
+      <c r="C160" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D160" s="18"/>
+      <c r="W160" s="4"/>
+      <c r="Z160" s="2"/>
+      <c r="AA160" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="C161" t="s">
-        <v>279</v>
-      </c>
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-      <c r="S161" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="T161" s="4"/>
-      <c r="W161" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z161" s="4"/>
+        <v>290</v>
+      </c>
+      <c r="W161" s="4"/>
+      <c r="Z161" s="2"/>
       <c r="AA161" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB161" s="4"/>
+        <v>352</v>
+      </c>
+      <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A162" s="45"/>
+      <c r="A162" s="10"/>
       <c r="C162" t="s">
-        <v>280</v>
-      </c>
-      <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
-      <c r="S162" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="T162" s="4"/>
-      <c r="W162" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z162" s="4"/>
-      <c r="AA162" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB162" s="4"/>
+        <v>291</v>
+      </c>
+      <c r="Z162" s="2"/>
+      <c r="AA162" s="2"/>
+      <c r="AB162" s="2"/>
       <c r="AC162" s="2"/>
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A163" s="10"/>
-      <c r="C163" t="s">
-        <v>281</v>
-      </c>
-      <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
-      <c r="S163" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="T163" s="4"/>
-      <c r="W163" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z163" s="4"/>
-      <c r="AA163" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB163" s="4"/>
+      <c r="A163" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T163" s="6"/>
+      <c r="U163" s="6"/>
+      <c r="V163" s="6"/>
+      <c r="W163" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X163" s="6"/>
+      <c r="Y163" s="6"/>
+      <c r="Z163" s="6"/>
+      <c r="AA163" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB163" s="6"/>
       <c r="AC163" s="2"/>
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="C164" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
+      <c r="K164" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="L164" s="4"/>
+      <c r="S164" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T164" s="4"/>
       <c r="W164" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="Z164" s="4"/>
       <c r="AA164" s="4" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="AB164" s="4"/>
       <c r="AC164" s="2"/>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A165" s="45"/>
+      <c r="A165" s="44"/>
       <c r="C165" t="s">
-        <v>282</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+      <c r="S165" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T165" s="4"/>
       <c r="W165" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z165" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="Z165" s="4"/>
       <c r="AA165" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB165" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="AB165" s="4"/>
       <c r="AC165" s="2"/>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="C166" t="s">
-        <v>283</v>
-      </c>
-      <c r="W166" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="X166" s="20"/>
-      <c r="Z166" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+      <c r="S166" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T166" s="4"/>
+      <c r="W166" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z166" s="4"/>
       <c r="AA166" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB166" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="AB166" s="4"/>
       <c r="AC166" s="2"/>
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
-      <c r="W167" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="X167" s="20"/>
-      <c r="Z167" s="2"/>
-      <c r="AA167" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB167" s="21"/>
+      <c r="C167" t="s">
+        <v>282</v>
+      </c>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="W167" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z167" s="4"/>
+      <c r="AA167" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB167" s="4"/>
       <c r="AC167" s="2"/>
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A168" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="B168" s="6"/>
-      <c r="C168" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
-      <c r="J168" s="6"/>
-      <c r="K168" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L168" s="6"/>
-      <c r="M168" s="6"/>
-      <c r="N168" s="6"/>
-      <c r="O168" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P168" s="6"/>
-      <c r="Q168" s="6"/>
-      <c r="R168" s="6"/>
-      <c r="S168" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T168" s="6"/>
-      <c r="U168" s="6"/>
-      <c r="V168" s="6"/>
-      <c r="W168" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X168" s="6"/>
-      <c r="Y168" s="6"/>
-      <c r="Z168" s="6"/>
-      <c r="AA168" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB168" s="6"/>
+      <c r="A168" s="44"/>
+      <c r="C168" t="s">
+        <v>280</v>
+      </c>
+      <c r="W168" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z168" s="2"/>
+      <c r="AA168" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB168" s="2"/>
       <c r="AC168" s="2"/>
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="C169" t="s">
-        <v>276</v>
-      </c>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
-      <c r="S169" t="s">
-        <v>258</v>
-      </c>
-      <c r="W169" t="s">
-        <v>312</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="W169" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="X169" s="20"/>
       <c r="Z169" s="2"/>
       <c r="AA169" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB169" s="4"/>
+        <v>261</v>
+      </c>
+      <c r="AB169" s="2"/>
       <c r="AC169" s="2"/>
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
-      <c r="C170" t="s">
-        <v>277</v>
-      </c>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="S170" t="s">
-        <v>259</v>
-      </c>
-      <c r="W170" t="s">
-        <v>313</v>
-      </c>
+      <c r="W170" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="X170" s="20"/>
       <c r="Z170" s="2"/>
-      <c r="AA170" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB170" s="4"/>
+      <c r="AA170" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB170" s="21"/>
       <c r="AC170" s="2"/>
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="C171" t="s">
-        <v>278</v>
-      </c>
-      <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
-      <c r="S171" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z171" s="2"/>
-      <c r="AA171" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB171" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="W171" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="X171" s="46"/>
+      <c r="Y171" s="46"/>
+      <c r="Z171" s="4"/>
+      <c r="AA171" s="4"/>
+      <c r="AB171" s="4"/>
       <c r="AC171" s="2"/>
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="2"/>
-      <c r="Z172" s="2"/>
-      <c r="AA172" s="2"/>
-      <c r="AB172" s="2"/>
+      <c r="A172" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L172" s="6"/>
+      <c r="M172" s="6"/>
+      <c r="N172" s="6"/>
+      <c r="O172" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="6"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T172" s="6"/>
+      <c r="U172" s="6"/>
+      <c r="V172" s="6"/>
+      <c r="W172" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X172" s="6"/>
+      <c r="Y172" s="6"/>
+      <c r="Z172" s="6"/>
+      <c r="AA172" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB172" s="6"/>
       <c r="AC172" s="2"/>
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
+      <c r="C173" t="s">
+        <v>274</v>
+      </c>
       <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="K173" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="L173" s="4"/>
+      <c r="S173" t="s">
+        <v>256</v>
+      </c>
+      <c r="W173" t="s">
+        <v>310</v>
+      </c>
       <c r="Z173" s="2"/>
-      <c r="AA173" s="2"/>
-      <c r="AB173" s="2"/>
+      <c r="AA173" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB173" s="4"/>
       <c r="AC173" s="2"/>
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
+      <c r="C174" t="s">
+        <v>275</v>
+      </c>
       <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="S174" t="s">
+        <v>257</v>
+      </c>
+      <c r="W174" t="s">
+        <v>311</v>
+      </c>
       <c r="Z174" s="2"/>
-      <c r="AA174" s="2"/>
-      <c r="AB174" s="2"/>
+      <c r="AA174" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB174" s="4"/>
       <c r="AC174" s="2"/>
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
+      <c r="C175" t="s">
+        <v>276</v>
+      </c>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="S175" t="s">
+        <v>258</v>
+      </c>
+      <c r="W175" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="X175" s="46"/>
       <c r="Z175" s="2"/>
-      <c r="AA175" s="2"/>
+      <c r="AA175" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="AB175" s="2"/>
       <c r="AC175" s="2"/>
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A176" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
-      <c r="G176" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H176" s="6"/>
-      <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L176" s="6"/>
-      <c r="M176" s="6"/>
-      <c r="N176" s="6"/>
-      <c r="O176" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P176" s="6"/>
-      <c r="Q176" s="6"/>
-      <c r="R176" s="6"/>
-      <c r="S176" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T176" s="6"/>
-      <c r="U176" s="6"/>
-      <c r="V176" s="6"/>
-      <c r="W176" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X176" s="6"/>
-      <c r="Y176" s="6"/>
-      <c r="Z176" s="6"/>
-      <c r="AA176" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB176" s="6"/>
+      <c r="A176" s="10"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="2"/>
+      <c r="Z176" s="2"/>
+      <c r="AA176" s="2"/>
+      <c r="AB176" s="2"/>
       <c r="AC176" s="2"/>
     </row>
     <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
-      <c r="C177" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D177" s="4"/>
       <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
-      <c r="S177" t="s">
-        <v>300</v>
-      </c>
-      <c r="W177" t="s">
-        <v>285</v>
-      </c>
       <c r="Z177" s="2"/>
-      <c r="AA177" t="s">
-        <v>264</v>
-      </c>
+      <c r="AA177" s="2"/>
+      <c r="AB177" s="2"/>
       <c r="AC177" s="2"/>
     </row>
     <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
-      <c r="C178" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D178" s="4"/>
       <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
-      <c r="S178" t="s">
-        <v>301</v>
-      </c>
-      <c r="W178" t="s">
-        <v>286</v>
-      </c>
       <c r="Z178" s="2"/>
-      <c r="AA178" t="s">
-        <v>265</v>
-      </c>
+      <c r="AA178" s="2"/>
+      <c r="AB178" s="2"/>
       <c r="AC178" s="2"/>
     </row>
     <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
-      <c r="C179" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
-      <c r="S179" t="s">
-        <v>302</v>
-      </c>
-      <c r="W179" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA179" t="s">
-        <v>266</v>
-      </c>
+      <c r="Z179" s="2"/>
+      <c r="AA179" s="2"/>
+      <c r="AB179" s="2"/>
+      <c r="AC179" s="2"/>
     </row>
     <row r="180" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
-      <c r="C180" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
-      <c r="W180" t="s">
-        <v>288</v>
-      </c>
+      <c r="A180" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L180" s="6"/>
+      <c r="M180" s="6"/>
+      <c r="N180" s="6"/>
+      <c r="O180" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="6"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T180" s="6"/>
+      <c r="U180" s="6"/>
+      <c r="V180" s="6"/>
+      <c r="W180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X180" s="6"/>
+      <c r="Y180" s="6"/>
+      <c r="Z180" s="6"/>
+      <c r="AA180" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB180" s="6"/>
+      <c r="AC180" s="2"/>
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
+      <c r="C181" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="K181" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="L181" s="4"/>
+      <c r="S181" t="s">
+        <v>298</v>
+      </c>
       <c r="W181" t="s">
-        <v>289</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="Z181" s="2"/>
+      <c r="AA181" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC181" s="2"/>
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
+      <c r="C182" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="S182" t="s">
+        <v>299</v>
+      </c>
       <c r="W182" t="s">
-        <v>290</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="Z182" s="2"/>
+      <c r="AA182" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC182" s="2"/>
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
-      <c r="W183" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="X183" s="20"/>
-      <c r="AA183" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB183" s="20"/>
+      <c r="C183" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="S183" t="s">
+        <v>300</v>
+      </c>
+      <c r="W183" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA183" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A184" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
-      <c r="G184" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H184" s="6"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
-      <c r="K184" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L184" s="6"/>
-      <c r="M184" s="6"/>
-      <c r="N184" s="6"/>
-      <c r="O184" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P184" s="6"/>
-      <c r="Q184" s="6"/>
-      <c r="R184" s="6"/>
-      <c r="S184" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T184" s="6"/>
-      <c r="U184" s="6"/>
-      <c r="V184" s="6"/>
-      <c r="W184" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X184" s="6"/>
-      <c r="Y184" s="6"/>
-      <c r="Z184" s="6"/>
-      <c r="AA184" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB184" s="15"/>
+      <c r="A184" s="10"/>
+      <c r="C184" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="S184" t="s">
+        <v>314</v>
+      </c>
+      <c r="W184" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="S185" t="s">
-        <v>317</v>
+        <v>315</v>
+      </c>
+      <c r="W185" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
-      <c r="S186" t="s">
-        <v>318</v>
+      <c r="W186" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
+      <c r="W187" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="X187" s="20"/>
+      <c r="AA187" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB187" s="20"/>
     </row>
     <row r="188" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-    </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A188" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L188" s="6"/>
+      <c r="M188" s="6"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
+      <c r="R188" s="6"/>
+      <c r="S188" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T188" s="6"/>
+      <c r="U188" s="6"/>
+      <c r="V188" s="6"/>
+      <c r="W188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X188" s="6"/>
+      <c r="Y188" s="6"/>
+      <c r="Z188" s="6"/>
+      <c r="AA188" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB188" s="15"/>
+    </row>
+    <row r="189" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A189" s="10"/>
+      <c r="D189" s="45" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="190" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
+      <c r="A190" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="6"/>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L190" s="6"/>
+      <c r="M190" s="6"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P190" s="6"/>
+      <c r="Q190" s="6"/>
+      <c r="R190" s="6"/>
+      <c r="S190" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T190" s="6"/>
+      <c r="U190" s="6"/>
+      <c r="V190" s="6"/>
+      <c r="W190" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X190" s="6"/>
+      <c r="Y190" s="6"/>
+      <c r="Z190" s="6"/>
+      <c r="AA190" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB190" s="15"/>
     </row>
     <row r="191" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A191" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B191" s="6"/>
-      <c r="C191" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
-      <c r="K191" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L191" s="6"/>
-      <c r="M191" s="6"/>
-      <c r="N191" s="6"/>
-      <c r="O191" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P191" s="6"/>
-      <c r="Q191" s="6"/>
-      <c r="R191" s="6"/>
-      <c r="S191" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T191" s="6"/>
-      <c r="U191" s="6"/>
-      <c r="V191" s="6"/>
-      <c r="W191" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X191" s="6"/>
-      <c r="Y191" s="6"/>
-      <c r="Z191" s="6"/>
-      <c r="AA191" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB191" s="15"/>
-    </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A191" s="10"/>
+    </row>
+    <row r="192" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A192" s="10"/>
+      <c r="D192" s="45" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A194" s="10"/>
+      <c r="A194" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
+      <c r="R194" s="6"/>
+      <c r="S194" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T194" s="6"/>
+      <c r="U194" s="6"/>
+      <c r="V194" s="6"/>
+      <c r="W194" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X194" s="6"/>
+      <c r="Y194" s="6"/>
+      <c r="Z194" s="6"/>
+      <c r="AA194" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB194" s="15"/>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
+      <c r="C195" t="s">
+        <v>358</v>
+      </c>
+      <c r="G195" t="s">
+        <v>358</v>
+      </c>
+      <c r="K195" t="s">
+        <v>358</v>
+      </c>
+      <c r="O195" t="s">
+        <v>358</v>
+      </c>
+      <c r="S195" t="s">
+        <v>358</v>
+      </c>
+      <c r="W195" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
+      <c r="C196" t="s">
+        <v>359</v>
+      </c>
+      <c r="G196" t="s">
+        <v>359</v>
+      </c>
+      <c r="K196" t="s">
+        <v>359</v>
+      </c>
+      <c r="O196" t="s">
+        <v>359</v>
+      </c>
+      <c r="S196" t="s">
+        <v>359</v>
+      </c>
+      <c r="W196" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA196" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A198" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B198" s="6"/>
-      <c r="C198" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H198" s="6"/>
-      <c r="I198" s="6"/>
-      <c r="J198" s="6"/>
-      <c r="K198" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L198" s="6"/>
-      <c r="M198" s="6"/>
-      <c r="N198" s="6"/>
-      <c r="O198" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P198" s="6"/>
-      <c r="Q198" s="6"/>
-      <c r="R198" s="6"/>
-      <c r="S198" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T198" s="6"/>
-      <c r="U198" s="6"/>
-      <c r="V198" s="6"/>
-      <c r="W198" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X198" s="6"/>
-      <c r="Y198" s="6"/>
-      <c r="Z198" s="6"/>
-      <c r="AA198" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB198" s="15"/>
+      <c r="A198" s="10"/>
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
@@ -7757,20 +7971,139 @@
       <c r="A200" s="10"/>
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A201" s="10"/>
+      <c r="A201" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L201" s="6"/>
+      <c r="M201" s="6"/>
+      <c r="N201" s="6"/>
+      <c r="O201" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P201" s="6"/>
+      <c r="Q201" s="6"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T201" s="6"/>
+      <c r="U201" s="6"/>
+      <c r="V201" s="6"/>
+      <c r="W201" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X201" s="6"/>
+      <c r="Y201" s="6"/>
+      <c r="Z201" s="6"/>
+      <c r="AA201" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB201" s="15"/>
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
-    </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B202" s="4"/>
+      <c r="C202" t="s">
+        <v>359</v>
+      </c>
+      <c r="G202" t="s">
+        <v>359</v>
+      </c>
+      <c r="K202" t="s">
+        <v>359</v>
+      </c>
+      <c r="O202" t="s">
+        <v>359</v>
+      </c>
+      <c r="S202" t="s">
+        <v>359</v>
+      </c>
+      <c r="W202" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
-    </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="4"/>
+      <c r="S203" s="4"/>
+      <c r="T203" s="4"/>
+      <c r="U203" s="4"/>
+      <c r="V203" s="4"/>
+      <c r="W203" s="4"/>
+      <c r="X203" s="4"/>
+      <c r="Y203" s="4"/>
+      <c r="Z203" s="4"/>
+      <c r="AA203" s="4"/>
+      <c r="AB203" s="4"/>
+    </row>
+    <row r="204" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A204" s="10"/>
+      <c r="B204" s="41"/>
+      <c r="C204" s="47"/>
+      <c r="D204" s="48"/>
+      <c r="E204" s="48"/>
+      <c r="F204" s="48"/>
+      <c r="G204" s="47"/>
+      <c r="H204" s="48"/>
+      <c r="I204" s="48"/>
+      <c r="J204" s="48"/>
+      <c r="K204" s="47"/>
+      <c r="L204" s="48"/>
+      <c r="M204" s="48"/>
+      <c r="N204" s="48"/>
+      <c r="O204" s="48"/>
+      <c r="P204" s="47"/>
+      <c r="Q204" s="48"/>
+      <c r="R204" s="48"/>
+      <c r="S204" s="48"/>
+      <c r="T204" s="48"/>
+      <c r="U204" s="47"/>
+      <c r="V204" s="48"/>
+      <c r="W204" s="48"/>
+      <c r="X204" s="48"/>
+      <c r="Y204" s="47"/>
+      <c r="Z204" s="48"/>
+      <c r="AA204" s="48"/>
+      <c r="AB204" s="42"/>
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>224</v>
+        <v>342</v>
       </c>
       <c r="B205" s="6"/>
       <c r="C205" s="6" t="s">
@@ -7814,91 +8147,79 @@
       </c>
       <c r="AB205" s="15"/>
     </row>
-    <row r="206" spans="1:28" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A206" s="10"/>
-      <c r="B206" s="41"/>
-      <c r="C206" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="D206" s="43"/>
-      <c r="E206" s="43"/>
-      <c r="F206" s="43"/>
-      <c r="G206" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="H206" s="43"/>
-      <c r="I206" s="43"/>
-      <c r="J206" s="43"/>
-      <c r="K206" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="L206" s="43"/>
-      <c r="M206" s="43"/>
-      <c r="N206" s="43"/>
-      <c r="O206" s="43"/>
-      <c r="P206" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q206" s="43"/>
-      <c r="R206" s="43"/>
-      <c r="S206" s="43"/>
-      <c r="T206" s="43"/>
-      <c r="U206" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="V206" s="43"/>
-      <c r="W206" s="43"/>
-      <c r="X206" s="43"/>
-      <c r="Y206" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="Z206" s="43"/>
-      <c r="AA206" s="43"/>
-      <c r="AB206" s="43"/>
+    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A206" s="35"/>
+      <c r="C206" t="s">
+        <v>359</v>
+      </c>
+      <c r="G206" t="s">
+        <v>359</v>
+      </c>
+      <c r="K206" t="s">
+        <v>359</v>
+      </c>
+      <c r="O206" t="s">
+        <v>359</v>
+      </c>
+      <c r="S206" t="s">
+        <v>359</v>
+      </c>
+      <c r="W206" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A207" s="23"/>
-      <c r="B207" s="24" t="s">
+      <c r="A207" s="35"/>
+    </row>
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A208" s="35"/>
+    </row>
+    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A209" s="35"/>
+      <c r="B209" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C207" s="24"/>
-      <c r="D207" s="24"/>
-      <c r="E207" s="24"/>
-      <c r="F207" s="24" t="s">
+      <c r="C209" s="24"/>
+      <c r="D209" s="24"/>
+      <c r="E209" s="24"/>
+      <c r="F209" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G207" s="24"/>
-      <c r="H207" s="24"/>
-      <c r="I207" s="24"/>
-      <c r="J207" s="24" t="s">
+      <c r="G209" s="24"/>
+      <c r="H209" s="24"/>
+      <c r="I209" s="24"/>
+      <c r="J209" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K207" s="24"/>
-      <c r="L207" s="24"/>
-      <c r="M207" s="24"/>
-      <c r="N207" s="24" t="s">
+      <c r="K209" s="24"/>
+      <c r="L209" s="24"/>
+      <c r="M209" s="24"/>
+      <c r="N209" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O207" s="24"/>
-      <c r="P207" s="24"/>
-      <c r="Q207" s="24"/>
-      <c r="R207" s="24"/>
-      <c r="S207" s="24" t="s">
+      <c r="O209" s="24"/>
+      <c r="P209" s="24"/>
+      <c r="Q209" s="24"/>
+      <c r="R209" s="24"/>
+      <c r="S209" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="T207" s="24"/>
-      <c r="U207" s="24"/>
-      <c r="V207" s="24"/>
-      <c r="W207" s="24" t="s">
+      <c r="T209" s="24"/>
+      <c r="U209" s="24"/>
+      <c r="V209" s="24"/>
+      <c r="W209" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="X207" s="24"/>
-      <c r="Y207" s="24"/>
-      <c r="Z207" s="24" t="s">
+      <c r="X209" s="24"/>
+      <c r="Y209" s="24"/>
+      <c r="Z209" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA207" s="24"/>
-      <c r="AB207" s="25"/>
+      <c r="AA209" s="24"/>
+      <c r="AB209" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="V54:X56 W59:W62 W64:W69">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarloAkuma\Desktop\Gamelab 1\Gamelab1\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carloakuma\Desktop\Gamelab1\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13452" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="363">
   <si>
     <t>Planning</t>
   </si>
@@ -1110,12 +1110,15 @@
   </si>
   <si>
     <t>Level Design FT. Danial</t>
+  </si>
+  <si>
+    <t>2D_ENVHOUSE_001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1362,7 +1365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1412,6 +1415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1719,18 +1723,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC209"/>
+  <dimension ref="A2:AC211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W171" sqref="W171:X171"/>
+      <selection activeCell="D162" sqref="C161:D162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1749,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="F3" t="s">
@@ -1757,7 +1761,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="F4" t="s">
@@ -1769,7 +1773,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
@@ -1815,7 +1819,7 @@
       </c>
       <c r="AB6" s="9"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
@@ -1859,7 +1863,7 @@
       </c>
       <c r="AB7" s="11"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1891,7 +1895,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="12"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1923,7 +1927,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="12"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
@@ -1967,7 +1971,7 @@
       </c>
       <c r="AB10" s="16"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1997,7 +2001,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="12"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
@@ -2039,7 +2043,7 @@
       </c>
       <c r="AB12" s="14"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
@@ -2085,7 +2089,7 @@
       </c>
       <c r="AB13" s="15"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
@@ -2129,7 +2133,7 @@
       </c>
       <c r="AB14" s="11"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
@@ -2169,7 +2173,7 @@
       </c>
       <c r="AB15" s="11"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
@@ -2207,7 +2211,7 @@
       </c>
       <c r="AB16" s="11"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
@@ -2243,7 +2247,7 @@
       </c>
       <c r="AB17" s="11"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
@@ -2279,7 +2283,7 @@
       </c>
       <c r="AB18" s="11"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
@@ -2315,7 +2319,7 @@
       </c>
       <c r="AB19" s="11"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
@@ -2351,7 +2355,7 @@
       </c>
       <c r="AB20" s="11"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
@@ -2387,7 +2391,7 @@
       </c>
       <c r="AB21" s="11"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
@@ -2425,7 +2429,7 @@
       </c>
       <c r="AB22" s="11"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
@@ -2457,7 +2461,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="12"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1" t="s">
@@ -2489,7 +2493,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="12"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
@@ -2521,7 +2525,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="12"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
@@ -2567,7 +2571,7 @@
       </c>
       <c r="AB26" s="15"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
@@ -2611,7 +2615,7 @@
       </c>
       <c r="AB27" s="11"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1" t="s">
@@ -2651,7 +2655,7 @@
       </c>
       <c r="AB28" s="11"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
@@ -2688,7 +2692,7 @@
       </c>
       <c r="AB29" s="11"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
@@ -2724,7 +2728,7 @@
       </c>
       <c r="AB30" s="16"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1" t="s">
@@ -2760,7 +2764,7 @@
       </c>
       <c r="AB31" s="16"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1" t="s">
@@ -2796,7 +2800,7 @@
       </c>
       <c r="AB32" s="16"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2828,7 +2832,7 @@
       </c>
       <c r="AB33" s="16"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2860,7 +2864,7 @@
       </c>
       <c r="AB34" s="16"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2892,7 +2896,7 @@
       </c>
       <c r="AB35" s="16"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2924,7 +2928,7 @@
       </c>
       <c r="AB36" s="16"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2954,7 +2958,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="12"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2984,7 +2988,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="12"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3014,7 +3018,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="12"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3044,7 +3048,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="12"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3074,7 +3078,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="12"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3104,7 +3108,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="12"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="10"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3134,7 +3138,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="12"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3164,7 +3168,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="12"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3194,7 +3198,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="12"/>
     </row>
-    <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3224,7 +3228,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="12"/>
     </row>
-    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3254,7 +3258,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="12"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3284,7 +3288,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="12"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>17</v>
       </c>
@@ -3330,7 +3334,7 @@
       </c>
       <c r="AB49" s="15"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
@@ -3374,7 +3378,7 @@
       </c>
       <c r="AB50" s="16"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1" t="s">
@@ -3414,7 +3418,7 @@
       </c>
       <c r="AB51" s="16"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="10"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1" t="s">
@@ -3454,7 +3458,7 @@
       </c>
       <c r="AB52" s="16"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1" t="s">
@@ -3494,7 +3498,7 @@
       </c>
       <c r="AB53" s="16"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="10"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1" t="s">
@@ -3532,7 +3536,7 @@
       </c>
       <c r="AB54" s="14"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="10"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1" t="s">
@@ -3568,7 +3572,7 @@
       </c>
       <c r="AB55" s="14"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1" t="s">
@@ -3604,7 +3608,7 @@
       </c>
       <c r="AB56" s="14"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1" t="s">
@@ -3638,7 +3642,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="12"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1" t="s">
@@ -3672,7 +3676,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="12"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="2"/>
       <c r="C59" s="21" t="s">
@@ -3706,7 +3710,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="12"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="10"/>
       <c r="B60" s="2"/>
       <c r="C60" s="21" t="s">
@@ -3740,7 +3744,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="12"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1" t="s">
@@ -3774,7 +3778,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="12"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1" t="s">
@@ -3808,7 +3812,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="12"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1" t="s">
@@ -3842,7 +3846,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="12"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1" t="s">
@@ -3874,7 +3878,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="12"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" s="10"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1" t="s">
@@ -3906,7 +3910,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="12"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="2"/>
       <c r="C66" s="21" t="s">
@@ -3938,7 +3942,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="12"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" s="10"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3968,7 +3972,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="12"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" s="10"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3998,7 +4002,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="12"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" s="10"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4028,7 +4032,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="12"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" s="10"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4058,7 +4062,7 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="12"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>18</v>
       </c>
@@ -4104,7 +4108,7 @@
       </c>
       <c r="AB71" s="15"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" s="10"/>
       <c r="B72" s="2"/>
       <c r="C72" s="21" t="s">
@@ -4148,7 +4152,7 @@
       </c>
       <c r="AB72" s="11"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" s="10"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1" t="s">
@@ -4190,7 +4194,7 @@
       </c>
       <c r="AB73" s="11"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
       <c r="B74" s="2"/>
       <c r="C74" s="21" t="s">
@@ -4230,7 +4234,7 @@
       </c>
       <c r="AB74" s="11"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" s="10"/>
       <c r="B75" s="2"/>
       <c r="C75" s="4"/>
@@ -4266,7 +4270,7 @@
       </c>
       <c r="AB75" s="39"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" s="10"/>
       <c r="B76" s="2"/>
       <c r="C76" s="4"/>
@@ -4300,7 +4304,7 @@
       </c>
       <c r="AB76" s="39"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" s="10"/>
       <c r="B77" s="2"/>
       <c r="C77" s="4"/>
@@ -4334,7 +4338,7 @@
       </c>
       <c r="AB77" s="39"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" s="10"/>
       <c r="B78" s="2"/>
       <c r="C78" s="4"/>
@@ -4366,7 +4370,7 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="12"/>
     </row>
-    <row r="79" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4398,7 +4402,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="12"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" s="10"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4428,7 +4432,7 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="12"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4458,7 +4462,7 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="12"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" s="10"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4488,7 +4492,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="12"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4518,7 +4522,7 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="12"/>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" s="10"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4548,7 +4552,7 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="12"/>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" s="10"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4578,7 +4582,7 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="12"/>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" s="10"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4608,7 +4612,7 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="12"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" s="10"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4638,7 +4642,7 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="12"/>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>19</v>
       </c>
@@ -4684,7 +4688,7 @@
       </c>
       <c r="AB88" s="15"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" s="10"/>
       <c r="B89" s="2"/>
       <c r="C89" s="31" t="s">
@@ -4728,7 +4732,7 @@
       </c>
       <c r="AB89" s="11"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" s="10"/>
       <c r="B90" s="2"/>
       <c r="C90" s="31" t="s">
@@ -4766,7 +4770,7 @@
       </c>
       <c r="AB90" s="11"/>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" s="10"/>
       <c r="B91" s="2"/>
       <c r="C91" s="31" t="s">
@@ -4806,7 +4810,7 @@
       </c>
       <c r="AB91" s="11"/>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" s="10"/>
       <c r="B92" s="2"/>
       <c r="C92" s="31" t="s">
@@ -4844,7 +4848,7 @@
       </c>
       <c r="AB92" s="11"/>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" s="10"/>
       <c r="B93" s="2"/>
       <c r="C93" s="31" t="s">
@@ -4882,7 +4886,7 @@
       </c>
       <c r="AB93" s="11"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" s="10"/>
       <c r="B94" s="2"/>
       <c r="C94" s="31" t="s">
@@ -4920,7 +4924,7 @@
       </c>
       <c r="AB94" s="11"/>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" s="10"/>
       <c r="B95" s="2"/>
       <c r="C95" s="31" t="s">
@@ -4956,7 +4960,7 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="34"/>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" s="10"/>
       <c r="B96" s="2"/>
       <c r="C96" s="4" t="s">
@@ -4992,7 +4996,7 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="12"/>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" s="10"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1" t="s">
@@ -5026,7 +5030,7 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="12"/>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" s="10"/>
       <c r="B98" s="2"/>
       <c r="C98" s="4" t="s">
@@ -5060,7 +5064,7 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="12"/>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1" t="s">
@@ -5092,7 +5096,7 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="12"/>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" s="10"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1" t="s">
@@ -5124,7 +5128,7 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="12"/>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5154,7 +5158,7 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="12"/>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>20</v>
       </c>
@@ -5200,7 +5204,7 @@
       </c>
       <c r="AB102" s="15"/>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" s="10"/>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
@@ -5230,7 +5234,7 @@
       <c r="AA103" s="28"/>
       <c r="AB103" s="33"/>
     </row>
-    <row r="104" spans="1:28" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="104" spans="1:28" ht="91.8" x14ac:dyDescent="1.65">
       <c r="A104" s="10"/>
       <c r="B104" s="28"/>
       <c r="C104" s="27" t="s">
@@ -5266,7 +5270,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A105" s="10"/>
       <c r="B105" s="5"/>
       <c r="C105" s="26"/>
@@ -5296,7 +5300,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="33"/>
     </row>
-    <row r="106" spans="1:28" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:28" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A106" s="10"/>
       <c r="B106" s="5"/>
       <c r="C106" s="29"/>
@@ -5326,7 +5330,7 @@
       <c r="AA106" s="26"/>
       <c r="AB106" s="14"/>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" s="10"/>
       <c r="B107" s="5"/>
       <c r="C107" s="26"/>
@@ -5356,7 +5360,7 @@
       <c r="AA107" s="26"/>
       <c r="AB107" s="14"/>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" s="10"/>
       <c r="B108" s="5"/>
       <c r="C108" s="26"/>
@@ -5386,7 +5390,7 @@
       <c r="AA108" s="26"/>
       <c r="AB108" s="14"/>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
       <c r="B109" s="5"/>
       <c r="C109" s="26"/>
@@ -5416,7 +5420,7 @@
       <c r="AA109" s="26"/>
       <c r="AB109" s="14"/>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="5"/>
       <c r="C110" s="26"/>
@@ -5446,7 +5450,7 @@
       <c r="AA110" s="26"/>
       <c r="AB110" s="14"/>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>21</v>
       </c>
@@ -5492,7 +5496,7 @@
       </c>
       <c r="AB111" s="15"/>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" s="10"/>
       <c r="B112" s="4"/>
       <c r="C112" s="30" t="s">
@@ -5536,7 +5540,7 @@
       </c>
       <c r="AB112" s="37"/>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113" s="10"/>
       <c r="B113" s="2"/>
       <c r="C113" s="30" t="s">
@@ -5576,7 +5580,7 @@
       </c>
       <c r="AB113" s="37"/>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114" s="10"/>
       <c r="B114" s="2"/>
       <c r="C114" s="30" t="s">
@@ -5616,7 +5620,7 @@
       </c>
       <c r="AB114" s="37"/>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A115" s="10"/>
       <c r="B115" s="2"/>
       <c r="C115" s="32" t="s">
@@ -5654,7 +5658,7 @@
       </c>
       <c r="AB115" s="11"/>
     </row>
-    <row r="116" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10"/>
       <c r="B116" s="2"/>
       <c r="C116" s="32" t="s">
@@ -5692,7 +5696,7 @@
       </c>
       <c r="AB116" s="11"/>
     </row>
-    <row r="117" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
       <c r="B117" s="2"/>
       <c r="C117" s="32" t="s">
@@ -5724,7 +5728,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="11"/>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A118" s="10"/>
       <c r="B118" s="2"/>
       <c r="C118" s="4" t="s">
@@ -5762,7 +5766,7 @@
       </c>
       <c r="AB118" s="11"/>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="24" t="s">
         <v>22</v>
@@ -5806,7 +5810,7 @@
       <c r="AA119" s="24"/>
       <c r="AB119" s="25"/>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>214</v>
       </c>
@@ -5853,7 +5857,7 @@
       <c r="AB120" s="15"/>
       <c r="AC120" s="2"/>
     </row>
-    <row r="121" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -5896,7 +5900,7 @@
       <c r="AB121" s="18"/>
       <c r="AC121" s="2"/>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122" s="10"/>
       <c r="B122" s="4"/>
       <c r="C122" s="1" t="s">
@@ -5933,7 +5937,7 @@
       <c r="Z122" s="4"/>
       <c r="AC122" s="2"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A123" s="10"/>
       <c r="B123" s="4"/>
       <c r="C123" s="1" t="s">
@@ -5968,7 +5972,7 @@
       <c r="Z123" s="4"/>
       <c r="AC123" s="2"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
       <c r="B124" s="4"/>
       <c r="C124" s="1" t="s">
@@ -6004,7 +6008,7 @@
       <c r="AB124" s="4"/>
       <c r="AC124" s="2"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A125" s="10"/>
       <c r="B125" s="4"/>
       <c r="C125" s="1" t="s">
@@ -6039,7 +6043,7 @@
       <c r="AB125" s="4"/>
       <c r="AC125" s="2"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A126" s="10"/>
       <c r="B126" s="4"/>
       <c r="C126" s="1" t="s">
@@ -6074,7 +6078,7 @@
       <c r="AB126" s="4"/>
       <c r="AC126" s="2"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A127" s="10"/>
       <c r="B127" s="4"/>
       <c r="E127" s="4"/>
@@ -6103,7 +6107,7 @@
       <c r="AB127" s="4"/>
       <c r="AC127" s="2"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A128" s="10"/>
       <c r="B128" s="4"/>
       <c r="E128" s="4"/>
@@ -6132,7 +6136,7 @@
       <c r="AB128" s="4"/>
       <c r="AC128" s="2"/>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A129" s="10"/>
       <c r="B129" s="4"/>
       <c r="E129" s="4"/>
@@ -6161,7 +6165,7 @@
       <c r="AB129" s="4"/>
       <c r="AC129" s="2"/>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -6192,7 +6196,7 @@
       <c r="AB130" s="4"/>
       <c r="AC130" s="2"/>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -6223,7 +6227,7 @@
       <c r="AB131" s="4"/>
       <c r="AC131" s="2"/>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>215</v>
       </c>
@@ -6270,7 +6274,7 @@
       <c r="AB132" s="15"/>
       <c r="AC132" s="2"/>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A133" s="10"/>
       <c r="B133" s="4"/>
       <c r="C133" s="1" t="s">
@@ -6315,7 +6319,7 @@
       <c r="AB133" s="18"/>
       <c r="AC133" s="2"/>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
       <c r="B134" s="4"/>
       <c r="C134" s="1" t="s">
@@ -6354,7 +6358,7 @@
       <c r="AB134" s="18"/>
       <c r="AC134" s="2"/>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A135" s="10"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6389,7 +6393,7 @@
       <c r="AB135" s="1"/>
       <c r="AC135" s="2"/>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A136" s="10"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6422,7 +6426,7 @@
       <c r="AB136" s="1"/>
       <c r="AC136" s="2"/>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21" t="s">
@@ -6461,7 +6465,7 @@
       <c r="AB137" s="21"/>
       <c r="AC137" s="2"/>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6492,7 +6496,7 @@
       <c r="AB138" s="4"/>
       <c r="AC138" s="2"/>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A139" s="10"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -6523,7 +6527,7 @@
       <c r="AB139" s="4"/>
       <c r="AC139" s="2"/>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -6554,7 +6558,7 @@
       <c r="AB140" s="4"/>
       <c r="AC140" s="2"/>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -6585,7 +6589,7 @@
       <c r="AB141" s="4"/>
       <c r="AC141" s="2"/>
     </row>
-    <row r="142" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>216</v>
       </c>
@@ -6632,7 +6636,7 @@
       <c r="AB142" s="6"/>
       <c r="AC142" s="2"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
       <c r="B143" s="4"/>
       <c r="C143" s="1" t="s">
@@ -6677,7 +6681,7 @@
       <c r="AB143" s="5"/>
       <c r="AC143" s="2"/>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
       <c r="B144" s="4"/>
       <c r="C144" s="1" t="s">
@@ -6716,7 +6720,7 @@
       <c r="AB144" s="5"/>
       <c r="AC144" s="2"/>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="4"/>
       <c r="C145" s="18" t="s">
@@ -6755,7 +6759,7 @@
       <c r="AB145" s="5"/>
       <c r="AC145" s="2"/>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="4"/>
       <c r="C146" s="18" t="s">
@@ -6792,7 +6796,7 @@
       <c r="AB146" s="4"/>
       <c r="AC146" s="2"/>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="4"/>
       <c r="C147" s="18" t="s">
@@ -6827,7 +6831,7 @@
       <c r="AB147" s="4"/>
       <c r="AC147" s="2"/>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="4"/>
       <c r="C148" s="18" t="s">
@@ -6862,7 +6866,7 @@
       <c r="AB148" s="4"/>
       <c r="AC148" s="2"/>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="4"/>
       <c r="C149" s="18" t="s">
@@ -6897,7 +6901,7 @@
       <c r="AB149" s="4"/>
       <c r="AC149" s="2"/>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="4"/>
       <c r="C150" s="18" t="s">
@@ -6932,7 +6936,7 @@
       <c r="AB150" s="21"/>
       <c r="AC150" s="2"/>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4" t="s">
@@ -6977,7 +6981,7 @@
       <c r="AB151" s="4"/>
       <c r="AC151" s="2"/>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A152" s="44" t="s">
         <v>217</v>
       </c>
@@ -7024,7 +7028,7 @@
       <c r="AB152" s="6"/>
       <c r="AC152" s="2"/>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4" t="s">
@@ -7067,12 +7071,13 @@
       <c r="AB153" s="4"/>
       <c r="AC153" s="2"/>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="4"/>
-      <c r="C154" t="s">
+      <c r="C154" s="49" t="s">
         <v>347</v>
       </c>
+      <c r="D154" s="49"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
@@ -7106,13 +7111,13 @@
       <c r="AB154" s="4"/>
       <c r="AC154" s="2"/>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="D155" s="4"/>
+      <c r="D155" s="40"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
@@ -7147,13 +7152,13 @@
       <c r="AB155" s="4"/>
       <c r="AC155" s="2"/>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="D156" s="4"/>
+      <c r="D156" s="40"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -7182,12 +7187,12 @@
       <c r="AB156" s="4"/>
       <c r="AC156" s="2"/>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="D157" s="4"/>
+      <c r="D157" s="40"/>
       <c r="S157" s="4" t="s">
         <v>353</v>
       </c>
@@ -7198,12 +7203,12 @@
       <c r="AB157" s="2"/>
       <c r="AC157" s="2"/>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="D158" s="4"/>
+      <c r="D158" s="40"/>
       <c r="S158" s="4" t="s">
         <v>354</v>
       </c>
@@ -7215,12 +7220,12 @@
       <c r="AB158" s="2"/>
       <c r="AC158" s="2"/>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="D159" s="4"/>
+      <c r="D159" s="40"/>
       <c r="S159" s="4" t="s">
         <v>355</v>
       </c>
@@ -7232,12 +7237,12 @@
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
-      <c r="C160" s="18" t="s">
+      <c r="C160" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="D160" s="18"/>
+      <c r="D160" s="46"/>
       <c r="W160" s="4"/>
       <c r="Z160" s="2"/>
       <c r="AA160" s="4" t="s">
@@ -7246,11 +7251,12 @@
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
-      <c r="C161" t="s">
+      <c r="C161" s="49" t="s">
         <v>290</v>
       </c>
+      <c r="D161" s="49"/>
       <c r="W161" s="4"/>
       <c r="Z161" s="2"/>
       <c r="AA161" s="4" t="s">
@@ -7259,556 +7265,527 @@
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
-      <c r="C162" t="s">
+      <c r="C162" s="49" t="s">
         <v>291</v>
       </c>
+      <c r="D162" s="49"/>
+      <c r="W162" s="4"/>
       <c r="Z162" s="2"/>
-      <c r="AA162" s="2"/>
+      <c r="AA162" s="4"/>
       <c r="AB162" s="2"/>
       <c r="AC162" s="2"/>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A163" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
-      <c r="K163" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L163" s="6"/>
-      <c r="M163" s="6"/>
-      <c r="N163" s="6"/>
-      <c r="O163" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P163" s="6"/>
-      <c r="Q163" s="6"/>
-      <c r="R163" s="6"/>
-      <c r="S163" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T163" s="6"/>
-      <c r="U163" s="6"/>
-      <c r="V163" s="6"/>
-      <c r="W163" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X163" s="6"/>
-      <c r="Y163" s="6"/>
-      <c r="Z163" s="6"/>
-      <c r="AA163" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB163" s="6"/>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A163" s="10"/>
+      <c r="C163" t="s">
+        <v>362</v>
+      </c>
+      <c r="W163" s="4"/>
+      <c r="Z163" s="2"/>
+      <c r="AA163" s="4"/>
+      <c r="AB163" s="2"/>
       <c r="AC163" s="2"/>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="C164" t="s">
-        <v>277</v>
-      </c>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="L164" s="4"/>
-      <c r="S164" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="T164" s="4"/>
-      <c r="W164" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z164" s="4"/>
-      <c r="AA164" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB164" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="Z164" s="2"/>
+      <c r="AA164" s="2"/>
+      <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A165" s="44"/>
-      <c r="C165" t="s">
-        <v>278</v>
-      </c>
-      <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
-      <c r="S165" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="T165" s="4"/>
-      <c r="W165" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z165" s="4"/>
-      <c r="AA165" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB165" s="4"/>
+    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A165" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T165" s="6"/>
+      <c r="U165" s="6"/>
+      <c r="V165" s="6"/>
+      <c r="W165" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X165" s="6"/>
+      <c r="Y165" s="6"/>
+      <c r="Z165" s="6"/>
+      <c r="AA165" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB165" s="6"/>
       <c r="AC165" s="2"/>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
       <c r="C166" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J166" s="4"/>
-      <c r="K166" s="4"/>
+      <c r="K166" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="L166" s="4"/>
       <c r="S166" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T166" s="4"/>
       <c r="W166" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="Z166" s="4"/>
       <c r="AA166" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB166" s="4"/>
       <c r="AC166" s="2"/>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A167" s="44"/>
       <c r="C167" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
+      <c r="S167" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="T167" s="4"/>
       <c r="W167" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="Z167" s="4"/>
       <c r="AA167" s="4" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="AB167" s="4"/>
       <c r="AC167" s="2"/>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A168" s="44"/>
+    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A168" s="10"/>
       <c r="C168" t="s">
-        <v>280</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+      <c r="S168" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="T168" s="4"/>
       <c r="W168" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z168" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="Z168" s="4"/>
       <c r="AA168" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB168" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="AB168" s="4"/>
       <c r="AC168" s="2"/>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="C169" t="s">
-        <v>281</v>
-      </c>
-      <c r="W169" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="X169" s="20"/>
-      <c r="Z169" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+      <c r="W169" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z169" s="4"/>
       <c r="AA169" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB169" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="AB169" s="4"/>
       <c r="AC169" s="2"/>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="W170" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="X170" s="20"/>
+    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A170" s="44"/>
+      <c r="C170" t="s">
+        <v>280</v>
+      </c>
+      <c r="W170" t="s">
+        <v>297</v>
+      </c>
       <c r="Z170" s="2"/>
-      <c r="AA170" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="AB170" s="21"/>
+      <c r="AA170" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB170" s="2"/>
       <c r="AC170" s="2"/>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
       <c r="C171" t="s">
-        <v>356</v>
-      </c>
-      <c r="W171" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="X171" s="46"/>
-      <c r="Y171" s="46"/>
-      <c r="Z171" s="4"/>
-      <c r="AA171" s="4"/>
-      <c r="AB171" s="4"/>
+        <v>281</v>
+      </c>
+      <c r="W171" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="X171" s="20"/>
+      <c r="Z171" s="2"/>
+      <c r="AA171" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB171" s="2"/>
       <c r="AC171" s="2"/>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A172" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H172" s="6"/>
-      <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
-      <c r="K172" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L172" s="6"/>
-      <c r="M172" s="6"/>
-      <c r="N172" s="6"/>
-      <c r="O172" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P172" s="6"/>
-      <c r="Q172" s="6"/>
-      <c r="R172" s="6"/>
-      <c r="S172" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T172" s="6"/>
-      <c r="U172" s="6"/>
-      <c r="V172" s="6"/>
-      <c r="W172" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X172" s="6"/>
-      <c r="Y172" s="6"/>
-      <c r="Z172" s="6"/>
-      <c r="AA172" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB172" s="6"/>
+    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A172" s="10"/>
+      <c r="W172" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="X172" s="20"/>
+      <c r="Z172" s="2"/>
+      <c r="AA172" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB172" s="21"/>
       <c r="AC172" s="2"/>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="C173" t="s">
-        <v>274</v>
-      </c>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="K173" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="L173" s="4"/>
-      <c r="S173" t="s">
-        <v>256</v>
-      </c>
-      <c r="W173" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z173" s="2"/>
-      <c r="AA173" s="4" t="s">
-        <v>302</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="W173" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="X173" s="46"/>
+      <c r="Y173" s="46"/>
+      <c r="Z173" s="4"/>
+      <c r="AA173" s="4"/>
       <c r="AB173" s="4"/>
       <c r="AC173" s="2"/>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
-      <c r="C174" t="s">
-        <v>275</v>
-      </c>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="S174" t="s">
-        <v>257</v>
-      </c>
-      <c r="W174" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z174" s="2"/>
-      <c r="AA174" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB174" s="4"/>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A174" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L174" s="6"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6"/>
+      <c r="O174" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T174" s="6"/>
+      <c r="U174" s="6"/>
+      <c r="V174" s="6"/>
+      <c r="W174" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X174" s="6"/>
+      <c r="Y174" s="6"/>
+      <c r="Z174" s="6"/>
+      <c r="AA174" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB174" s="6"/>
       <c r="AC174" s="2"/>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
       <c r="C175" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
+      <c r="K175" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="L175" s="4"/>
       <c r="S175" t="s">
-        <v>258</v>
-      </c>
-      <c r="W175" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="X175" s="46"/>
+        <v>256</v>
+      </c>
+      <c r="W175" t="s">
+        <v>310</v>
+      </c>
       <c r="Z175" s="2"/>
       <c r="AA175" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB175" s="4"/>
+      <c r="AC175" s="2"/>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A176" s="10"/>
+      <c r="C176" t="s">
+        <v>275</v>
+      </c>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="S176" t="s">
+        <v>257</v>
+      </c>
+      <c r="W176" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z176" s="2"/>
+      <c r="AA176" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB176" s="4"/>
+      <c r="AC176" s="2"/>
+    </row>
+    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A177" s="10"/>
+      <c r="C177" t="s">
+        <v>276</v>
+      </c>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="S177" t="s">
+        <v>258</v>
+      </c>
+      <c r="W177" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="X177" s="46"/>
+      <c r="Z177" s="2"/>
+      <c r="AA177" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AB175" s="2"/>
-      <c r="AC175" s="2"/>
-    </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="2"/>
-      <c r="Z176" s="2"/>
-      <c r="AA176" s="2"/>
-      <c r="AB176" s="2"/>
-      <c r="AC176" s="2"/>
-    </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
-      <c r="G177" s="4"/>
-      <c r="Z177" s="2"/>
-      <c r="AA177" s="2"/>
       <c r="AB177" s="2"/>
       <c r="AC177" s="2"/>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
       <c r="G178" s="4"/>
+      <c r="H178" s="2"/>
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
       <c r="AC178" s="2"/>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
+      <c r="G179" s="4"/>
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
       <c r="AC179" s="2"/>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A180" s="44" t="s">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A180" s="10"/>
+      <c r="G180" s="4"/>
+      <c r="Z180" s="2"/>
+      <c r="AA180" s="2"/>
+      <c r="AB180" s="2"/>
+      <c r="AC180" s="2"/>
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A181" s="10"/>
+      <c r="Z181" s="2"/>
+      <c r="AA181" s="2"/>
+      <c r="AB181" s="2"/>
+      <c r="AC181" s="2"/>
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A182" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6" t="s">
+      <c r="B182" s="6"/>
+      <c r="C182" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="6" t="s">
+      <c r="D182" s="6"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H180" s="6"/>
-      <c r="I180" s="6"/>
-      <c r="J180" s="6"/>
-      <c r="K180" s="6" t="s">
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L180" s="6"/>
-      <c r="M180" s="6"/>
-      <c r="N180" s="6"/>
-      <c r="O180" s="6" t="s">
+      <c r="L182" s="6"/>
+      <c r="M182" s="6"/>
+      <c r="N182" s="6"/>
+      <c r="O182" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P180" s="6"/>
-      <c r="Q180" s="6"/>
-      <c r="R180" s="6"/>
-      <c r="S180" s="6" t="s">
+      <c r="P182" s="6"/>
+      <c r="Q182" s="6"/>
+      <c r="R182" s="6"/>
+      <c r="S182" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T180" s="6"/>
-      <c r="U180" s="6"/>
-      <c r="V180" s="6"/>
-      <c r="W180" s="6" t="s">
+      <c r="T182" s="6"/>
+      <c r="U182" s="6"/>
+      <c r="V182" s="6"/>
+      <c r="W182" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X180" s="6"/>
-      <c r="Y180" s="6"/>
-      <c r="Z180" s="6"/>
-      <c r="AA180" s="6" t="s">
+      <c r="X182" s="6"/>
+      <c r="Y182" s="6"/>
+      <c r="Z182" s="6"/>
+      <c r="AA182" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB180" s="6"/>
-      <c r="AC180" s="2"/>
-    </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A181" s="10"/>
-      <c r="C181" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D181" s="4"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
-      <c r="K181" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="L181" s="4"/>
-      <c r="S181" t="s">
-        <v>298</v>
-      </c>
-      <c r="W181" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z181" s="2"/>
-      <c r="AA181" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC181" s="2"/>
-    </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
-      <c r="C182" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D182" s="4"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
-      <c r="S182" t="s">
-        <v>299</v>
-      </c>
-      <c r="W182" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z182" s="2"/>
-      <c r="AA182" t="s">
-        <v>263</v>
-      </c>
+      <c r="AB182" s="6"/>
       <c r="AC182" s="2"/>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
       <c r="C183" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D183" s="4"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
+      <c r="K183" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="L183" s="4"/>
       <c r="S183" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="W183" t="s">
-        <v>285</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="Z183" s="2"/>
       <c r="AA183" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="AC183" s="2"/>
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="C184" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="S184" t="s">
+        <v>299</v>
+      </c>
+      <c r="W184" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z184" s="2"/>
+      <c r="AA184" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC184" s="2"/>
+    </row>
+    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A185" s="10"/>
+      <c r="C185" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="S185" t="s">
+        <v>300</v>
+      </c>
+      <c r="W185" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A186" s="10"/>
+      <c r="C186" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="S186" t="s">
         <v>314</v>
       </c>
-      <c r="W184" t="s">
+      <c r="W186" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A185" s="10"/>
-      <c r="S185" t="s">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A187" s="10"/>
+      <c r="S187" t="s">
         <v>315</v>
       </c>
-      <c r="W185" t="s">
+      <c r="W187" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A186" s="10"/>
-      <c r="W186" t="s">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A188" s="10"/>
+      <c r="W188" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A187" s="10"/>
-      <c r="W187" s="20" t="s">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A189" s="10"/>
+      <c r="W189" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="X187" s="20"/>
-      <c r="AA187" s="20" t="s">
+      <c r="X189" s="20"/>
+      <c r="AA189" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="AB187" s="20"/>
-    </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A188" s="44" t="s">
+      <c r="AB189" s="20"/>
+    </row>
+    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A190" s="44" t="s">
         <v>222</v>
-      </c>
-      <c r="B188" s="6"/>
-      <c r="C188" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H188" s="6"/>
-      <c r="I188" s="6"/>
-      <c r="J188" s="6"/>
-      <c r="K188" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L188" s="6"/>
-      <c r="M188" s="6"/>
-      <c r="N188" s="6"/>
-      <c r="O188" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P188" s="6"/>
-      <c r="Q188" s="6"/>
-      <c r="R188" s="6"/>
-      <c r="S188" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T188" s="6"/>
-      <c r="U188" s="6"/>
-      <c r="V188" s="6"/>
-      <c r="W188" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X188" s="6"/>
-      <c r="Y188" s="6"/>
-      <c r="Z188" s="6"/>
-      <c r="AA188" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB188" s="15"/>
-    </row>
-    <row r="189" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A189" s="10"/>
-      <c r="D189" s="45" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="B190" s="6"/>
       <c r="C190" s="6" t="s">
@@ -7852,374 +7829,426 @@
       </c>
       <c r="AB190" s="15"/>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A191" s="10"/>
-    </row>
-    <row r="192" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A192" s="10"/>
-      <c r="D192" s="45" t="s">
+      <c r="D191" s="45" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A192" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L192" s="6"/>
+      <c r="M192" s="6"/>
+      <c r="N192" s="6"/>
+      <c r="O192" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="6"/>
+      <c r="R192" s="6"/>
+      <c r="S192" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T192" s="6"/>
+      <c r="U192" s="6"/>
+      <c r="V192" s="6"/>
+      <c r="W192" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X192" s="6"/>
+      <c r="Y192" s="6"/>
+      <c r="Z192" s="6"/>
+      <c r="AA192" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB192" s="15"/>
+    </row>
+    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A194" s="10" t="s">
+    <row r="194" spans="1:28" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="A194" s="10"/>
+      <c r="D194" s="45" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A195" s="10"/>
+    </row>
+    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A196" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B194" s="6"/>
-      <c r="C194" s="6" t="s">
+      <c r="B196" s="6"/>
+      <c r="C196" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="6" t="s">
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H194" s="6"/>
-      <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
-      <c r="K194" s="6" t="s">
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L194" s="6"/>
-      <c r="M194" s="6"/>
-      <c r="N194" s="6"/>
-      <c r="O194" s="6" t="s">
+      <c r="L196" s="6"/>
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P194" s="6"/>
-      <c r="Q194" s="6"/>
-      <c r="R194" s="6"/>
-      <c r="S194" s="6" t="s">
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
+      <c r="R196" s="6"/>
+      <c r="S196" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T194" s="6"/>
-      <c r="U194" s="6"/>
-      <c r="V194" s="6"/>
-      <c r="W194" s="6" t="s">
+      <c r="T196" s="6"/>
+      <c r="U196" s="6"/>
+      <c r="V196" s="6"/>
+      <c r="W196" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X194" s="6"/>
-      <c r="Y194" s="6"/>
-      <c r="Z194" s="6"/>
-      <c r="AA194" s="6" t="s">
+      <c r="X196" s="6"/>
+      <c r="Y196" s="6"/>
+      <c r="Z196" s="6"/>
+      <c r="AA196" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB194" s="15"/>
-    </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
-      <c r="C195" t="s">
+      <c r="AB196" s="15"/>
+    </row>
+    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A197" s="10"/>
+      <c r="C197" t="s">
         <v>358</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G197" t="s">
         <v>358</v>
       </c>
-      <c r="K195" t="s">
+      <c r="K197" t="s">
         <v>358</v>
       </c>
-      <c r="O195" t="s">
+      <c r="O197" t="s">
         <v>358</v>
       </c>
-      <c r="S195" t="s">
+      <c r="S197" t="s">
         <v>358</v>
       </c>
-      <c r="W195" t="s">
+      <c r="W197" t="s">
         <v>358</v>
       </c>
-      <c r="AA195" t="s">
+      <c r="AA197" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A196" s="10"/>
-      <c r="C196" t="s">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A198" s="10"/>
+      <c r="C198" t="s">
         <v>359</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G198" t="s">
         <v>359</v>
       </c>
-      <c r="K196" t="s">
+      <c r="K198" t="s">
         <v>359</v>
       </c>
-      <c r="O196" t="s">
+      <c r="O198" t="s">
         <v>359</v>
       </c>
-      <c r="S196" t="s">
+      <c r="S198" t="s">
         <v>359</v>
       </c>
-      <c r="W196" t="s">
+      <c r="W198" t="s">
         <v>359</v>
       </c>
-      <c r="AA196" t="s">
+      <c r="AA198" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
-    </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A198" s="10"/>
-    </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A199" s="10"/>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A201" s="10" t="s">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A201" s="10"/>
+    </row>
+    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A202" s="10"/>
+    </row>
+    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A203" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B201" s="6"/>
-      <c r="C201" s="6" t="s">
+      <c r="B203" s="6"/>
+      <c r="C203" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6"/>
-      <c r="F201" s="6"/>
-      <c r="G201" s="6" t="s">
+      <c r="D203" s="6"/>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H201" s="6"/>
-      <c r="I201" s="6"/>
-      <c r="J201" s="6"/>
-      <c r="K201" s="6" t="s">
+      <c r="H203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L201" s="6"/>
-      <c r="M201" s="6"/>
-      <c r="N201" s="6"/>
-      <c r="O201" s="6" t="s">
+      <c r="L203" s="6"/>
+      <c r="M203" s="6"/>
+      <c r="N203" s="6"/>
+      <c r="O203" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P201" s="6"/>
-      <c r="Q201" s="6"/>
-      <c r="R201" s="6"/>
-      <c r="S201" s="6" t="s">
+      <c r="P203" s="6"/>
+      <c r="Q203" s="6"/>
+      <c r="R203" s="6"/>
+      <c r="S203" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T201" s="6"/>
-      <c r="U201" s="6"/>
-      <c r="V201" s="6"/>
-      <c r="W201" s="6" t="s">
+      <c r="T203" s="6"/>
+      <c r="U203" s="6"/>
+      <c r="V203" s="6"/>
+      <c r="W203" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X201" s="6"/>
-      <c r="Y201" s="6"/>
-      <c r="Z201" s="6"/>
-      <c r="AA201" s="6" t="s">
+      <c r="X203" s="6"/>
+      <c r="Y203" s="6"/>
+      <c r="Z203" s="6"/>
+      <c r="AA203" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB201" s="15"/>
-    </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A202" s="10"/>
-      <c r="B202" s="4"/>
-      <c r="C202" t="s">
+      <c r="AB203" s="15"/>
+    </row>
+    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A204" s="10"/>
+      <c r="B204" s="4"/>
+      <c r="C204" t="s">
         <v>359</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G204" t="s">
         <v>359</v>
       </c>
-      <c r="K202" t="s">
+      <c r="K204" t="s">
         <v>359</v>
       </c>
-      <c r="O202" t="s">
+      <c r="O204" t="s">
         <v>359</v>
       </c>
-      <c r="S202" t="s">
+      <c r="S204" t="s">
         <v>359</v>
       </c>
-      <c r="W202" t="s">
+      <c r="W204" t="s">
         <v>359</v>
       </c>
-      <c r="AA202" t="s">
+      <c r="AA204" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="10"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
-      <c r="H203" s="4"/>
-      <c r="I203" s="4"/>
-      <c r="J203" s="4"/>
-      <c r="K203" s="4"/>
-      <c r="L203" s="4"/>
-      <c r="M203" s="4"/>
-      <c r="N203" s="4"/>
-      <c r="O203" s="4"/>
-      <c r="P203" s="4"/>
-      <c r="Q203" s="4"/>
-      <c r="R203" s="4"/>
-      <c r="S203" s="4"/>
-      <c r="T203" s="4"/>
-      <c r="U203" s="4"/>
-      <c r="V203" s="4"/>
-      <c r="W203" s="4"/>
-      <c r="X203" s="4"/>
-      <c r="Y203" s="4"/>
-      <c r="Z203" s="4"/>
-      <c r="AA203" s="4"/>
-      <c r="AB203" s="4"/>
-    </row>
-    <row r="204" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A204" s="10"/>
-      <c r="B204" s="41"/>
-      <c r="C204" s="47"/>
-      <c r="D204" s="48"/>
-      <c r="E204" s="48"/>
-      <c r="F204" s="48"/>
-      <c r="G204" s="47"/>
-      <c r="H204" s="48"/>
-      <c r="I204" s="48"/>
-      <c r="J204" s="48"/>
-      <c r="K204" s="47"/>
-      <c r="L204" s="48"/>
-      <c r="M204" s="48"/>
-      <c r="N204" s="48"/>
-      <c r="O204" s="48"/>
-      <c r="P204" s="47"/>
-      <c r="Q204" s="48"/>
-      <c r="R204" s="48"/>
-      <c r="S204" s="48"/>
-      <c r="T204" s="48"/>
-      <c r="U204" s="47"/>
-      <c r="V204" s="48"/>
-      <c r="W204" s="48"/>
-      <c r="X204" s="48"/>
-      <c r="Y204" s="47"/>
-      <c r="Z204" s="48"/>
-      <c r="AA204" s="48"/>
-      <c r="AB204" s="42"/>
-    </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A205" s="10" t="s">
+    <row r="205" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="10"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="4"/>
+      <c r="S205" s="4"/>
+      <c r="T205" s="4"/>
+      <c r="U205" s="4"/>
+      <c r="V205" s="4"/>
+      <c r="W205" s="4"/>
+      <c r="X205" s="4"/>
+      <c r="Y205" s="4"/>
+      <c r="Z205" s="4"/>
+      <c r="AA205" s="4"/>
+      <c r="AB205" s="4"/>
+    </row>
+    <row r="206" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A206" s="10"/>
+      <c r="B206" s="41"/>
+      <c r="C206" s="47"/>
+      <c r="D206" s="48"/>
+      <c r="E206" s="48"/>
+      <c r="F206" s="48"/>
+      <c r="G206" s="47"/>
+      <c r="H206" s="48"/>
+      <c r="I206" s="48"/>
+      <c r="J206" s="48"/>
+      <c r="K206" s="47"/>
+      <c r="L206" s="48"/>
+      <c r="M206" s="48"/>
+      <c r="N206" s="48"/>
+      <c r="O206" s="48"/>
+      <c r="P206" s="47"/>
+      <c r="Q206" s="48"/>
+      <c r="R206" s="48"/>
+      <c r="S206" s="48"/>
+      <c r="T206" s="48"/>
+      <c r="U206" s="47"/>
+      <c r="V206" s="48"/>
+      <c r="W206" s="48"/>
+      <c r="X206" s="48"/>
+      <c r="Y206" s="47"/>
+      <c r="Z206" s="48"/>
+      <c r="AA206" s="48"/>
+      <c r="AB206" s="42"/>
+    </row>
+    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A207" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B205" s="6"/>
-      <c r="C205" s="6" t="s">
+      <c r="B207" s="6"/>
+      <c r="C207" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D205" s="6"/>
-      <c r="E205" s="6"/>
-      <c r="F205" s="6"/>
-      <c r="G205" s="6" t="s">
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H205" s="6"/>
-      <c r="I205" s="6"/>
-      <c r="J205" s="6"/>
-      <c r="K205" s="6" t="s">
+      <c r="H207" s="6"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="6"/>
+      <c r="K207" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L205" s="6"/>
-      <c r="M205" s="6"/>
-      <c r="N205" s="6"/>
-      <c r="O205" s="6" t="s">
+      <c r="L207" s="6"/>
+      <c r="M207" s="6"/>
+      <c r="N207" s="6"/>
+      <c r="O207" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P205" s="6"/>
-      <c r="Q205" s="6"/>
-      <c r="R205" s="6"/>
-      <c r="S205" s="6" t="s">
+      <c r="P207" s="6"/>
+      <c r="Q207" s="6"/>
+      <c r="R207" s="6"/>
+      <c r="S207" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T205" s="6"/>
-      <c r="U205" s="6"/>
-      <c r="V205" s="6"/>
-      <c r="W205" s="6" t="s">
+      <c r="T207" s="6"/>
+      <c r="U207" s="6"/>
+      <c r="V207" s="6"/>
+      <c r="W207" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X205" s="6"/>
-      <c r="Y205" s="6"/>
-      <c r="Z205" s="6"/>
-      <c r="AA205" s="6" t="s">
+      <c r="X207" s="6"/>
+      <c r="Y207" s="6"/>
+      <c r="Z207" s="6"/>
+      <c r="AA207" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB205" s="15"/>
-    </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A206" s="35"/>
-      <c r="C206" t="s">
+      <c r="AB207" s="15"/>
+    </row>
+    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A208" s="35"/>
+      <c r="C208" t="s">
         <v>359</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G208" t="s">
         <v>359</v>
       </c>
-      <c r="K206" t="s">
+      <c r="K208" t="s">
         <v>359</v>
       </c>
-      <c r="O206" t="s">
+      <c r="O208" t="s">
         <v>359</v>
       </c>
-      <c r="S206" t="s">
+      <c r="S208" t="s">
         <v>359</v>
       </c>
-      <c r="W206" t="s">
+      <c r="W208" t="s">
         <v>359</v>
       </c>
-      <c r="AA206" t="s">
+      <c r="AA208" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A207" s="35"/>
-    </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A208" s="35"/>
-    </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A209" s="35"/>
-      <c r="B209" s="24" t="s">
+    </row>
+    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A210" s="35"/>
+    </row>
+    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A211" s="35"/>
+      <c r="B211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C209" s="24"/>
-      <c r="D209" s="24"/>
-      <c r="E209" s="24"/>
-      <c r="F209" s="24" t="s">
+      <c r="C211" s="24"/>
+      <c r="D211" s="24"/>
+      <c r="E211" s="24"/>
+      <c r="F211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G209" s="24"/>
-      <c r="H209" s="24"/>
-      <c r="I209" s="24"/>
-      <c r="J209" s="24" t="s">
+      <c r="G211" s="24"/>
+      <c r="H211" s="24"/>
+      <c r="I211" s="24"/>
+      <c r="J211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K209" s="24"/>
-      <c r="L209" s="24"/>
-      <c r="M209" s="24"/>
-      <c r="N209" s="24" t="s">
+      <c r="K211" s="24"/>
+      <c r="L211" s="24"/>
+      <c r="M211" s="24"/>
+      <c r="N211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O209" s="24"/>
-      <c r="P209" s="24"/>
-      <c r="Q209" s="24"/>
-      <c r="R209" s="24"/>
-      <c r="S209" s="24" t="s">
+      <c r="O211" s="24"/>
+      <c r="P211" s="24"/>
+      <c r="Q211" s="24"/>
+      <c r="R211" s="24"/>
+      <c r="S211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="T209" s="24"/>
-      <c r="U209" s="24"/>
-      <c r="V209" s="24"/>
-      <c r="W209" s="24" t="s">
+      <c r="T211" s="24"/>
+      <c r="U211" s="24"/>
+      <c r="V211" s="24"/>
+      <c r="W211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="X209" s="24"/>
-      <c r="Y209" s="24"/>
-      <c r="Z209" s="24" t="s">
+      <c r="X211" s="24"/>
+      <c r="Y211" s="24"/>
+      <c r="Z211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA209" s="24"/>
-      <c r="AB209" s="25"/>
+      <c r="AA211" s="24"/>
+      <c r="AB211" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="V54:X56 W59:W62 W64:W69">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="362">
   <si>
     <t>Planning</t>
   </si>
@@ -912,9 +912,6 @@
   </si>
   <si>
     <t>2D_ENVSPARE_001</t>
-  </si>
-  <si>
-    <t>3D_ENVSPARE_001</t>
   </si>
   <si>
     <t>4U_ENVSPARE_001</t>
@@ -1365,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1416,6 +1413,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1725,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D162" sqref="C161:D162"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5865,7 +5863,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="4"/>
@@ -5876,7 +5874,7 @@
       <c r="L121" s="1"/>
       <c r="M121" s="4"/>
       <c r="N121" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O121" s="1"/>
       <c r="P121" s="4"/>
@@ -5895,7 +5893,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
       <c r="AA121" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AB121" s="18"/>
       <c r="AC121" s="2"/>
@@ -5910,7 +5908,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="4"/>
@@ -6000,7 +5998,7 @@
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
       <c r="W124" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
@@ -6034,7 +6032,7 @@
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
       <c r="W125" s="43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X125" s="43"/>
       <c r="Y125" s="4"/>
@@ -6069,7 +6067,7 @@
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
       <c r="W126" s="43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X126" s="43"/>
       <c r="Y126" s="4"/>
@@ -6284,19 +6282,19 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L133" s="18"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P133" s="1"/>
       <c r="Q133" s="4"/>
@@ -6314,7 +6312,7 @@
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
       <c r="AA133" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB133" s="18"/>
       <c r="AC133" s="2"/>
@@ -6333,7 +6331,7 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L134" s="1"/>
       <c r="M134" s="4"/>
@@ -6353,7 +6351,7 @@
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
       <c r="AA134" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB134" s="18"/>
       <c r="AC134" s="2"/>
@@ -6370,7 +6368,7 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="4"/>
@@ -6388,7 +6386,7 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
       <c r="AA135" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AB135" s="1"/>
       <c r="AC135" s="2"/>
@@ -6421,7 +6419,7 @@
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
       <c r="AA136" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AB136" s="1"/>
       <c r="AC136" s="2"/>
@@ -6430,7 +6428,7 @@
       <c r="A137" s="10"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D137" s="21"/>
       <c r="E137" s="21"/>
@@ -6448,19 +6446,19 @@
       <c r="Q137" s="21"/>
       <c r="R137" s="21"/>
       <c r="S137" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T137" s="21"/>
       <c r="U137" s="21"/>
       <c r="V137" s="21"/>
       <c r="W137" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X137" s="21"/>
       <c r="Y137" s="21"/>
       <c r="Z137" s="21"/>
       <c r="AA137" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AB137" s="21"/>
       <c r="AC137" s="2"/>
@@ -6646,19 +6644,19 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
@@ -6857,7 +6855,7 @@
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
       <c r="W148" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X148" s="21"/>
       <c r="Y148" s="4"/>
@@ -6892,7 +6890,7 @@
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
       <c r="W149" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X149" s="21"/>
       <c r="Y149" s="4"/>
@@ -6931,7 +6929,7 @@
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
       <c r="AA150" s="21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AB150" s="21"/>
       <c r="AC150" s="2"/>
@@ -6940,43 +6938,43 @@
       <c r="A151" s="6"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
       <c r="S151" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
       <c r="W151" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="X151" s="4"/>
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
       <c r="AA151" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AB151" s="4"/>
       <c r="AC151" s="2"/>
@@ -7037,19 +7035,19 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P153" s="4"/>
       <c r="Q153" s="4"/>
@@ -7060,13 +7058,14 @@
       <c r="T153" s="4"/>
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
-      <c r="W153" t="s">
-        <v>316</v>
-      </c>
+      <c r="W153" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="X153" s="50"/>
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
       <c r="AA153" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AB153" s="4"/>
       <c r="AC153" s="2"/>
@@ -7075,7 +7074,7 @@
       <c r="A154" s="6"/>
       <c r="B154" s="4"/>
       <c r="C154" s="49" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D154" s="49"/>
       <c r="E154" s="4"/>
@@ -7085,7 +7084,7 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
@@ -7100,13 +7099,14 @@
       <c r="T154" s="1"/>
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
-      <c r="W154" t="s">
-        <v>317</v>
-      </c>
+      <c r="W154" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="X154" s="50"/>
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
       <c r="AA154" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AB154" s="4"/>
       <c r="AC154" s="2"/>
@@ -7115,7 +7115,7 @@
       <c r="A155" s="6"/>
       <c r="B155" s="4"/>
       <c r="C155" s="40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D155" s="40"/>
       <c r="E155" s="4"/>
@@ -7125,7 +7125,7 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
@@ -7141,13 +7141,13 @@
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
       <c r="W155" s="46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X155" s="46"/>
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
       <c r="AA155" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB155" s="4"/>
       <c r="AC155" s="2"/>
@@ -7156,7 +7156,7 @@
       <c r="A156" s="10"/>
       <c r="B156" s="2"/>
       <c r="C156" s="40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D156" s="40"/>
       <c r="E156" s="2"/>
@@ -7182,7 +7182,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="4"/>
       <c r="AA156" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB156" s="4"/>
       <c r="AC156" s="2"/>
@@ -7194,7 +7194,7 @@
       </c>
       <c r="D157" s="40"/>
       <c r="S157" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Z157" s="2"/>
       <c r="AA157" s="4" t="s">
@@ -7210,12 +7210,12 @@
       </c>
       <c r="D158" s="40"/>
       <c r="S158" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W158" s="4"/>
       <c r="Z158" s="2"/>
       <c r="AA158" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB158" s="2"/>
       <c r="AC158" s="2"/>
@@ -7227,12 +7227,12 @@
       </c>
       <c r="D159" s="40"/>
       <c r="S159" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W159" s="4"/>
       <c r="Z159" s="2"/>
       <c r="AA159" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
@@ -7246,7 +7246,7 @@
       <c r="W160" s="4"/>
       <c r="Z160" s="2"/>
       <c r="AA160" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
@@ -7260,7 +7260,7 @@
       <c r="W161" s="4"/>
       <c r="Z161" s="2"/>
       <c r="AA161" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
@@ -7280,7 +7280,7 @@
     <row r="163" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="C163" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W163" s="4"/>
       <c r="Z163" s="2"/>
@@ -7352,19 +7352,20 @@
       </c>
       <c r="J166" s="4"/>
       <c r="K166" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L166" s="4"/>
       <c r="S166" s="4" t="s">
         <v>185</v>
       </c>
       <c r="T166" s="4"/>
-      <c r="W166" t="s">
+      <c r="W166" s="18" t="s">
         <v>247</v>
       </c>
+      <c r="X166" s="18"/>
       <c r="Z166" s="4"/>
       <c r="AA166" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB166" s="4"/>
       <c r="AC166" s="2"/>
@@ -7380,12 +7381,13 @@
         <v>184</v>
       </c>
       <c r="T167" s="4"/>
-      <c r="W167" t="s">
+      <c r="W167" s="18" t="s">
         <v>248</v>
       </c>
+      <c r="X167" s="18"/>
       <c r="Z167" s="4"/>
       <c r="AA167" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB167" s="4"/>
       <c r="AC167" s="2"/>
@@ -7401,12 +7403,9 @@
         <v>183</v>
       </c>
       <c r="T168" s="4"/>
-      <c r="W168" t="s">
-        <v>295</v>
-      </c>
       <c r="Z168" s="4"/>
       <c r="AA168" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB168" s="4"/>
       <c r="AC168" s="2"/>
@@ -7418,9 +7417,6 @@
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
-      <c r="W169" t="s">
-        <v>296</v>
-      </c>
       <c r="Z169" s="4"/>
       <c r="AA169" s="4" t="s">
         <v>260</v>
@@ -7433,9 +7429,6 @@
       <c r="C170" t="s">
         <v>280</v>
       </c>
-      <c r="W170" t="s">
-        <v>297</v>
-      </c>
       <c r="Z170" s="2"/>
       <c r="AA170" s="4" t="s">
         <v>259</v>
@@ -7449,7 +7442,7 @@
         <v>281</v>
       </c>
       <c r="W171" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="X171" s="20"/>
       <c r="Z171" s="2"/>
@@ -7462,12 +7455,12 @@
     <row r="172" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
       <c r="W172" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X172" s="20"/>
       <c r="Z172" s="2"/>
       <c r="AA172" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AB172" s="21"/>
       <c r="AC172" s="2"/>
@@ -7475,10 +7468,10 @@
     <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="C173" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W173" s="46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X173" s="46"/>
       <c r="Y173" s="46"/>
@@ -7542,18 +7535,18 @@
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="K175" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L175" s="4"/>
       <c r="S175" t="s">
         <v>256</v>
       </c>
       <c r="W175" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Z175" s="2"/>
       <c r="AA175" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AB175" s="4"/>
       <c r="AC175" s="2"/>
@@ -7569,11 +7562,11 @@
         <v>257</v>
       </c>
       <c r="W176" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z176" s="2"/>
       <c r="AA176" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AB176" s="4"/>
       <c r="AC176" s="2"/>
@@ -7589,12 +7582,12 @@
         <v>258</v>
       </c>
       <c r="W177" s="46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X177" s="46"/>
       <c r="Z177" s="2"/>
       <c r="AA177" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB177" s="2"/>
       <c r="AC177" s="2"/>
@@ -7689,11 +7682,11 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="K183" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L183" s="4"/>
       <c r="S183" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W183" t="s">
         <v>283</v>
@@ -7713,7 +7706,7 @@
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="S184" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W184" t="s">
         <v>284</v>
@@ -7733,7 +7726,7 @@
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="S185" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="W185" t="s">
         <v>285</v>
@@ -7751,7 +7744,7 @@
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="S186" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W186" t="s">
         <v>286</v>
@@ -7760,7 +7753,7 @@
     <row r="187" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
       <c r="S187" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W187" t="s">
         <v>287</v>
@@ -7775,11 +7768,11 @@
     <row r="189" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="W189" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X189" s="20"/>
       <c r="AA189" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB189" s="20"/>
     </row>
@@ -7832,7 +7825,7 @@
     <row r="191" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A191" s="10"/>
       <c r="D191" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.3">
@@ -7887,7 +7880,7 @@
     <row r="194" spans="1:28" ht="46.2" x14ac:dyDescent="0.85">
       <c r="A194" s="10"/>
       <c r="D194" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.3">
@@ -7895,7 +7888,7 @@
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B196" s="6"/>
       <c r="C196" s="6" t="s">
@@ -7942,49 +7935,49 @@
     <row r="197" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
       <c r="C197" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G197" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K197" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O197" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S197" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="W197" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AA197" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
       <c r="C198" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G198" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K198" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O198" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S198" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="W198" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AA198" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.3">
@@ -8001,7 +7994,7 @@
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A203" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B203" s="6"/>
       <c r="C203" s="6" t="s">
@@ -8049,25 +8042,25 @@
       <c r="A204" s="10"/>
       <c r="B204" s="4"/>
       <c r="C204" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G204" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K204" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O204" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S204" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="W204" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AA204" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="205" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8132,7 +8125,7 @@
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B207" s="6"/>
       <c r="C207" s="6" t="s">
@@ -8179,25 +8172,25 @@
     <row r="208" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A208" s="35"/>
       <c r="C208" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G208" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K208" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O208" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S208" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="W208" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AA208" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.3">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="365">
   <si>
     <t>Planning</t>
   </si>
@@ -1037,9 +1037,6 @@
     <t>Level build 3 af</t>
   </si>
   <si>
-    <t>Level 3 testing</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -1110,6 +1107,18 @@
   </si>
   <si>
     <t>2D_ENVHOUSE_001</t>
+  </si>
+  <si>
+    <t>A lot of scripting stuff</t>
+  </si>
+  <si>
+    <t>Start menu</t>
+  </si>
+  <si>
+    <t>menu art</t>
+  </si>
+  <si>
+    <t>Sarah Fixing</t>
   </si>
 </sst>
 </file>
@@ -1721,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC211"/>
+  <dimension ref="A2:AC214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W176" sqref="W175:X176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5893,7 +5902,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
       <c r="AA121" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AB121" s="18"/>
       <c r="AC121" s="2"/>
@@ -6331,7 +6340,7 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L134" s="1"/>
       <c r="M134" s="4"/>
@@ -6368,7 +6377,7 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="4"/>
@@ -6938,43 +6947,43 @@
       <c r="A151" s="6"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
       <c r="S151" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
       <c r="W151" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="X151" s="4"/>
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
       <c r="AA151" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AB151" s="4"/>
       <c r="AC151" s="2"/>
@@ -7074,7 +7083,7 @@
       <c r="A154" s="6"/>
       <c r="B154" s="4"/>
       <c r="C154" s="49" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D154" s="49"/>
       <c r="E154" s="4"/>
@@ -7084,7 +7093,7 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
@@ -7115,7 +7124,7 @@
       <c r="A155" s="6"/>
       <c r="B155" s="4"/>
       <c r="C155" s="40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D155" s="40"/>
       <c r="E155" s="4"/>
@@ -7125,7 +7134,7 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
@@ -7141,7 +7150,7 @@
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
       <c r="W155" s="46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X155" s="46"/>
       <c r="Y155" s="4"/>
@@ -7156,7 +7165,7 @@
       <c r="A156" s="10"/>
       <c r="B156" s="2"/>
       <c r="C156" s="40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D156" s="40"/>
       <c r="E156" s="2"/>
@@ -7194,7 +7203,7 @@
       </c>
       <c r="D157" s="40"/>
       <c r="S157" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z157" s="2"/>
       <c r="AA157" s="4" t="s">
@@ -7210,7 +7219,7 @@
       </c>
       <c r="D158" s="40"/>
       <c r="S158" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W158" s="4"/>
       <c r="Z158" s="2"/>
@@ -7227,26 +7236,26 @@
       </c>
       <c r="D159" s="40"/>
       <c r="S159" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W159" s="4"/>
       <c r="Z159" s="2"/>
       <c r="AA159" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
-      <c r="C160" s="46" t="s">
+      <c r="C160" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="D160" s="46"/>
+      <c r="D160" s="49"/>
       <c r="W160" s="4"/>
       <c r="Z160" s="2"/>
       <c r="AA160" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
@@ -7260,7 +7269,7 @@
       <c r="W161" s="4"/>
       <c r="Z161" s="2"/>
       <c r="AA161" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
@@ -7280,7 +7289,7 @@
     <row r="163" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="C163" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W163" s="4"/>
       <c r="Z163" s="2"/>
@@ -7350,9 +7359,12 @@
       <c r="C166" t="s">
         <v>277</v>
       </c>
+      <c r="G166" t="s">
+        <v>361</v>
+      </c>
       <c r="J166" s="4"/>
       <c r="K166" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L166" s="4"/>
       <c r="S166" s="4" t="s">
@@ -7468,10 +7480,10 @@
     <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="C173" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W173" s="46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X173" s="46"/>
       <c r="Y173" s="46"/>
@@ -7529,75 +7541,79 @@
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
-      <c r="C175" t="s">
+      <c r="C175" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="G175" s="4"/>
+      <c r="D175" s="49"/>
+      <c r="G175" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="H175" s="4"/>
       <c r="K175" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L175" s="4"/>
       <c r="S175" t="s">
         <v>256</v>
       </c>
-      <c r="W175" t="s">
+      <c r="W175" s="49" t="s">
         <v>309</v>
       </c>
+      <c r="X175" s="49"/>
       <c r="Z175" s="2"/>
       <c r="AA175" s="4" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="AB175" s="4"/>
       <c r="AC175" s="2"/>
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
-      <c r="C176" t="s">
+      <c r="C176" s="49" t="s">
         <v>275</v>
       </c>
+      <c r="D176" s="49"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="S176" t="s">
         <v>257</v>
       </c>
-      <c r="W176" t="s">
+      <c r="W176" s="49" t="s">
         <v>310</v>
       </c>
+      <c r="X176" s="49"/>
       <c r="Z176" s="2"/>
-      <c r="AA176" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="AA176" s="4"/>
       <c r="AB176" s="4"/>
       <c r="AC176" s="2"/>
     </row>
     <row r="177" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
-      <c r="C177" t="s">
+      <c r="C177" s="49" t="s">
         <v>276</v>
       </c>
+      <c r="D177" s="49"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="S177" t="s">
         <v>258</v>
       </c>
       <c r="W177" s="46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X177" s="46"/>
       <c r="Z177" s="2"/>
-      <c r="AA177" s="4" t="s">
-        <v>302</v>
-      </c>
+      <c r="AA177" s="4"/>
       <c r="AB177" s="2"/>
       <c r="AC177" s="2"/>
     </row>
     <row r="178" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="2"/>
+      <c r="W178" t="s">
+        <v>262</v>
+      </c>
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
@@ -7606,6 +7622,9 @@
     <row r="179" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
       <c r="G179" s="4"/>
+      <c r="W179" t="s">
+        <v>263</v>
+      </c>
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
@@ -7614,6 +7633,9 @@
     <row r="180" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
       <c r="G180" s="4"/>
+      <c r="W180" t="s">
+        <v>264</v>
+      </c>
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
       <c r="AB180" s="2"/>
@@ -7682,7 +7704,7 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="K183" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L183" s="4"/>
       <c r="S183" t="s">
@@ -7692,9 +7714,10 @@
         <v>283</v>
       </c>
       <c r="Z183" s="2"/>
-      <c r="AA183" t="s">
-        <v>262</v>
-      </c>
+      <c r="AA183" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB183" s="4"/>
       <c r="AC183" s="2"/>
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.3">
@@ -7712,9 +7735,10 @@
         <v>284</v>
       </c>
       <c r="Z184" s="2"/>
-      <c r="AA184" t="s">
-        <v>263</v>
-      </c>
+      <c r="AA184" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB184" s="4"/>
       <c r="AC184" s="2"/>
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.3">
@@ -7731,9 +7755,10 @@
       <c r="W185" t="s">
         <v>285</v>
       </c>
-      <c r="AA185" t="s">
-        <v>264</v>
-      </c>
+      <c r="AA185" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB185" s="2"/>
     </row>
     <row r="186" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
@@ -7765,483 +7790,497 @@
         <v>288</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="W189" s="20" t="s">
         <v>336</v>
       </c>
       <c r="X189" s="20"/>
-      <c r="AA189" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="AB189" s="20"/>
-    </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A190" s="44" t="s">
+    </row>
+    <row r="190" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="10"/>
+    </row>
+    <row r="191" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="10"/>
+    </row>
+    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A192" s="10"/>
+      <c r="W192" s="46"/>
+      <c r="X192" s="46"/>
+      <c r="Y192" s="46"/>
+      <c r="Z192" s="46"/>
+      <c r="AA192" s="46"/>
+      <c r="AB192" s="46"/>
+    </row>
+    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A193" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="B190" s="6"/>
-      <c r="C190" s="6" t="s">
+      <c r="B193" s="6"/>
+      <c r="C193" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
-      <c r="G190" s="6" t="s">
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H190" s="6"/>
-      <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
-      <c r="K190" s="6" t="s">
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L190" s="6"/>
-      <c r="M190" s="6"/>
-      <c r="N190" s="6"/>
-      <c r="O190" s="6" t="s">
+      <c r="L193" s="6"/>
+      <c r="M193" s="6"/>
+      <c r="N193" s="6"/>
+      <c r="O193" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P190" s="6"/>
-      <c r="Q190" s="6"/>
-      <c r="R190" s="6"/>
-      <c r="S190" s="6" t="s">
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
+      <c r="R193" s="6"/>
+      <c r="S193" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T190" s="6"/>
-      <c r="U190" s="6"/>
-      <c r="V190" s="6"/>
-      <c r="W190" s="6" t="s">
+      <c r="T193" s="6"/>
+      <c r="U193" s="6"/>
+      <c r="V193" s="6"/>
+      <c r="W193" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X190" s="6"/>
-      <c r="Y190" s="6"/>
-      <c r="Z190" s="6"/>
-      <c r="AA190" s="6" t="s">
+      <c r="X193" s="6"/>
+      <c r="Y193" s="6"/>
+      <c r="Z193" s="6"/>
+      <c r="AA193" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB190" s="15"/>
-    </row>
-    <row r="191" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A191" s="10"/>
-      <c r="D191" s="45" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A192" s="10" t="s">
+      <c r="AB193" s="15"/>
+    </row>
+    <row r="194" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A194" s="10"/>
+      <c r="C194" t="s">
+        <v>363</v>
+      </c>
+      <c r="D194" s="45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A195" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B192" s="6"/>
-      <c r="C192" s="6" t="s">
+      <c r="B195" s="6"/>
+      <c r="C195" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
-      <c r="G192" s="6" t="s">
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H192" s="6"/>
-      <c r="I192" s="6"/>
-      <c r="J192" s="6"/>
-      <c r="K192" s="6" t="s">
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L192" s="6"/>
-      <c r="M192" s="6"/>
-      <c r="N192" s="6"/>
-      <c r="O192" s="6" t="s">
+      <c r="L195" s="6"/>
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P192" s="6"/>
-      <c r="Q192" s="6"/>
-      <c r="R192" s="6"/>
-      <c r="S192" s="6" t="s">
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
+      <c r="R195" s="6"/>
+      <c r="S195" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T192" s="6"/>
-      <c r="U192" s="6"/>
-      <c r="V192" s="6"/>
-      <c r="W192" s="6" t="s">
+      <c r="T195" s="6"/>
+      <c r="U195" s="6"/>
+      <c r="V195" s="6"/>
+      <c r="W195" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X192" s="6"/>
-      <c r="Y192" s="6"/>
-      <c r="Z192" s="6"/>
-      <c r="AA192" s="6" t="s">
+      <c r="X195" s="6"/>
+      <c r="Y195" s="6"/>
+      <c r="Z195" s="6"/>
+      <c r="AA195" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB192" s="15"/>
-    </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A193" s="10"/>
-    </row>
-    <row r="194" spans="1:28" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A194" s="10"/>
-      <c r="D194" s="45" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A195" s="10"/>
+      <c r="AB195" s="15"/>
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A196" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="B196" s="6"/>
-      <c r="C196" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H196" s="6"/>
-      <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
-      <c r="K196" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L196" s="6"/>
-      <c r="M196" s="6"/>
-      <c r="N196" s="6"/>
-      <c r="O196" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P196" s="6"/>
-      <c r="Q196" s="6"/>
-      <c r="R196" s="6"/>
-      <c r="S196" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T196" s="6"/>
-      <c r="U196" s="6"/>
-      <c r="V196" s="6"/>
-      <c r="W196" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X196" s="6"/>
-      <c r="Y196" s="6"/>
-      <c r="Z196" s="6"/>
-      <c r="AA196" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB196" s="15"/>
-    </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A196" s="10"/>
+    </row>
+    <row r="197" spans="1:28" ht="46.2" x14ac:dyDescent="0.85">
       <c r="A197" s="10"/>
-      <c r="C197" t="s">
-        <v>357</v>
-      </c>
-      <c r="G197" t="s">
-        <v>357</v>
-      </c>
-      <c r="K197" t="s">
-        <v>357</v>
-      </c>
-      <c r="O197" t="s">
-        <v>357</v>
-      </c>
-      <c r="S197" t="s">
-        <v>357</v>
-      </c>
-      <c r="W197" t="s">
-        <v>357</v>
-      </c>
-      <c r="AA197" t="s">
-        <v>357</v>
+      <c r="D197" s="45" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
-      <c r="C198" t="s">
-        <v>358</v>
-      </c>
-      <c r="G198" t="s">
-        <v>358</v>
-      </c>
-      <c r="K198" t="s">
-        <v>358</v>
-      </c>
-      <c r="O198" t="s">
-        <v>358</v>
-      </c>
-      <c r="S198" t="s">
-        <v>358</v>
-      </c>
-      <c r="W198" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA198" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A199" s="10"/>
+      <c r="A199" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
+      <c r="R199" s="6"/>
+      <c r="S199" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T199" s="6"/>
+      <c r="U199" s="6"/>
+      <c r="V199" s="6"/>
+      <c r="W199" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X199" s="6"/>
+      <c r="Y199" s="6"/>
+      <c r="Z199" s="6"/>
+      <c r="AA199" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB199" s="15"/>
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
+      <c r="C200" t="s">
+        <v>356</v>
+      </c>
+      <c r="G200" t="s">
+        <v>356</v>
+      </c>
+      <c r="K200" t="s">
+        <v>356</v>
+      </c>
+      <c r="O200" t="s">
+        <v>356</v>
+      </c>
+      <c r="S200" t="s">
+        <v>356</v>
+      </c>
+      <c r="W200" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA200" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
+      <c r="C201" t="s">
+        <v>357</v>
+      </c>
+      <c r="G201" t="s">
+        <v>357</v>
+      </c>
+      <c r="K201" t="s">
+        <v>357</v>
+      </c>
+      <c r="O201" t="s">
+        <v>357</v>
+      </c>
+      <c r="S201" t="s">
+        <v>357</v>
+      </c>
+      <c r="W201" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA201" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A203" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="B203" s="6"/>
-      <c r="C203" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D203" s="6"/>
-      <c r="E203" s="6"/>
-      <c r="F203" s="6"/>
-      <c r="G203" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H203" s="6"/>
-      <c r="I203" s="6"/>
-      <c r="J203" s="6"/>
-      <c r="K203" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L203" s="6"/>
-      <c r="M203" s="6"/>
-      <c r="N203" s="6"/>
-      <c r="O203" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P203" s="6"/>
-      <c r="Q203" s="6"/>
-      <c r="R203" s="6"/>
-      <c r="S203" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="T203" s="6"/>
-      <c r="U203" s="6"/>
-      <c r="V203" s="6"/>
-      <c r="W203" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="X203" s="6"/>
-      <c r="Y203" s="6"/>
-      <c r="Z203" s="6"/>
-      <c r="AA203" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB203" s="15"/>
+      <c r="A203" s="10"/>
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A204" s="10"/>
-      <c r="B204" s="4"/>
-      <c r="C204" t="s">
-        <v>358</v>
-      </c>
-      <c r="G204" t="s">
-        <v>358</v>
-      </c>
-      <c r="K204" t="s">
-        <v>358</v>
-      </c>
-      <c r="O204" t="s">
-        <v>358</v>
-      </c>
-      <c r="S204" t="s">
-        <v>358</v>
-      </c>
-      <c r="W204" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA204" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="205" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A205" s="10"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="4"/>
-      <c r="G205" s="4"/>
-      <c r="H205" s="4"/>
-      <c r="I205" s="4"/>
-      <c r="J205" s="4"/>
-      <c r="K205" s="4"/>
-      <c r="L205" s="4"/>
-      <c r="M205" s="4"/>
-      <c r="N205" s="4"/>
-      <c r="O205" s="4"/>
-      <c r="P205" s="4"/>
-      <c r="Q205" s="4"/>
-      <c r="R205" s="4"/>
-      <c r="S205" s="4"/>
-      <c r="T205" s="4"/>
-      <c r="U205" s="4"/>
-      <c r="V205" s="4"/>
-      <c r="W205" s="4"/>
-      <c r="X205" s="4"/>
-      <c r="Y205" s="4"/>
-      <c r="Z205" s="4"/>
-      <c r="AA205" s="4"/>
-      <c r="AB205" s="4"/>
-    </row>
-    <row r="206" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A206" s="10"/>
-      <c r="B206" s="41"/>
-      <c r="C206" s="47"/>
-      <c r="D206" s="48"/>
-      <c r="E206" s="48"/>
-      <c r="F206" s="48"/>
-      <c r="G206" s="47"/>
-      <c r="H206" s="48"/>
-      <c r="I206" s="48"/>
-      <c r="J206" s="48"/>
-      <c r="K206" s="47"/>
-      <c r="L206" s="48"/>
-      <c r="M206" s="48"/>
-      <c r="N206" s="48"/>
-      <c r="O206" s="48"/>
-      <c r="P206" s="47"/>
-      <c r="Q206" s="48"/>
-      <c r="R206" s="48"/>
-      <c r="S206" s="48"/>
-      <c r="T206" s="48"/>
-      <c r="U206" s="47"/>
-      <c r="V206" s="48"/>
-      <c r="W206" s="48"/>
-      <c r="X206" s="48"/>
-      <c r="Y206" s="47"/>
-      <c r="Z206" s="48"/>
-      <c r="AA206" s="48"/>
-      <c r="AB206" s="42"/>
+    </row>
+    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A206" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" s="6"/>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H206" s="6"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
+      <c r="K206" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L206" s="6"/>
+      <c r="M206" s="6"/>
+      <c r="N206" s="6"/>
+      <c r="O206" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P206" s="6"/>
+      <c r="Q206" s="6"/>
+      <c r="R206" s="6"/>
+      <c r="S206" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T206" s="6"/>
+      <c r="U206" s="6"/>
+      <c r="V206" s="6"/>
+      <c r="W206" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X206" s="6"/>
+      <c r="Y206" s="6"/>
+      <c r="Z206" s="6"/>
+      <c r="AA206" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB206" s="15"/>
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A207" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="B207" s="6"/>
-      <c r="C207" s="6" t="s">
+      <c r="A207" s="10"/>
+      <c r="B207" s="4"/>
+      <c r="C207" t="s">
+        <v>357</v>
+      </c>
+      <c r="G207" t="s">
+        <v>357</v>
+      </c>
+      <c r="K207" t="s">
+        <v>357</v>
+      </c>
+      <c r="O207" t="s">
+        <v>357</v>
+      </c>
+      <c r="S207" t="s">
+        <v>357</v>
+      </c>
+      <c r="W207" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="208" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="10"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
+      <c r="R208" s="4"/>
+      <c r="S208" s="4"/>
+      <c r="T208" s="4"/>
+      <c r="U208" s="4"/>
+      <c r="V208" s="4"/>
+      <c r="W208" s="4"/>
+      <c r="X208" s="4"/>
+      <c r="Y208" s="4"/>
+      <c r="Z208" s="4"/>
+      <c r="AA208" s="4"/>
+      <c r="AB208" s="4"/>
+    </row>
+    <row r="209" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A209" s="10"/>
+      <c r="B209" s="41"/>
+      <c r="C209" s="47"/>
+      <c r="D209" s="48"/>
+      <c r="E209" s="48"/>
+      <c r="F209" s="48"/>
+      <c r="G209" s="47"/>
+      <c r="H209" s="48"/>
+      <c r="I209" s="48"/>
+      <c r="J209" s="48"/>
+      <c r="K209" s="47"/>
+      <c r="L209" s="48"/>
+      <c r="M209" s="48"/>
+      <c r="N209" s="48"/>
+      <c r="O209" s="48"/>
+      <c r="P209" s="47"/>
+      <c r="Q209" s="48"/>
+      <c r="R209" s="48"/>
+      <c r="S209" s="48"/>
+      <c r="T209" s="48"/>
+      <c r="U209" s="47"/>
+      <c r="V209" s="48"/>
+      <c r="W209" s="48"/>
+      <c r="X209" s="48"/>
+      <c r="Y209" s="47"/>
+      <c r="Z209" s="48"/>
+      <c r="AA209" s="48"/>
+      <c r="AB209" s="42"/>
+    </row>
+    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A210" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D207" s="6"/>
-      <c r="E207" s="6"/>
-      <c r="F207" s="6"/>
-      <c r="G207" s="6" t="s">
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H207" s="6"/>
-      <c r="I207" s="6"/>
-      <c r="J207" s="6"/>
-      <c r="K207" s="6" t="s">
+      <c r="H210" s="6"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
+      <c r="K210" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L207" s="6"/>
-      <c r="M207" s="6"/>
-      <c r="N207" s="6"/>
-      <c r="O207" s="6" t="s">
+      <c r="L210" s="6"/>
+      <c r="M210" s="6"/>
+      <c r="N210" s="6"/>
+      <c r="O210" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P207" s="6"/>
-      <c r="Q207" s="6"/>
-      <c r="R207" s="6"/>
-      <c r="S207" s="6" t="s">
+      <c r="P210" s="6"/>
+      <c r="Q210" s="6"/>
+      <c r="R210" s="6"/>
+      <c r="S210" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T207" s="6"/>
-      <c r="U207" s="6"/>
-      <c r="V207" s="6"/>
-      <c r="W207" s="6" t="s">
+      <c r="T210" s="6"/>
+      <c r="U210" s="6"/>
+      <c r="V210" s="6"/>
+      <c r="W210" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X207" s="6"/>
-      <c r="Y207" s="6"/>
-      <c r="Z207" s="6"/>
-      <c r="AA207" s="6" t="s">
+      <c r="X210" s="6"/>
+      <c r="Y210" s="6"/>
+      <c r="Z210" s="6"/>
+      <c r="AA210" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB207" s="15"/>
-    </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A208" s="35"/>
-      <c r="C208" t="s">
-        <v>358</v>
-      </c>
-      <c r="G208" t="s">
-        <v>358</v>
-      </c>
-      <c r="K208" t="s">
-        <v>358</v>
-      </c>
-      <c r="O208" t="s">
-        <v>358</v>
-      </c>
-      <c r="S208" t="s">
-        <v>358</v>
-      </c>
-      <c r="W208" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA208" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A209" s="35"/>
-    </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A210" s="35"/>
+      <c r="AB210" s="15"/>
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A211" s="35"/>
-      <c r="B211" s="24" t="s">
+      <c r="C211" t="s">
+        <v>357</v>
+      </c>
+      <c r="G211" t="s">
+        <v>357</v>
+      </c>
+      <c r="K211" t="s">
+        <v>357</v>
+      </c>
+      <c r="O211" t="s">
+        <v>357</v>
+      </c>
+      <c r="S211" t="s">
+        <v>357</v>
+      </c>
+      <c r="W211" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A212" s="35"/>
+    </row>
+    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A213" s="35"/>
+    </row>
+    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A214" s="35"/>
+      <c r="B214" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C211" s="24"/>
-      <c r="D211" s="24"/>
-      <c r="E211" s="24"/>
-      <c r="F211" s="24" t="s">
+      <c r="C214" s="24"/>
+      <c r="D214" s="24"/>
+      <c r="E214" s="24"/>
+      <c r="F214" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G211" s="24"/>
-      <c r="H211" s="24"/>
-      <c r="I211" s="24"/>
-      <c r="J211" s="24" t="s">
+      <c r="G214" s="24"/>
+      <c r="H214" s="24"/>
+      <c r="I214" s="24"/>
+      <c r="J214" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K211" s="24"/>
-      <c r="L211" s="24"/>
-      <c r="M211" s="24"/>
-      <c r="N211" s="24" t="s">
+      <c r="K214" s="24"/>
+      <c r="L214" s="24"/>
+      <c r="M214" s="24"/>
+      <c r="N214" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O211" s="24"/>
-      <c r="P211" s="24"/>
-      <c r="Q211" s="24"/>
-      <c r="R211" s="24"/>
-      <c r="S211" s="24" t="s">
+      <c r="O214" s="24"/>
+      <c r="P214" s="24"/>
+      <c r="Q214" s="24"/>
+      <c r="R214" s="24"/>
+      <c r="S214" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="T211" s="24"/>
-      <c r="U211" s="24"/>
-      <c r="V211" s="24"/>
-      <c r="W211" s="24" t="s">
+      <c r="T214" s="24"/>
+      <c r="U214" s="24"/>
+      <c r="V214" s="24"/>
+      <c r="W214" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="X211" s="24"/>
-      <c r="Y211" s="24"/>
-      <c r="Z211" s="24" t="s">
+      <c r="X214" s="24"/>
+      <c r="Y214" s="24"/>
+      <c r="Z214" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA211" s="24"/>
-      <c r="AB211" s="25"/>
+      <c r="AA214" s="24"/>
+      <c r="AB214" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="V54:X56 W59:W62 W64:W69">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -1732,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W176" sqref="W175:X176"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N166" sqref="M166:N169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7288,9 +7288,10 @@
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
-      <c r="C163" t="s">
+      <c r="C163" s="49" t="s">
         <v>360</v>
       </c>
+      <c r="D163" s="49"/>
       <c r="W163" s="4"/>
       <c r="Z163" s="2"/>
       <c r="AA163" s="4"/>
@@ -7424,9 +7425,10 @@
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
-      <c r="C169" t="s">
+      <c r="C169" s="49" t="s">
         <v>282</v>
       </c>
+      <c r="D169" s="49"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
       <c r="Z169" s="4"/>
@@ -7438,9 +7440,10 @@
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A170" s="44"/>
-      <c r="C170" t="s">
+      <c r="C170" s="49" t="s">
         <v>280</v>
       </c>
+      <c r="D170" s="49"/>
       <c r="Z170" s="2"/>
       <c r="AA170" s="4" t="s">
         <v>259</v>
@@ -7450,9 +7453,10 @@
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
-      <c r="C171" t="s">
+      <c r="C171" s="49" t="s">
         <v>281</v>
       </c>
+      <c r="D171" s="49"/>
       <c r="W171" s="20" t="s">
         <v>330</v>
       </c>
@@ -7479,9 +7483,10 @@
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
-      <c r="C173" t="s">
+      <c r="C173" s="49" t="s">
         <v>354</v>
       </c>
+      <c r="D173" s="49"/>
       <c r="W173" s="46" t="s">
         <v>359</v>
       </c>
@@ -7622,9 +7627,10 @@
     <row r="179" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A179" s="10"/>
       <c r="G179" s="4"/>
-      <c r="W179" t="s">
+      <c r="W179" s="49" t="s">
         <v>263</v>
       </c>
+      <c r="X179" s="49"/>
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
@@ -7633,9 +7639,10 @@
     <row r="180" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
       <c r="G180" s="4"/>
-      <c r="W180" t="s">
+      <c r="W180" s="49" t="s">
         <v>264</v>
       </c>
+      <c r="X180" s="49"/>
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
       <c r="AB180" s="2"/>

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="366">
   <si>
     <t>Planning</t>
   </si>
@@ -1119,6 +1119,9 @@
   </si>
   <si>
     <t>Sarah Fixing</t>
+  </si>
+  <si>
+    <t>MolsPile</t>
   </si>
 </sst>
 </file>
@@ -1732,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N166" sqref="M166:N169"/>
+    <sheetView tabSelected="1" topLeftCell="C179" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA195" sqref="AA195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7558,9 +7561,10 @@
         <v>358</v>
       </c>
       <c r="L175" s="4"/>
-      <c r="S175" t="s">
+      <c r="S175" s="49" t="s">
         <v>256</v>
       </c>
+      <c r="T175" s="49"/>
       <c r="W175" s="49" t="s">
         <v>309</v>
       </c>
@@ -7580,9 +7584,10 @@
       <c r="D176" s="49"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
-      <c r="S176" t="s">
+      <c r="S176" s="49" t="s">
         <v>257</v>
       </c>
+      <c r="T176" s="49"/>
       <c r="W176" s="49" t="s">
         <v>310</v>
       </c>
@@ -7600,9 +7605,10 @@
       <c r="D177" s="49"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
-      <c r="S177" t="s">
+      <c r="S177" s="49" t="s">
         <v>258</v>
       </c>
+      <c r="T177" s="49"/>
       <c r="W177" s="46" t="s">
         <v>359</v>
       </c>
@@ -7872,6 +7878,9 @@
       </c>
       <c r="D194" s="45" t="s">
         <v>339</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.3">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="364">
   <si>
     <t>Planning</t>
   </si>
@@ -981,12 +981,6 @@
   </si>
   <si>
     <t>3D_ENV SPARE_001</t>
-  </si>
-  <si>
-    <t>3D_ENV JP_002</t>
-  </si>
-  <si>
-    <t>4D_ENVJP_002</t>
   </si>
   <si>
     <t>7S_lilypads_001</t>
@@ -1735,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C179" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA195" sqref="AA195"/>
+    <sheetView tabSelected="1" topLeftCell="C152" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S159" sqref="S156:T159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5875,7 +5869,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="4"/>
@@ -5886,7 +5880,7 @@
       <c r="L121" s="1"/>
       <c r="M121" s="4"/>
       <c r="N121" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O121" s="1"/>
       <c r="P121" s="4"/>
@@ -5905,7 +5899,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
       <c r="AA121" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AB121" s="18"/>
       <c r="AC121" s="2"/>
@@ -5920,7 +5914,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="4"/>
@@ -6294,19 +6288,19 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H133" s="1"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L133" s="18"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P133" s="1"/>
       <c r="Q133" s="4"/>
@@ -6343,7 +6337,7 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L134" s="1"/>
       <c r="M134" s="4"/>
@@ -6380,7 +6374,7 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="4"/>
@@ -6431,7 +6425,7 @@
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
       <c r="AA136" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AB136" s="1"/>
       <c r="AC136" s="2"/>
@@ -6440,7 +6434,7 @@
       <c r="A137" s="10"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D137" s="21"/>
       <c r="E137" s="21"/>
@@ -6458,19 +6452,19 @@
       <c r="Q137" s="21"/>
       <c r="R137" s="21"/>
       <c r="S137" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="T137" s="21"/>
       <c r="U137" s="21"/>
       <c r="V137" s="21"/>
       <c r="W137" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X137" s="21"/>
       <c r="Y137" s="21"/>
       <c r="Z137" s="21"/>
       <c r="AA137" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AB137" s="21"/>
       <c r="AC137" s="2"/>
@@ -6656,19 +6650,19 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P143" s="4"/>
       <c r="Q143" s="4"/>
@@ -6866,10 +6860,10 @@
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
-      <c r="W148" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="X148" s="21"/>
+      <c r="W148" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="X148" s="40"/>
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
       <c r="AA148" s="4"/>
@@ -6901,10 +6895,10 @@
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
-      <c r="W149" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="X149" s="21"/>
+      <c r="W149" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="X149" s="40"/>
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
@@ -6941,7 +6935,7 @@
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
       <c r="AA150" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AB150" s="21"/>
       <c r="AC150" s="2"/>
@@ -6950,43 +6944,43 @@
       <c r="A151" s="6"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
       <c r="S151" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="T151" s="4"/>
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
       <c r="W151" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="X151" s="4"/>
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
       <c r="AA151" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AB151" s="4"/>
       <c r="AC151" s="2"/>
@@ -7047,19 +7041,19 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P153" s="4"/>
       <c r="Q153" s="4"/>
@@ -7076,17 +7070,17 @@
       <c r="X153" s="50"/>
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
-      <c r="AA153" s="4" t="s">
+      <c r="AA153" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="AB153" s="4"/>
+      <c r="AB153" s="40"/>
       <c r="AC153" s="2"/>
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="4"/>
       <c r="C154" s="49" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D154" s="49"/>
       <c r="E154" s="4"/>
@@ -7096,7 +7090,7 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
@@ -7117,17 +7111,17 @@
       <c r="X154" s="50"/>
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
-      <c r="AA154" s="4" t="s">
+      <c r="AA154" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="AB154" s="4"/>
+      <c r="AB154" s="40"/>
       <c r="AC154" s="2"/>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="4"/>
       <c r="C155" s="40" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D155" s="40"/>
       <c r="E155" s="4"/>
@@ -7137,7 +7131,7 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
@@ -7153,22 +7147,22 @@
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
       <c r="W155" s="46" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="X155" s="46"/>
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
-      <c r="AA155" s="4" t="s">
+      <c r="AA155" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="AB155" s="4"/>
+      <c r="AB155" s="40"/>
       <c r="AC155" s="2"/>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
       <c r="B156" s="2"/>
       <c r="C156" s="40" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D156" s="40"/>
       <c r="E156" s="2"/>
@@ -7185,18 +7179,18 @@
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
-      <c r="S156" s="1" t="s">
+      <c r="S156" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="T156" s="1"/>
+      <c r="T156" s="40"/>
       <c r="U156" s="2"/>
       <c r="V156" s="2"/>
       <c r="Y156" s="2"/>
       <c r="Z156" s="4"/>
-      <c r="AA156" s="4" t="s">
+      <c r="AA156" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="AB156" s="4"/>
+      <c r="AB156" s="40"/>
       <c r="AC156" s="2"/>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.3">
@@ -7205,9 +7199,10 @@
         <v>294</v>
       </c>
       <c r="D157" s="40"/>
-      <c r="S157" s="4" t="s">
-        <v>351</v>
-      </c>
+      <c r="S157" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="T157" s="49"/>
       <c r="Z157" s="2"/>
       <c r="AA157" s="4" t="s">
         <v>295</v>
@@ -7221,15 +7216,16 @@
         <v>292</v>
       </c>
       <c r="D158" s="40"/>
-      <c r="S158" s="4" t="s">
-        <v>352</v>
-      </c>
+      <c r="S158" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="T158" s="49"/>
       <c r="W158" s="4"/>
       <c r="Z158" s="2"/>
-      <c r="AA158" s="4" t="s">
+      <c r="AA158" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="AB158" s="2"/>
+      <c r="AB158" s="40"/>
       <c r="AC158" s="2"/>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.3">
@@ -7238,15 +7234,16 @@
         <v>293</v>
       </c>
       <c r="D159" s="40"/>
-      <c r="S159" s="4" t="s">
-        <v>353</v>
-      </c>
+      <c r="S159" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="T159" s="49"/>
       <c r="W159" s="4"/>
       <c r="Z159" s="2"/>
-      <c r="AA159" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB159" s="2"/>
+      <c r="AA159" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB159" s="40"/>
       <c r="AC159" s="2"/>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.3">
@@ -7257,10 +7254,10 @@
       <c r="D160" s="49"/>
       <c r="W160" s="4"/>
       <c r="Z160" s="2"/>
-      <c r="AA160" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB160" s="2"/>
+      <c r="AA160" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB160" s="40"/>
       <c r="AC160" s="2"/>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.3">
@@ -7271,10 +7268,10 @@
       <c r="D161" s="49"/>
       <c r="W161" s="4"/>
       <c r="Z161" s="2"/>
-      <c r="AA161" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB161" s="2"/>
+      <c r="AA161" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB161" s="40"/>
       <c r="AC161" s="2"/>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.3">
@@ -7292,7 +7289,7 @@
     <row r="163" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="C163" s="49" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D163" s="49"/>
       <c r="W163" s="4"/>
@@ -7303,9 +7300,10 @@
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
-      <c r="C164" t="s">
+      <c r="C164" s="49" t="s">
         <v>210</v>
       </c>
+      <c r="D164" s="49"/>
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
@@ -7364,24 +7362,24 @@
         <v>277</v>
       </c>
       <c r="G166" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J166" s="4"/>
       <c r="K166" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="S166" s="4" t="s">
+      <c r="S166" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="T166" s="4"/>
+      <c r="T166" s="40"/>
       <c r="W166" s="18" t="s">
         <v>247</v>
       </c>
       <c r="X166" s="18"/>
       <c r="Z166" s="4"/>
       <c r="AA166" s="4" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="AB166" s="4"/>
       <c r="AC166" s="2"/>
@@ -7393,18 +7391,16 @@
       </c>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
-      <c r="S167" s="4" t="s">
+      <c r="S167" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="T167" s="4"/>
+      <c r="T167" s="40"/>
       <c r="W167" s="18" t="s">
         <v>248</v>
       </c>
       <c r="X167" s="18"/>
       <c r="Z167" s="4"/>
-      <c r="AA167" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="AA167" s="4"/>
       <c r="AB167" s="4"/>
       <c r="AC167" s="2"/>
     </row>
@@ -7415,14 +7411,12 @@
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
-      <c r="S168" s="4" t="s">
+      <c r="S168" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="T168" s="4"/>
+      <c r="T168" s="40"/>
       <c r="Z168" s="4"/>
-      <c r="AA168" s="4" t="s">
-        <v>320</v>
-      </c>
+      <c r="AA168" s="4"/>
       <c r="AB168" s="4"/>
       <c r="AC168" s="2"/>
     </row>
@@ -7435,9 +7429,7 @@
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
       <c r="Z169" s="4"/>
-      <c r="AA169" s="4" t="s">
-        <v>260</v>
-      </c>
+      <c r="AA169" s="4"/>
       <c r="AB169" s="4"/>
       <c r="AC169" s="2"/>
     </row>
@@ -7448,9 +7440,7 @@
       </c>
       <c r="D170" s="49"/>
       <c r="Z170" s="2"/>
-      <c r="AA170" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="AA170" s="4"/>
       <c r="AB170" s="2"/>
       <c r="AC170" s="2"/>
     </row>
@@ -7460,26 +7450,24 @@
         <v>281</v>
       </c>
       <c r="D171" s="49"/>
-      <c r="W171" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="X171" s="20"/>
+      <c r="W171" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="X171" s="49"/>
       <c r="Z171" s="2"/>
-      <c r="AA171" s="4" t="s">
-        <v>261</v>
-      </c>
+      <c r="AA171" s="4"/>
       <c r="AB171" s="2"/>
       <c r="AC171" s="2"/>
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
-      <c r="W172" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="X172" s="20"/>
+      <c r="W172" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="X172" s="49"/>
       <c r="Z172" s="2"/>
       <c r="AA172" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AB172" s="21"/>
       <c r="AC172" s="2"/>
@@ -7487,11 +7475,11 @@
     <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="C173" s="49" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D173" s="49"/>
       <c r="W173" s="46" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="X173" s="46"/>
       <c r="Y173" s="46"/>
@@ -7554,11 +7542,11 @@
       </c>
       <c r="D175" s="49"/>
       <c r="G175" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H175" s="4"/>
       <c r="K175" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L175" s="4"/>
       <c r="S175" s="49" t="s">
@@ -7571,7 +7559,7 @@
       <c r="X175" s="49"/>
       <c r="Z175" s="2"/>
       <c r="AA175" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AB175" s="4"/>
       <c r="AC175" s="2"/>
@@ -7610,7 +7598,7 @@
       </c>
       <c r="T177" s="49"/>
       <c r="W177" s="46" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="X177" s="46"/>
       <c r="Z177" s="2"/>
@@ -7622,9 +7610,10 @@
       <c r="A178" s="10"/>
       <c r="G178" s="4"/>
       <c r="H178" s="2"/>
-      <c r="W178" t="s">
+      <c r="W178" s="49" t="s">
         <v>262</v>
       </c>
+      <c r="X178" s="49"/>
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
@@ -7717,15 +7706,16 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="K183" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L183" s="4"/>
       <c r="S183" t="s">
         <v>297</v>
       </c>
-      <c r="W183" t="s">
+      <c r="W183" s="49" t="s">
         <v>283</v>
       </c>
+      <c r="X183" s="49"/>
       <c r="Z183" s="2"/>
       <c r="AA183" s="4" t="s">
         <v>301</v>
@@ -7744,9 +7734,10 @@
       <c r="S184" t="s">
         <v>298</v>
       </c>
-      <c r="W184" t="s">
+      <c r="W184" s="49" t="s">
         <v>284</v>
       </c>
+      <c r="X184" s="49"/>
       <c r="Z184" s="2"/>
       <c r="AA184" s="4" t="s">
         <v>300</v>
@@ -7765,9 +7756,10 @@
       <c r="S185" t="s">
         <v>299</v>
       </c>
-      <c r="W185" t="s">
+      <c r="W185" s="49" t="s">
         <v>285</v>
       </c>
+      <c r="X185" s="49"/>
       <c r="AA185" s="4" t="s">
         <v>302</v>
       </c>
@@ -7784,42 +7776,59 @@
       <c r="S186" t="s">
         <v>313</v>
       </c>
-      <c r="W186" t="s">
+      <c r="W186" s="49" t="s">
         <v>286</v>
       </c>
+      <c r="X186" s="49"/>
     </row>
     <row r="187" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A187" s="10"/>
+      <c r="C187" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D187" s="2"/>
       <c r="S187" t="s">
         <v>314</v>
       </c>
-      <c r="W187" t="s">
+      <c r="W187" s="49" t="s">
         <v>287</v>
       </c>
+      <c r="X187" s="49"/>
     </row>
     <row r="188" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
-      <c r="W188" t="s">
+      <c r="W188" s="49" t="s">
         <v>288</v>
       </c>
+      <c r="X188" s="49"/>
     </row>
     <row r="189" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="W189" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="X189" s="20"/>
     </row>
     <row r="190" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
+      <c r="W190" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="X190" s="4"/>
     </row>
     <row r="191" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
+      <c r="W191" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="X191" s="2"/>
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
-      <c r="W192" s="46"/>
-      <c r="X192" s="46"/>
+      <c r="W192" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="X192" s="2"/>
       <c r="Y192" s="46"/>
       <c r="Z192" s="46"/>
       <c r="AA192" s="46"/>
@@ -7874,13 +7883,13 @@
     <row r="194" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A194" s="10"/>
       <c r="C194" t="s">
+        <v>361</v>
+      </c>
+      <c r="D194" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA194" t="s">
         <v>363</v>
-      </c>
-      <c r="D194" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA194" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.3">
@@ -7935,7 +7944,7 @@
     <row r="197" spans="1:28" ht="46.2" x14ac:dyDescent="0.85">
       <c r="A197" s="10"/>
       <c r="D197" s="45" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.3">
@@ -7943,7 +7952,7 @@
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B199" s="6"/>
       <c r="C199" s="6" t="s">
@@ -7990,49 +7999,49 @@
     <row r="200" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
       <c r="C200" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G200" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K200" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O200" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="S200" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W200" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AA200" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
       <c r="C201" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G201" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K201" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O201" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S201" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W201" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AA201" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.3">
@@ -8049,7 +8058,7 @@
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B206" s="6"/>
       <c r="C206" s="6" t="s">
@@ -8097,25 +8106,25 @@
       <c r="A207" s="10"/>
       <c r="B207" s="4"/>
       <c r="C207" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G207" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K207" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O207" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S207" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W207" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AA207" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="208" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8180,7 +8189,7 @@
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A210" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B210" s="6"/>
       <c r="C210" s="6" t="s">
@@ -8227,25 +8236,25 @@
     <row r="211" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A211" s="35"/>
       <c r="C211" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G211" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K211" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O211" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S211" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W211" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AA211" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.3">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="366">
   <si>
     <t>Planning</t>
   </si>
@@ -1116,6 +1116,12 @@
   </si>
   <si>
     <t>MolsPile</t>
+  </si>
+  <si>
+    <t>Castle Maken</t>
+  </si>
+  <si>
+    <t>2D_ENVHOUSE</t>
   </si>
 </sst>
 </file>
@@ -1729,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C152" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S159" sqref="S156:T159"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7699,83 +7705,87 @@
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D183" s="4"/>
+      <c r="D183" s="5"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="K183" s="4" t="s">
         <v>356</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="S183" t="s">
+      <c r="S183" s="49" t="s">
         <v>297</v>
       </c>
+      <c r="T183" s="49"/>
       <c r="W183" s="49" t="s">
         <v>283</v>
       </c>
       <c r="X183" s="49"/>
       <c r="Z183" s="2"/>
-      <c r="AA183" s="4" t="s">
+      <c r="AA183" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="AB183" s="4"/>
+      <c r="AB183" s="40"/>
       <c r="AC183" s="2"/>
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D184" s="4"/>
+      <c r="D184" s="5"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
-      <c r="S184" t="s">
+      <c r="S184" s="49" t="s">
         <v>298</v>
       </c>
+      <c r="T184" s="49"/>
       <c r="W184" s="49" t="s">
         <v>284</v>
       </c>
       <c r="X184" s="49"/>
       <c r="Z184" s="2"/>
-      <c r="AA184" s="4" t="s">
+      <c r="AA184" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="AB184" s="4"/>
+      <c r="AB184" s="40"/>
       <c r="AC184" s="2"/>
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A185" s="10"/>
-      <c r="C185" s="4" t="s">
+      <c r="C185" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D185" s="4"/>
+      <c r="D185" s="5"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
-      <c r="S185" t="s">
+      <c r="S185" s="49" t="s">
         <v>299</v>
       </c>
+      <c r="T185" s="49"/>
       <c r="W185" s="49" t="s">
         <v>285</v>
       </c>
       <c r="X185" s="49"/>
-      <c r="AA185" s="4" t="s">
+      <c r="AA185" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="AB185" s="2"/>
+      <c r="AB185" s="40"/>
     </row>
     <row r="186" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
-      <c r="C186" s="4" t="s">
+      <c r="C186" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D186" s="4"/>
+      <c r="D186" s="5"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
-      <c r="S186" t="s">
+      <c r="S186" s="49" t="s">
         <v>313</v>
       </c>
+      <c r="T186" s="49"/>
       <c r="W186" s="49" t="s">
         <v>286</v>
       </c>
@@ -7787,9 +7797,10 @@
         <v>295</v>
       </c>
       <c r="D187" s="2"/>
-      <c r="S187" t="s">
+      <c r="S187" s="49" t="s">
         <v>314</v>
       </c>
+      <c r="T187" s="49"/>
       <c r="W187" s="49" t="s">
         <v>287</v>
       </c>
@@ -7882,13 +7893,13 @@
     </row>
     <row r="194" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A194" s="10"/>
-      <c r="C194" t="s">
+      <c r="C194" s="19" t="s">
         <v>361</v>
       </c>
       <c r="D194" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="AA194" t="s">
+      <c r="AA194" s="19" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7999,7 +8010,7 @@
     <row r="200" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A200" s="10"/>
       <c r="C200" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="G200" t="s">
         <v>354</v>
@@ -8014,7 +8025,7 @@
         <v>354</v>
       </c>
       <c r="W200" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="AA200" t="s">
         <v>354</v>
@@ -8022,9 +8033,6 @@
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A201" s="10"/>
-      <c r="C201" t="s">
-        <v>355</v>
-      </c>
       <c r="G201" t="s">
         <v>355</v>
       </c>
@@ -8035,9 +8043,6 @@
         <v>355</v>
       </c>
       <c r="S201" t="s">
-        <v>355</v>
-      </c>
-      <c r="W201" t="s">
         <v>355</v>
       </c>
       <c r="AA201" t="s">

--- a/Planning/Planning.xlsx
+++ b/Planning/Planning.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carloakuma\Desktop\Gamelab1\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\carlo\Gamelab\Gamelab1\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13452" windowHeight="7992"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13455" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="392">
   <si>
     <t>Planning</t>
   </si>
@@ -1103,9 +1103,6 @@
     <t>2D_ENVHOUSE_001</t>
   </si>
   <si>
-    <t>A lot of scripting stuff</t>
-  </si>
-  <si>
     <t>Start menu</t>
   </si>
   <si>
@@ -1118,17 +1115,98 @@
     <t>MolsPile</t>
   </si>
   <si>
-    <t>Castle Maken</t>
-  </si>
-  <si>
     <t>2D_ENVHOUSE</t>
+  </si>
+  <si>
+    <t>3D_ENVBRO</t>
+  </si>
+  <si>
+    <t>4U_ENVBRO</t>
+  </si>
+  <si>
+    <t>2D_Container</t>
+  </si>
+  <si>
+    <t>3D_Container</t>
+  </si>
+  <si>
+    <t>4U_container</t>
+  </si>
+  <si>
+    <t>2D_LegoCastle</t>
+  </si>
+  <si>
+    <t>3D_legocastle</t>
+  </si>
+  <si>
+    <t>4U_legoCastle</t>
+  </si>
+  <si>
+    <t>Scripts aanpassen</t>
+  </si>
+  <si>
+    <t>Scrips Doornemen en implementen</t>
+  </si>
+  <si>
+    <t>2D_ENVSPARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particles'&amp; Sound </t>
+  </si>
+  <si>
+    <t>Tekenen</t>
+  </si>
+  <si>
+    <t>2D_ENELEGO</t>
+  </si>
+  <si>
+    <t>3D_ENELEGO</t>
+  </si>
+  <si>
+    <t>4UENELEGO</t>
+  </si>
+  <si>
+    <t>5R_ENELEGO</t>
+  </si>
+  <si>
+    <t>6A_ENELEGO</t>
+  </si>
+  <si>
+    <t>Beginnen Presentatie Maken</t>
+  </si>
+  <si>
+    <t>Patticles &amp; Sound</t>
+  </si>
+  <si>
+    <t>Level Design</t>
+  </si>
+  <si>
+    <t>level Design</t>
+  </si>
+  <si>
+    <t>Q&amp;A Reports</t>
+  </si>
+  <si>
+    <t>2D_ENVBRO</t>
+  </si>
+  <si>
+    <t>Filling art</t>
+  </si>
+  <si>
+    <t>Tekenen , Implementatie</t>
+  </si>
+  <si>
+    <t>Leven Design</t>
+  </si>
+  <si>
+    <t>Buggs Fix Scripts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1180,6 +1258,13 @@
     </font>
     <font>
       <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1374,7 +1459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1412,7 +1497,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1425,7 +1509,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1733,18 +1819,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AC214"/>
+  <dimension ref="A2:AC217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G213" sqref="G213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1845,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="F3" t="s">
@@ -1771,19 +1857,19 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="F4" t="s">
         <v>193</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
       <c r="L4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
@@ -1829,7 +1915,7 @@
       </c>
       <c r="AB6" s="9"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
@@ -1873,7 +1959,7 @@
       </c>
       <c r="AB7" s="11"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1905,7 +1991,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="12"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1937,7 +2023,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="12"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
@@ -1981,7 +2067,7 @@
       </c>
       <c r="AB10" s="16"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2011,7 +2097,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="12"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
@@ -2053,7 +2139,7 @@
       </c>
       <c r="AB12" s="14"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
@@ -2099,7 +2185,7 @@
       </c>
       <c r="AB13" s="15"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
@@ -2143,7 +2229,7 @@
       </c>
       <c r="AB14" s="11"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
@@ -2183,7 +2269,7 @@
       </c>
       <c r="AB15" s="11"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
@@ -2221,7 +2307,7 @@
       </c>
       <c r="AB16" s="11"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
@@ -2257,7 +2343,7 @@
       </c>
       <c r="AB17" s="11"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
@@ -2293,7 +2379,7 @@
       </c>
       <c r="AB18" s="11"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
@@ -2329,7 +2415,7 @@
       </c>
       <c r="AB19" s="11"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
@@ -2365,7 +2451,7 @@
       </c>
       <c r="AB20" s="11"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
@@ -2401,7 +2487,7 @@
       </c>
       <c r="AB21" s="11"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
@@ -2439,7 +2525,7 @@
       </c>
       <c r="AB22" s="11"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
@@ -2471,7 +2557,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="12"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1" t="s">
@@ -2503,7 +2589,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="12"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
@@ -2535,7 +2621,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="12"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
@@ -2581,7 +2667,7 @@
       </c>
       <c r="AB26" s="15"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
@@ -2625,7 +2711,7 @@
       </c>
       <c r="AB27" s="11"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1" t="s">
@@ -2665,7 +2751,7 @@
       </c>
       <c r="AB28" s="11"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
@@ -2702,7 +2788,7 @@
       </c>
       <c r="AB29" s="11"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
@@ -2738,7 +2824,7 @@
       </c>
       <c r="AB30" s="16"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1" t="s">
@@ -2774,7 +2860,7 @@
       </c>
       <c r="AB31" s="16"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1" t="s">
@@ -2810,7 +2896,7 @@
       </c>
       <c r="AB32" s="16"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2842,7 +2928,7 @@
       </c>
       <c r="AB33" s="16"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2874,7 +2960,7 @@
       </c>
       <c r="AB34" s="16"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2906,7 +2992,7 @@
       </c>
       <c r="AB35" s="16"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2938,7 +3024,7 @@
       </c>
       <c r="AB36" s="16"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2968,7 +3054,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="12"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2998,7 +3084,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="12"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3028,7 +3114,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="12"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3058,7 +3144,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="12"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3088,7 +3174,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="12"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3118,7 +3204,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="12"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3148,7 +3234,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="12"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3178,7 +3264,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="12"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3208,7 +3294,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="12"/>
     </row>
-    <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3238,7 +3324,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="12"/>
     </row>
-    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3268,7 +3354,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="12"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3298,7 +3384,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="12"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>17</v>
       </c>
@@ -3344,7 +3430,7 @@
       </c>
       <c r="AB49" s="15"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
@@ -3388,7 +3474,7 @@
       </c>
       <c r="AB50" s="16"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1" t="s">
@@ -3428,7 +3514,7 @@
       </c>
       <c r="AB51" s="16"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1" t="s">
@@ -3468,7 +3554,7 @@
       </c>
       <c r="AB52" s="16"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1" t="s">
@@ -3508,7 +3594,7 @@
       </c>
       <c r="AB53" s="16"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1" t="s">
@@ -3546,7 +3632,7 @@
       </c>
       <c r="AB54" s="14"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1" t="s">
@@ -3582,7 +3668,7 @@
       </c>
       <c r="AB55" s="14"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1" t="s">
@@ -3618,7 +3704,7 @@
       </c>
       <c r="AB56" s="14"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1" t="s">
@@ -3652,7 +3738,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="12"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1" t="s">
@@ -3686,7 +3772,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="12"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="2"/>
       <c r="C59" s="21" t="s">
@@ -3720,7 +3806,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="12"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="2"/>
       <c r="C60" s="21" t="s">
@@ -3754,7 +3840,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="12"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1" t="s">
@@ -3788,7 +3874,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="12"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1" t="s">
@@ -3822,7 +3908,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="12"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1" t="s">
@@ -3856,7 +3942,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="12"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1" t="s">
@@ -3888,7 +3974,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="12"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1" t="s">
@@ -3920,7 +4006,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="12"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="2"/>
       <c r="C66" s="21" t="s">
@@ -3952,7 +4038,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="12"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3982,7 +4068,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="12"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4012,7 +4098,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="12"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4042,7 +4128,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="12"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4072,7 +4158,7 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="12"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>18</v>
       </c>
@@ -4118,7 +4204,7 @@
       </c>
       <c r="AB71" s="15"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="2"/>
       <c r="C72" s="21" t="s">
@@ -4162,7 +4248,7 @@
       </c>
       <c r="AB72" s="11"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1" t="s">
@@ -4204,7 +4290,7 @@
       </c>
       <c r="AB73" s="11"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="2"/>
       <c r="C74" s="21" t="s">
@@ -4244,7 +4330,7 @@
       </c>
       <c r="AB74" s="11"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="2"/>
       <c r="C75" s="4"/>
@@ -4278,9 +4364,9 @@
       <c r="AA75" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="AB75" s="39"/>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB75" s="38"/>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="2"/>
       <c r="C76" s="4"/>
@@ -4312,9 +4398,9 @@
       <c r="AA76" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="AB76" s="39"/>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB76" s="38"/>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="2"/>
       <c r="C77" s="4"/>
@@ -4346,9 +4432,9 @@
       <c r="AA77" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="AB77" s="39"/>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB77" s="38"/>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="2"/>
       <c r="C78" s="4"/>
@@ -4380,7 +4466,7 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="12"/>
     </row>
-    <row r="79" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4412,7 +4498,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="12"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4442,7 +4528,7 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="12"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4472,7 +4558,7 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="12"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4502,7 +4588,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="12"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4532,7 +4618,7 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="12"/>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4562,7 +4648,7 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="12"/>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4592,7 +4678,7 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="12"/>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4622,7 +4708,7 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="12"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4652,7 +4738,7 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="12"/>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>19</v>
       </c>
@@ -4698,7 +4784,7 @@
       </c>
       <c r="AB88" s="15"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="2"/>
       <c r="C89" s="31" t="s">
@@ -4713,16 +4799,16 @@
       <c r="H89" s="1"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
-      <c r="K89" s="2" t="s">
+      <c r="K89" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L89" s="2"/>
+      <c r="L89" s="1"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
-      <c r="O89" s="2" t="s">
+      <c r="O89" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P89" s="2"/>
+      <c r="P89" s="1"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
       <c r="S89" s="1" t="s">
@@ -4731,10 +4817,10 @@
       <c r="T89" s="1"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
-      <c r="W89" s="2" t="s">
+      <c r="W89" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="X89" s="2"/>
+      <c r="X89" s="1"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
       <c r="AA89" s="1" t="s">
@@ -4742,7 +4828,7 @@
       </c>
       <c r="AB89" s="11"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="2"/>
       <c r="C90" s="31" t="s">
@@ -4780,7 +4866,7 @@
       </c>
       <c r="AB90" s="11"/>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="2"/>
       <c r="C91" s="31" t="s">
@@ -4820,7 +4906,7 @@
       </c>
       <c r="AB91" s="11"/>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="2"/>
       <c r="C92" s="31" t="s">
@@ -4858,7 +4944,7 @@
       </c>
       <c r="AB92" s="11"/>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="2"/>
       <c r="C93" s="31" t="s">
@@ -4896,7 +4982,7 @@
       </c>
       <c r="AB93" s="11"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="2"/>
       <c r="C94" s="31" t="s">
@@ -4934,7 +5020,7 @@
       </c>
       <c r="AB94" s="11"/>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="2"/>
       <c r="C95" s="31" t="s">
@@ -4970,15 +5056,15 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="34"/>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -5006,7 +5092,7 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="12"/>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1" t="s">
@@ -5040,13 +5126,13 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="12"/>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D98" s="2"/>
+      <c r="D98" s="1"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -5065,16 +5151,16 @@
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
-      <c r="W98" s="4" t="s">
+      <c r="W98" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
       <c r="AB98" s="12"/>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1" t="s">
@@ -5106,7 +5192,7 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="12"/>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1" t="s">
@@ -5138,7 +5224,7 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="12"/>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5168,7 +5254,7 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="12"/>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>20</v>
       </c>
@@ -5214,7 +5300,7 @@
       </c>
       <c r="AB102" s="15"/>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
@@ -5244,7 +5330,7 @@
       <c r="AA103" s="28"/>
       <c r="AB103" s="33"/>
     </row>
-    <row r="104" spans="1:28" ht="91.8" x14ac:dyDescent="1.65">
+    <row r="104" spans="1:28" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A104" s="10"/>
       <c r="B104" s="28"/>
       <c r="C104" s="27" t="s">
@@ -5280,7 +5366,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="5"/>
       <c r="C105" s="26"/>
@@ -5310,7 +5396,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="33"/>
     </row>
-    <row r="106" spans="1:28" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:28" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10"/>
       <c r="B106" s="5"/>
       <c r="C106" s="29"/>
@@ -5340,7 +5426,7 @@
       <c r="AA106" s="26"/>
       <c r="AB106" s="14"/>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="5"/>
       <c r="C107" s="26"/>
@@ -5370,7 +5456,7 @@
       <c r="AA107" s="26"/>
       <c r="AB107" s="14"/>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="5"/>
       <c r="C108" s="26"/>
@@ -5400,7 +5486,7 @@
       <c r="AA108" s="26"/>
       <c r="AB108" s="14"/>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="5"/>
       <c r="C109" s="26"/>
@@ -5430,7 +5516,7 @@
       <c r="AA109" s="26"/>
       <c r="AB109" s="14"/>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="5"/>
       <c r="C110" s="26"/>
@@ -5460,7 +5546,7 @@
       <c r="AA110" s="26"/>
       <c r="AB110" s="14"/>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>21</v>
       </c>
@@ -5506,7 +5592,7 @@
       </c>
       <c r="AB111" s="15"/>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="4"/>
       <c r="C112" s="30" t="s">
@@ -5515,10 +5601,10 @@
       <c r="D112" s="30"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
-      <c r="G112" s="40" t="s">
+      <c r="G112" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H112" s="40"/>
+      <c r="H112" s="39"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="1" t="s">
@@ -5545,12 +5631,12 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
-      <c r="AA112" s="22" t="s">
+      <c r="AA112" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AB112" s="37"/>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB112" s="11"/>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="2"/>
       <c r="C113" s="30" t="s">
@@ -5585,12 +5671,12 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
-      <c r="AA113" s="22" t="s">
+      <c r="AA113" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AB113" s="37"/>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB113" s="11"/>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="2"/>
       <c r="C114" s="30" t="s">
@@ -5625,12 +5711,12 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
-      <c r="AA114" s="22" t="s">
+      <c r="AA114" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AB114" s="37"/>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB114" s="11"/>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="2"/>
       <c r="C115" s="32" t="s">
@@ -5668,7 +5754,7 @@
       </c>
       <c r="AB115" s="11"/>
     </row>
-    <row r="116" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="2"/>
       <c r="C116" s="32" t="s">
@@ -5706,7 +5792,7 @@
       </c>
       <c r="AB116" s="11"/>
     </row>
-    <row r="117" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="2"/>
       <c r="C117" s="32" t="s">
@@ -5738,7 +5824,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="11"/>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="2"/>
       <c r="C118" s="4" t="s">
@@ -5759,10 +5845,10 @@
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
-      <c r="S118" s="2" t="s">
+      <c r="S118" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="T118" s="2"/>
+      <c r="T118" s="1"/>
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
       <c r="W118" s="1" t="s">
@@ -5776,7 +5862,7 @@
       </c>
       <c r="AB118" s="11"/>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="24" t="s">
         <v>22</v>
@@ -5820,7 +5906,7 @@
       <c r="AA119" s="24"/>
       <c r="AB119" s="25"/>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>214</v>
       </c>
@@ -5867,7 +5953,7 @@
       <c r="AB120" s="15"/>
       <c r="AC120" s="2"/>
     </row>
-    <row r="121" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -5910,7 +5996,7 @@
       <c r="AB121" s="18"/>
       <c r="AC121" s="2"/>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="4"/>
       <c r="C122" s="1" t="s">
@@ -5947,7 +6033,7 @@
       <c r="Z122" s="4"/>
       <c r="AC122" s="2"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="4"/>
       <c r="C123" s="1" t="s">
@@ -5982,7 +6068,7 @@
       <c r="Z123" s="4"/>
       <c r="AC123" s="2"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="4"/>
       <c r="C124" s="1" t="s">
@@ -6009,16 +6095,17 @@
       <c r="T124" s="1"/>
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
-      <c r="W124" t="s">
+      <c r="W124" s="18" t="s">
         <v>306</v>
       </c>
+      <c r="X124" s="18"/>
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
       <c r="AB124" s="4"/>
       <c r="AC124" s="2"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="4"/>
       <c r="C125" s="1" t="s">
@@ -6043,17 +6130,17 @@
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
-      <c r="W125" s="43" t="s">
+      <c r="W125" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="X125" s="43"/>
+      <c r="X125" s="42"/>
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
       <c r="AB125" s="4"/>
       <c r="AC125" s="2"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="4"/>
       <c r="C126" s="1" t="s">
@@ -6078,17 +6165,17 @@
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
-      <c r="W126" s="43" t="s">
+      <c r="W126" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="X126" s="43"/>
+      <c r="X126" s="42"/>
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
       <c r="AB126" s="4"/>
       <c r="AC126" s="2"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="4"/>
       <c r="E127" s="4"/>
@@ -6117,7 +6204,7 @@
       <c r="AB127" s="4"/>
       <c r="AC127" s="2"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="4"/>
       <c r="E128" s="4"/>
@@ -6146,7 +6233,7 @@
       <c r="AB128" s="4"/>
       <c r="AC128" s="2"/>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="4"/>
       <c r="E129" s="4"/>
@@ -6175,7 +6262,7 @@
       <c r="AB129" s="4"/>
       <c r="AC129" s="2"/>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -6206,7 +6293,7 @@
       <c r="AB130" s="4"/>
       <c r="AC130" s="2"/>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -6237,7 +6324,7 @@
       <c r="AB131" s="4"/>
       <c r="AC131" s="2"/>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>215</v>
       </c>
@@ -6284,7 +6371,7 @@
       <c r="AB132" s="15"/>
       <c r="AC132" s="2"/>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="4"/>
       <c r="C133" s="1" t="s">
@@ -6329,7 +6416,7 @@
       <c r="AB133" s="18"/>
       <c r="AC133" s="2"/>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="4"/>
       <c r="C134" s="1" t="s">
@@ -6368,7 +6455,7 @@
       <c r="AB134" s="18"/>
       <c r="AC134" s="2"/>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -6403,7 +6490,7 @@
       <c r="AB135" s="1"/>
       <c r="AC135" s="2"/>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -6436,7 +6523,7 @@
       <c r="AB136" s="1"/>
       <c r="AC136" s="2"/>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21" t="s">
@@ -6475,7 +6562,7 @@
       <c r="AB137" s="21"/>
       <c r="AC137" s="2"/>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6506,7 +6593,7 @@
       <c r="AB138" s="4"/>
       <c r="AC138" s="2"/>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -6537,7 +6624,7 @@
       <c r="AB139" s="4"/>
       <c r="AC139" s="2"/>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -6568,7 +6655,7 @@
       <c r="AB140" s="4"/>
       <c r="AC140" s="2"/>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -6599,7 +6686,7 @@
       <c r="AB141" s="4"/>
       <c r="AC141" s="2"/>
     </row>
-    <row r="142" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>216</v>
       </c>
@@ -6646,7 +6733,7 @@
       <c r="AB142" s="6"/>
       <c r="AC142" s="2"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="4"/>
       <c r="C143" s="1" t="s">
@@ -6691,7 +6778,7 @@
       <c r="AB143" s="5"/>
       <c r="AC143" s="2"/>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="4"/>
       <c r="C144" s="1" t="s">
@@ -6730,7 +6817,7 @@
       <c r="AB144" s="5"/>
       <c r="AC144" s="2"/>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="4"/>
       <c r="C145" s="18" t="s">
@@ -6769,7 +6856,7 @@
       <c r="AB145" s="5"/>
       <c r="AC145" s="2"/>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="4"/>
       <c r="C146" s="18" t="s">
@@ -6806,7 +6893,7 @@
       <c r="AB146" s="4"/>
       <c r="AC146" s="2"/>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="4"/>
       <c r="C147" s="18" t="s">
@@ -6841,7 +6928,7 @@
       <c r="AB147" s="4"/>
       <c r="AC147" s="2"/>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="4"/>
       <c r="C148" s="18" t="s">
@@ -6866,17 +6953,17 @@
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
-      <c r="W148" s="40" t="s">
+      <c r="W148" s="39" t="s">
         <v>329</v>
       </c>
-      <c r="X148" s="40"/>
+      <c r="X148" s="39"/>
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
       <c r="AA148" s="4"/>
       <c r="AB148" s="4"/>
       <c r="AC148" s="2"/>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="4"/>
       <c r="C149" s="18" t="s">
@@ -6901,17 +6988,17 @@
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
-      <c r="W149" s="40" t="s">
+      <c r="W149" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="X149" s="40"/>
+      <c r="X149" s="39"/>
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
       <c r="AA149" s="4"/>
       <c r="AB149" s="4"/>
       <c r="AC149" s="2"/>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="4"/>
       <c r="C150" s="18" t="s">
@@ -6946,7 +7033,7 @@
       <c r="AB150" s="21"/>
       <c r="AC150" s="2"/>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4" t="s">
@@ -6991,8 +7078,8 @@
       <c r="AB151" s="4"/>
       <c r="AC151" s="2"/>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A152" s="44" t="s">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A152" s="43" t="s">
         <v>217</v>
       </c>
       <c r="B152" s="6"/>
@@ -7038,68 +7125,69 @@
       <c r="AB152" s="6"/>
       <c r="AC152" s="2"/>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="5" t="s">
         <v>224</v>
       </c>
+      <c r="D153" s="19"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="4" t="s">
+      <c r="G153" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
       <c r="J153" s="4"/>
-      <c r="K153" s="4" t="s">
+      <c r="K153" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
       <c r="N153" s="4"/>
-      <c r="O153" s="4" t="s">
+      <c r="O153" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="P153" s="4"/>
-      <c r="Q153" s="4"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
       <c r="R153" s="4"/>
-      <c r="S153" s="4" t="s">
+      <c r="S153" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="T153" s="4"/>
+      <c r="T153" s="1"/>
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
-      <c r="W153" s="50" t="s">
+      <c r="W153" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="X153" s="50"/>
+      <c r="X153" s="49"/>
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
-      <c r="AA153" s="40" t="s">
+      <c r="AA153" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AB153" s="40"/>
+      <c r="AB153" s="1"/>
       <c r="AC153" s="2"/>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="49" t="s">
+      <c r="C154" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="D154" s="49"/>
+      <c r="D154" s="18"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-      <c r="K154" s="4" t="s">
+      <c r="K154" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
       <c r="P154" s="4"/>
@@ -7111,36 +7199,36 @@
       <c r="T154" s="1"/>
       <c r="U154" s="4"/>
       <c r="V154" s="4"/>
-      <c r="W154" s="50" t="s">
+      <c r="W154" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="X154" s="50"/>
+      <c r="X154" s="49"/>
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
-      <c r="AA154" s="40" t="s">
+      <c r="AA154" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AB154" s="40"/>
+      <c r="AB154" s="1"/>
       <c r="AC154" s="2"/>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="40" t="s">
+      <c r="C155" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D155" s="40"/>
+      <c r="D155" s="1"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
-      <c r="K155" s="4" t="s">
+      <c r="K155" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
       <c r="P155" s="4"/>
@@ -7152,25 +7240,25 @@
       <c r="T155" s="1"/>
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
-      <c r="W155" s="46" t="s">
+      <c r="W155" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="X155" s="46"/>
-      <c r="Y155" s="4"/>
+      <c r="X155" s="18"/>
+      <c r="Y155" s="1"/>
       <c r="Z155" s="4"/>
-      <c r="AA155" s="40" t="s">
+      <c r="AA155" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AB155" s="40"/>
+      <c r="AB155" s="1"/>
       <c r="AC155" s="2"/>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="40" t="s">
+      <c r="C156" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D156" s="40"/>
+      <c r="D156" s="1"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -7185,138 +7273,138 @@
       <c r="P156" s="2"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
-      <c r="S156" s="40" t="s">
+      <c r="S156" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="T156" s="40"/>
+      <c r="T156" s="1"/>
       <c r="U156" s="2"/>
       <c r="V156" s="2"/>
       <c r="Y156" s="2"/>
       <c r="Z156" s="4"/>
-      <c r="AA156" s="40" t="s">
+      <c r="AA156" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AB156" s="40"/>
+      <c r="AB156" s="1"/>
       <c r="AC156" s="2"/>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
-      <c r="C157" s="40" t="s">
+      <c r="C157" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D157" s="40"/>
-      <c r="S157" s="40" t="s">
+      <c r="D157" s="1"/>
+      <c r="S157" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="T157" s="49"/>
+      <c r="T157" s="18"/>
       <c r="Z157" s="2"/>
-      <c r="AA157" s="4" t="s">
+      <c r="AA157" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AB157" s="2"/>
+      <c r="AB157" s="1"/>
       <c r="AC157" s="2"/>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
-      <c r="C158" s="40" t="s">
+      <c r="C158" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D158" s="40"/>
-      <c r="S158" s="40" t="s">
+      <c r="D158" s="1"/>
+      <c r="S158" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="T158" s="49"/>
+      <c r="T158" s="18"/>
       <c r="W158" s="4"/>
       <c r="Z158" s="2"/>
-      <c r="AA158" s="40" t="s">
+      <c r="AA158" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AB158" s="40"/>
+      <c r="AB158" s="1"/>
       <c r="AC158" s="2"/>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
-      <c r="C159" s="40" t="s">
+      <c r="C159" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D159" s="40"/>
-      <c r="S159" s="40" t="s">
+      <c r="D159" s="1"/>
+      <c r="S159" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="T159" s="49"/>
+      <c r="T159" s="18"/>
       <c r="W159" s="4"/>
       <c r="Z159" s="2"/>
-      <c r="AA159" s="40" t="s">
+      <c r="AA159" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AB159" s="40"/>
+      <c r="AB159" s="1"/>
       <c r="AC159" s="2"/>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
-      <c r="C160" s="49" t="s">
+      <c r="C160" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="D160" s="49"/>
+      <c r="D160" s="18"/>
       <c r="W160" s="4"/>
       <c r="Z160" s="2"/>
-      <c r="AA160" s="40" t="s">
+      <c r="AA160" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AB160" s="40"/>
+      <c r="AB160" s="1"/>
       <c r="AC160" s="2"/>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
-      <c r="C161" s="49" t="s">
+      <c r="C161" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="D161" s="49"/>
+      <c r="D161" s="18"/>
       <c r="W161" s="4"/>
       <c r="Z161" s="2"/>
-      <c r="AA161" s="40" t="s">
+      <c r="AA161" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AB161" s="40"/>
+      <c r="AB161" s="1"/>
       <c r="AC161" s="2"/>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
-      <c r="C162" s="49" t="s">
+      <c r="C162" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D162" s="49"/>
+      <c r="D162" s="18"/>
       <c r="W162" s="4"/>
       <c r="Z162" s="2"/>
       <c r="AA162" s="4"/>
       <c r="AB162" s="2"/>
       <c r="AC162" s="2"/>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
-      <c r="C163" s="49" t="s">
+      <c r="C163" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="D163" s="49"/>
+      <c r="D163" s="18"/>
       <c r="W163" s="4"/>
       <c r="Z163" s="2"/>
       <c r="AA163" s="4"/>
       <c r="AB163" s="2"/>
       <c r="AC163" s="2"/>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
-      <c r="C164" s="49" t="s">
+      <c r="C164" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D164" s="49"/>
+      <c r="D164" s="18"/>
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
       <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A165" s="44" t="s">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A165" s="43" t="s">
         <v>218</v>
       </c>
       <c r="B165" s="6"/>
@@ -7362,45 +7450,54 @@
       <c r="AB165" s="6"/>
       <c r="AC165" s="2"/>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
-      <c r="C166" t="s">
+      <c r="C166" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="G166" t="s">
-        <v>359</v>
-      </c>
+      <c r="D166" s="18"/>
+      <c r="G166" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="H166" s="18"/>
       <c r="J166" s="4"/>
-      <c r="K166" s="4" t="s">
+      <c r="K166" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L166" s="4"/>
-      <c r="S166" s="40" t="s">
+      <c r="L166" s="1"/>
+      <c r="M166" s="18"/>
+      <c r="O166" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="P166" s="18"/>
+      <c r="Q166" s="18"/>
+      <c r="S166" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="T166" s="40"/>
+      <c r="T166" s="1"/>
       <c r="W166" s="18" t="s">
         <v>247</v>
       </c>
       <c r="X166" s="18"/>
       <c r="Z166" s="4"/>
-      <c r="AA166" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB166" s="4"/>
+      <c r="AA166" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB166" s="1"/>
       <c r="AC166" s="2"/>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A167" s="44"/>
-      <c r="C167" t="s">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A167" s="43"/>
+      <c r="C167" s="18" t="s">
         <v>278</v>
       </c>
+      <c r="D167" s="18"/>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
-      <c r="S167" s="40" t="s">
+      <c r="S167" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="T167" s="40"/>
+      <c r="T167" s="1"/>
       <c r="W167" s="18" t="s">
         <v>248</v>
       </c>
@@ -7410,28 +7507,29 @@
       <c r="AB167" s="4"/>
       <c r="AC167" s="2"/>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
-      <c r="C168" t="s">
+      <c r="C168" s="18" t="s">
         <v>279</v>
       </c>
+      <c r="D168" s="18"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
-      <c r="S168" s="40" t="s">
+      <c r="S168" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="T168" s="40"/>
+      <c r="T168" s="1"/>
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
       <c r="AB168" s="4"/>
       <c r="AC168" s="2"/>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
-      <c r="C169" s="49" t="s">
+      <c r="C169" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="D169" s="49"/>
+      <c r="D169" s="18"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
       <c r="Z169" s="4"/>
@@ -7439,38 +7537,40 @@
       <c r="AB169" s="4"/>
       <c r="AC169" s="2"/>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A170" s="44"/>
-      <c r="C170" s="49" t="s">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A170" s="43"/>
+      <c r="C170" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="D170" s="49"/>
+      <c r="D170" s="18"/>
       <c r="Z170" s="2"/>
       <c r="AA170" s="4"/>
       <c r="AB170" s="2"/>
       <c r="AC170" s="2"/>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
-      <c r="C171" s="49" t="s">
+      <c r="C171" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D171" s="49"/>
-      <c r="W171" s="49" t="s">
+      <c r="D171" s="18"/>
+      <c r="W171" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="X171" s="49"/>
+      <c r="X171" s="48"/>
       <c r="Z171" s="2"/>
       <c r="AA171" s="4"/>
       <c r="AB171" s="2"/>
       <c r="AC171" s="2"/>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
-      <c r="W172" s="49" t="s">
+      <c r="C172" s="18"/>
+      <c r="D172" s="18"/>
+      <c r="W172" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="X172" s="49"/>
+      <c r="X172" s="48"/>
       <c r="Z172" s="2"/>
       <c r="AA172" s="21" t="s">
         <v>333</v>
@@ -7478,24 +7578,24 @@
       <c r="AB172" s="21"/>
       <c r="AC172" s="2"/>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
-      <c r="C173" s="49" t="s">
+      <c r="C173" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="D173" s="49"/>
-      <c r="W173" s="46" t="s">
+      <c r="D173" s="18"/>
+      <c r="W173" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="X173" s="46"/>
-      <c r="Y173" s="46"/>
+      <c r="X173" s="18"/>
+      <c r="Y173" s="45"/>
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
       <c r="AB173" s="4"/>
       <c r="AC173" s="2"/>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A174" s="44" t="s">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A174" s="43" t="s">
         <v>219</v>
       </c>
       <c r="B174" s="6"/>
@@ -7541,123 +7641,130 @@
       <c r="AB174" s="6"/>
       <c r="AC174" s="2"/>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
-      <c r="C175" s="49" t="s">
+      <c r="C175" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="D175" s="49"/>
-      <c r="G175" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="H175" s="4"/>
-      <c r="K175" s="4" t="s">
+      <c r="D175" s="18"/>
+      <c r="G175" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H175" s="1"/>
+      <c r="K175" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L175" s="4"/>
-      <c r="S175" s="49" t="s">
+      <c r="L175" s="1"/>
+      <c r="O175" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="P175" s="18"/>
+      <c r="Q175" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="S175" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="T175" s="49"/>
-      <c r="W175" s="49" t="s">
+      <c r="T175" s="18"/>
+      <c r="W175" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="X175" s="49"/>
+      <c r="X175" s="18"/>
       <c r="Z175" s="2"/>
-      <c r="AA175" s="4" t="s">
-        <v>362</v>
+      <c r="AA175" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="AB175" s="4"/>
       <c r="AC175" s="2"/>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
-      <c r="C176" s="49" t="s">
+      <c r="C176" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D176" s="49"/>
+      <c r="D176" s="18"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
-      <c r="S176" s="49" t="s">
+      <c r="S176" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="T176" s="49"/>
-      <c r="W176" s="49" t="s">
+      <c r="T176" s="18"/>
+      <c r="W176" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="X176" s="49"/>
+      <c r="X176" s="18"/>
       <c r="Z176" s="2"/>
       <c r="AA176" s="4"/>
       <c r="AB176" s="4"/>
       <c r="AC176" s="2"/>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
-      <c r="C177" s="49" t="s">
+      <c r="C177" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D177" s="49"/>
+      <c r="D177" s="18"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
-      <c r="S177" s="49" t="s">
+      <c r="S177" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="T177" s="49"/>
-      <c r="W177" s="46" t="s">
+      <c r="T177" s="18"/>
+      <c r="W177" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="X177" s="46"/>
+      <c r="X177" s="18"/>
       <c r="Z177" s="2"/>
       <c r="AA177" s="4"/>
       <c r="AB177" s="2"/>
       <c r="AC177" s="2"/>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="G178" s="4"/>
       <c r="H178" s="2"/>
-      <c r="W178" s="49" t="s">
+      <c r="W178" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="X178" s="49"/>
+      <c r="X178" s="18"/>
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
       <c r="AB178" s="2"/>
       <c r="AC178" s="2"/>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="G179" s="4"/>
-      <c r="W179" s="49" t="s">
+      <c r="W179" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="X179" s="49"/>
+      <c r="X179" s="18"/>
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
       <c r="AC179" s="2"/>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="G180" s="4"/>
-      <c r="W180" s="49" t="s">
+      <c r="W180" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="X180" s="49"/>
+      <c r="X180" s="18"/>
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
       <c r="AB180" s="2"/>
       <c r="AC180" s="2"/>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
       <c r="AB181" s="2"/>
       <c r="AC181" s="2"/>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A182" s="44" t="s">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A182" s="43" t="s">
         <v>220</v>
       </c>
       <c r="B182" s="6"/>
@@ -7703,150 +7810,160 @@
       <c r="AB182" s="6"/>
       <c r="AC182" s="2"/>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
-      <c r="C183" s="5" t="s">
+      <c r="C183" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D183" s="5"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
-      <c r="K183" s="4" t="s">
+      <c r="D183" s="32"/>
+      <c r="G183" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="H183" s="18"/>
+      <c r="K183" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="L183" s="4"/>
-      <c r="S183" s="49" t="s">
+      <c r="L183" s="1"/>
+      <c r="O183" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="P183" s="18"/>
+      <c r="Q183" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="R183" s="18"/>
+      <c r="S183" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="T183" s="49"/>
-      <c r="W183" s="49" t="s">
+      <c r="T183" s="18"/>
+      <c r="W183" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="X183" s="49"/>
+      <c r="X183" s="18"/>
       <c r="Z183" s="2"/>
-      <c r="AA183" s="40" t="s">
+      <c r="AA183" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AB183" s="40"/>
+      <c r="AB183" s="1"/>
       <c r="AC183" s="2"/>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="D184" s="5"/>
-      <c r="G184" s="4"/>
-      <c r="H184" s="4"/>
-      <c r="S184" s="49" t="s">
+      <c r="D184" s="32"/>
+      <c r="G184" s="18"/>
+      <c r="H184" s="18"/>
+      <c r="S184" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="T184" s="49"/>
-      <c r="W184" s="49" t="s">
+      <c r="T184" s="18"/>
+      <c r="W184" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="X184" s="49"/>
+      <c r="X184" s="18"/>
       <c r="Z184" s="2"/>
-      <c r="AA184" s="40" t="s">
+      <c r="AA184" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AB184" s="40"/>
+      <c r="AB184" s="1"/>
       <c r="AC184" s="2"/>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
-      <c r="C185" s="5" t="s">
+      <c r="C185" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D185" s="5"/>
+      <c r="D185" s="32"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
-      <c r="S185" s="49" t="s">
+      <c r="S185" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="T185" s="49"/>
-      <c r="W185" s="49" t="s">
+      <c r="T185" s="18"/>
+      <c r="W185" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="X185" s="49"/>
-      <c r="AA185" s="40" t="s">
+      <c r="X185" s="18"/>
+      <c r="AA185" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AB185" s="40"/>
-    </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AB185" s="1"/>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="D186" s="5"/>
+      <c r="D186" s="32"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
-      <c r="S186" s="49" t="s">
+      <c r="S186" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="T186" s="49"/>
-      <c r="W186" s="49" t="s">
+      <c r="T186" s="18"/>
+      <c r="W186" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="X186" s="49"/>
-    </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X186" s="18"/>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
-      <c r="C187" s="4" t="s">
+      <c r="C187" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D187" s="2"/>
-      <c r="S187" s="49" t="s">
+      <c r="D187" s="5"/>
+      <c r="S187" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="T187" s="49"/>
-      <c r="W187" s="49" t="s">
+      <c r="T187" s="18"/>
+      <c r="W187" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="X187" s="49"/>
-    </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X187" s="18"/>
+    </row>
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
-      <c r="W188" s="49" t="s">
+      <c r="W188" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="X188" s="49"/>
-    </row>
-    <row r="189" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X188" s="18"/>
+    </row>
+    <row r="189" spans="1:29" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="W189" s="20" t="s">
         <v>334</v>
       </c>
       <c r="X189" s="20"/>
     </row>
-    <row r="190" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:29" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
-      <c r="W190" s="4" t="s">
+      <c r="W190" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="X190" s="4"/>
-    </row>
-    <row r="191" spans="1:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X190" s="1"/>
+    </row>
+    <row r="191" spans="1:29" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
-      <c r="W191" s="4" t="s">
+      <c r="W191" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="X191" s="2"/>
-    </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X191" s="1"/>
+    </row>
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
-      <c r="W192" s="4" t="s">
+      <c r="W192" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="X192" s="2"/>
-      <c r="Y192" s="46"/>
-      <c r="Z192" s="46"/>
-      <c r="AA192" s="46"/>
-      <c r="AB192" s="46"/>
-    </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A193" s="44" t="s">
+      <c r="X192" s="1"/>
+      <c r="Y192" s="45"/>
+      <c r="Z192" s="45"/>
+      <c r="AA192" s="45"/>
+      <c r="AB192" s="45"/>
+    </row>
+    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A193" s="43" t="s">
         <v>222</v>
       </c>
       <c r="B193" s="6"/>
@@ -7891,19 +8008,19 @@
       </c>
       <c r="AB193" s="15"/>
     </row>
-    <row r="194" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="194" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A194" s="10"/>
-      <c r="C194" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="D194" s="45" t="s">
+      <c r="C194" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="D194" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="AA194" s="19" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA194" s="18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>221</v>
       </c>
@@ -7949,19 +8066,31 @@
       </c>
       <c r="AB195" s="15"/>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
-    </row>
-    <row r="197" spans="1:28" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="B196" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="C196" s="18"/>
+    </row>
+    <row r="197" spans="1:29" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A197" s="10"/>
-      <c r="D197" s="45" t="s">
+      <c r="B197" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="C197" s="18"/>
+      <c r="D197" s="44" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
-    </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B198" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C198" s="18"/>
+    </row>
+    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>335</v>
       </c>
@@ -8007,61 +8136,98 @@
       </c>
       <c r="AB199" s="15"/>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
-      <c r="C200" t="s">
-        <v>365</v>
-      </c>
-      <c r="G200" t="s">
+      <c r="C200" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="D200" s="18"/>
+      <c r="G200" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="H200" s="18"/>
+      <c r="K200" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L200" s="1"/>
+      <c r="O200" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="K200" t="s">
-        <v>354</v>
-      </c>
-      <c r="O200" t="s">
-        <v>354</v>
-      </c>
-      <c r="S200" t="s">
-        <v>354</v>
-      </c>
-      <c r="W200" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA200" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P200" s="18"/>
+      <c r="S200" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="W200" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="X200" s="18"/>
+      <c r="AA200" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB200" s="18"/>
+    </row>
+    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
-      <c r="G201" t="s">
-        <v>355</v>
-      </c>
-      <c r="K201" t="s">
-        <v>355</v>
-      </c>
-      <c r="O201" t="s">
-        <v>355</v>
-      </c>
-      <c r="S201" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA201" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C201" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="D201" s="18"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="4"/>
+      <c r="W201" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="X201" s="18"/>
+      <c r="AA201" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB201" s="18"/>
+    </row>
+    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
-    </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C202" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D202" s="18"/>
+      <c r="K202" s="45"/>
+      <c r="L202" s="45"/>
+      <c r="W202" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="X202" s="18"/>
+      <c r="AA202" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB202" s="18"/>
+    </row>
+    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
-    </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C203" s="45"/>
+      <c r="D203" s="45"/>
+      <c r="W203" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="X203" s="18"/>
+      <c r="AA203" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB203" s="18"/>
+    </row>
+    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
-    </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C204" s="45"/>
+      <c r="D204" s="45"/>
+      <c r="AA204" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB204" s="18"/>
+    </row>
+    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
-    </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C205" s="45"/>
+      <c r="D205" s="45"/>
+    </row>
+    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>336</v>
       </c>
@@ -8107,210 +8273,303 @@
       </c>
       <c r="AB206" s="15"/>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="4"/>
-      <c r="C207" t="s">
-        <v>355</v>
-      </c>
-      <c r="G207" t="s">
-        <v>355</v>
-      </c>
-      <c r="K207" t="s">
-        <v>355</v>
-      </c>
-      <c r="O207" t="s">
-        <v>355</v>
-      </c>
-      <c r="S207" t="s">
-        <v>355</v>
-      </c>
-      <c r="W207" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA207" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="208" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C207" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D207" s="18"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="45"/>
+      <c r="G207" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="H207" s="18"/>
+      <c r="I207" s="18"/>
+      <c r="J207" s="45"/>
+      <c r="K207" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="L207" s="18"/>
+      <c r="M207" s="18"/>
+      <c r="N207" s="45"/>
+      <c r="O207" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P207" s="18"/>
+      <c r="Q207" s="18"/>
+      <c r="R207" s="45"/>
+      <c r="S207" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="T207" s="18"/>
+      <c r="U207" s="18"/>
+      <c r="V207" s="45"/>
+      <c r="W207" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="X207" s="18"/>
+      <c r="Y207" s="18"/>
+      <c r="AA207" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB207" s="18"/>
+      <c r="AC207" s="45"/>
+    </row>
+    <row r="208" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
+      <c r="C208" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D208" s="1"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
-      <c r="G208" s="4"/>
-      <c r="H208" s="4"/>
+      <c r="G208" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H208" s="1"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
-      <c r="K208" s="4"/>
-      <c r="L208" s="4"/>
-      <c r="M208" s="4"/>
+      <c r="K208" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L208" s="1"/>
       <c r="N208" s="4"/>
-      <c r="O208" s="4"/>
-      <c r="P208" s="4"/>
+      <c r="O208" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="P208" s="1"/>
       <c r="Q208" s="4"/>
       <c r="R208" s="4"/>
-      <c r="S208" s="4"/>
+      <c r="S208" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="T208" s="4"/>
       <c r="U208" s="4"/>
       <c r="V208" s="4"/>
-      <c r="W208" s="4"/>
-      <c r="X208" s="4"/>
+      <c r="W208" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="X208" s="1"/>
       <c r="Y208" s="4"/>
       <c r="Z208" s="4"/>
-      <c r="AA208" s="4"/>
-      <c r="AB208" s="4"/>
-    </row>
-    <row r="209" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="AA208" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB208" s="1"/>
+    </row>
+    <row r="209" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A209" s="10"/>
-      <c r="B209" s="41"/>
-      <c r="C209" s="47"/>
-      <c r="D209" s="48"/>
-      <c r="E209" s="48"/>
-      <c r="F209" s="48"/>
-      <c r="G209" s="47"/>
-      <c r="H209" s="48"/>
-      <c r="I209" s="48"/>
-      <c r="J209" s="48"/>
-      <c r="K209" s="47"/>
-      <c r="L209" s="48"/>
-      <c r="M209" s="48"/>
-      <c r="N209" s="48"/>
-      <c r="O209" s="48"/>
-      <c r="P209" s="47"/>
-      <c r="Q209" s="48"/>
-      <c r="R209" s="48"/>
-      <c r="S209" s="48"/>
-      <c r="T209" s="48"/>
-      <c r="U209" s="47"/>
-      <c r="V209" s="48"/>
-      <c r="W209" s="48"/>
-      <c r="X209" s="48"/>
-      <c r="Y209" s="47"/>
-      <c r="Z209" s="48"/>
-      <c r="AA209" s="48"/>
-      <c r="AB209" s="42"/>
-    </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A210" s="10" t="s">
+      <c r="B209" s="40"/>
+      <c r="C209" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="D209" s="51"/>
+      <c r="E209" s="47"/>
+      <c r="F209" s="47"/>
+      <c r="G209" s="46"/>
+      <c r="H209" s="47"/>
+      <c r="I209" s="47"/>
+      <c r="J209" s="47"/>
+      <c r="K209" s="46"/>
+      <c r="L209" s="47"/>
+      <c r="M209" s="47"/>
+      <c r="N209" s="47"/>
+      <c r="O209" s="47"/>
+      <c r="P209" s="46"/>
+      <c r="Q209" s="47"/>
+      <c r="R209" s="47"/>
+      <c r="S209" s="47"/>
+      <c r="T209" s="47"/>
+      <c r="U209" s="46"/>
+      <c r="V209" s="47"/>
+      <c r="W209" s="47"/>
+      <c r="X209" s="47"/>
+      <c r="Y209" s="46"/>
+      <c r="Z209" s="47"/>
+      <c r="AA209" s="47"/>
+      <c r="AB209" s="41"/>
+    </row>
+    <row r="210" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A210" s="10"/>
+      <c r="B210" s="40"/>
+      <c r="C210" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="D210" s="51"/>
+      <c r="E210" s="47"/>
+      <c r="F210" s="47"/>
+      <c r="G210" s="46"/>
+      <c r="H210" s="47"/>
+      <c r="I210" s="47"/>
+      <c r="J210" s="47"/>
+      <c r="K210" s="46"/>
+      <c r="L210" s="47"/>
+      <c r="M210" s="47"/>
+      <c r="N210" s="47"/>
+      <c r="O210" s="47"/>
+      <c r="P210" s="46"/>
+      <c r="Q210" s="47"/>
+      <c r="R210" s="47"/>
+      <c r="S210" s="47"/>
+      <c r="T210" s="47"/>
+      <c r="U210" s="46"/>
+      <c r="V210" s="47"/>
+      <c r="W210" s="47"/>
+      <c r="X210" s="47"/>
+      <c r="Y210" s="46"/>
+      <c r="Z210" s="47"/>
+      <c r="AA210" s="47"/>
+      <c r="AB210" s="41"/>
+    </row>
+    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A211" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B210" s="6"/>
-      <c r="C210" s="6" t="s">
+      <c r="B211" s="6"/>
+      <c r="C211" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
-      <c r="F210" s="6"/>
-      <c r="G210" s="6" t="s">
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H210" s="6"/>
-      <c r="I210" s="6"/>
-      <c r="J210" s="6"/>
-      <c r="K210" s="6" t="s">
+      <c r="H211" s="6"/>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L210" s="6"/>
-      <c r="M210" s="6"/>
-      <c r="N210" s="6"/>
-      <c r="O210" s="6" t="s">
+      <c r="L211" s="6"/>
+      <c r="M211" s="6"/>
+      <c r="N211" s="6"/>
+      <c r="O211" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P210" s="6"/>
-      <c r="Q210" s="6"/>
-      <c r="R210" s="6"/>
-      <c r="S210" s="6" t="s">
+      <c r="P211" s="6"/>
+      <c r="Q211" s="6"/>
+      <c r="R211" s="6"/>
+      <c r="S211" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="T210" s="6"/>
-      <c r="U210" s="6"/>
-      <c r="V210" s="6"/>
-      <c r="W210" s="6" t="s">
+      <c r="T211" s="6"/>
+      <c r="U211" s="6"/>
+      <c r="V211" s="6"/>
+      <c r="W211" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X210" s="6"/>
-      <c r="Y210" s="6"/>
-      <c r="Z210" s="6"/>
-      <c r="AA210" s="6" t="s">
+      <c r="X211" s="6"/>
+      <c r="Y211" s="6"/>
+      <c r="Z211" s="6"/>
+      <c r="AA211" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AB210" s="15"/>
-    </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A211" s="35"/>
-      <c r="C211" t="s">
+      <c r="AB211" s="15"/>
+    </row>
+    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A212" s="35"/>
+      <c r="C212" t="s">
         <v>355</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G212" t="s">
         <v>355</v>
       </c>
-      <c r="K211" t="s">
+      <c r="K212" t="s">
         <v>355</v>
       </c>
-      <c r="O211" t="s">
+      <c r="O212" t="s">
         <v>355</v>
       </c>
-      <c r="S211" t="s">
+      <c r="S212" t="s">
         <v>355</v>
       </c>
-      <c r="W211" t="s">
+      <c r="W212" t="s">
         <v>355</v>
       </c>
-      <c r="AA211" t="s">
+      <c r="AA212" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A212" s="35"/>
-    </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A213" s="35"/>
-    </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>388</v>
+      </c>
+      <c r="G213" t="s">
+        <v>391</v>
+      </c>
+      <c r="K213" t="s">
+        <v>390</v>
+      </c>
+      <c r="O213" t="s">
+        <v>391</v>
+      </c>
+      <c r="S213" t="s">
+        <v>389</v>
+      </c>
+      <c r="W213" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A214" s="35"/>
-      <c r="B214" s="24" t="s">
+    </row>
+    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A215" s="35"/>
+    </row>
+    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A216" s="35"/>
+    </row>
+    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A217" s="35"/>
+      <c r="B217" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C214" s="24"/>
-      <c r="D214" s="24"/>
-      <c r="E214" s="24"/>
-      <c r="F214" s="24" t="s">
+      <c r="C217" s="24"/>
+      <c r="D217" s="24"/>
+      <c r="E217" s="24"/>
+      <c r="F217" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G214" s="24"/>
-      <c r="H214" s="24"/>
-      <c r="I214" s="24"/>
-      <c r="J214" s="24" t="s">
+      <c r="G217" s="24"/>
+      <c r="H217" s="24"/>
+      <c r="I217" s="24"/>
+      <c r="J217" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K214" s="24"/>
-      <c r="L214" s="24"/>
-      <c r="M214" s="24"/>
-      <c r="N214" s="24" t="s">
+      <c r="K217" s="24"/>
+      <c r="L217" s="24"/>
+      <c r="M217" s="24"/>
+      <c r="N217" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O214" s="24"/>
-      <c r="P214" s="24"/>
-      <c r="Q214" s="24"/>
-      <c r="R214" s="24"/>
-      <c r="S214" s="24" t="s">
+      <c r="O217" s="24"/>
+      <c r="P217" s="24"/>
+      <c r="Q217" s="24"/>
+      <c r="R217" s="24"/>
+      <c r="S217" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="T214" s="24"/>
-      <c r="U214" s="24"/>
-      <c r="V214" s="24"/>
-      <c r="W214" s="24" t="s">
+      <c r="T217" s="24"/>
+      <c r="U217" s="24"/>
+      <c r="V217" s="24"/>
+      <c r="W217" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="X214" s="24"/>
-      <c r="Y214" s="24"/>
-      <c r="Z214" s="24" t="s">
+      <c r="X217" s="24"/>
+      <c r="Y217" s="24"/>
+      <c r="Z217" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA214" s="24"/>
-      <c r="AB214" s="25"/>
+      <c r="AA217" s="24"/>
+      <c r="AB217" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="V54:X56 W59:W62 W64:W69">
